--- a/data-raw/pm2.5_distribution/AQLI_Epidemiology Literature Research.xlsx
+++ b/data-raw/pm2.5_distribution/AQLI_Epidemiology Literature Research.xlsx
@@ -20,6 +20,78 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="B133">
+      <text>
+        <t xml:space="preserve">This paper talks about the effect of future ambient air pollution on human premature mortality to 2100. Not included as of now.
+	-Aarsh Batra</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B132">
+      <text>
+        <t xml:space="preserve">This is a Global paper. Included this, but need to figure out how to incorporate this, because I don't think individual country level data is provided.
+	-Aarsh Batra</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B131">
+      <text>
+        <t xml:space="preserve">This talks about simulating present and future relationship between PM2.5 and Pre-Mature Mortality. Should we include this?
+	-Aarsh Batra</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B119">
+      <text>
+        <t xml:space="preserve">2020 paper estimating premature mortality attributable to PM2.5 for 2020. Should we include this?
+	-Aarsh Batra</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B116">
+      <text>
+        <t xml:space="preserve">This is an indoor air pollution studying effects on premature mortality . I have not included this. In general should we include indoor air pollution studies?
+	-Aarsh Batra</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B113">
+      <text>
+        <t xml:space="preserve">Should we include DALY (Disability Adjusted Life Years "only") papers?
+	-Aarsh Batra</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B110">
+      <text>
+        <t xml:space="preserve">This paper is about predicting the relationship between PM2.5 and Mortality/Life Expectancy till 2100. Not included as of now.
+	-Aarsh Batra</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B103">
+      <text>
+        <t xml:space="preserve">From the meta analysis, this paper tries to estimate the concentration response function. So, does not fit into our criteria, hence excluding this.
+	-Aarsh Batra</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B102">
+      <text>
+        <t xml:space="preserve">Excluding this because it focuses on morbidity not mortality/life expectancy.
+	-Aarsh Batra</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B108">
+      <text>
+        <t xml:space="preserve">Need full access to this paper. I was not able to access it through my CNET ID. @chasenkopf@uchicago.edu can you please try to access this? Thanks.
+	-Aarsh Batra</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B105">
+      <text>
+        <t xml:space="preserve">This paper explores uncertainty associated with satellite based methods.  I think we can exclude this.
+	-Aarsh Batra</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B99">
+      <text>
+        <t xml:space="preserve">Should we include this? It looks more like a commentary piece that talks about various studies and their results.
+	-Aarsh Batra</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B60">
       <text>
         <t xml:space="preserve">@aarshbatra@uchicagotrust.org request access to this paper from Christa.
@@ -86,6 +158,34 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="B87">
+      <text>
+        <t xml:space="preserve">need to fill in some columns.
+	-Aarsh Batra</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B86">
+      <text>
+        <t xml:space="preserve">Certain columns need to be filled.
+	-Aarsh Batra</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B84">
+      <text>
+        <t xml:space="preserve">Double check study start and end year.
+	-Aarsh Batra</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
     <comment authorId="0" ref="A66">
       <text>
         <t xml:space="preserve">@aarshbatra@uchicagotrust.org look into this.
@@ -97,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1861" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2035" uniqueCount="835">
   <si>
     <t>Paper Reviewed</t>
   </si>
@@ -111,7 +211,7 @@
     <t>Meta-Analysis</t>
   </si>
   <si>
-    <t>Pooled Study</t>
+    <t>Pooled Study (Many countries included in a single study)</t>
   </si>
   <si>
     <t>Double Check these values (have * at end)</t>
@@ -4345,37 +4445,13 @@
     <t>2.9-23.6 µg/m³</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>Loss of life expectancy from air pollution compared to other risk factors: a worldwide perspective</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>*</t>
-    </r>
+    <t>Loss of life expectancy from air pollution compared to other risk factors: a worldwide perspective</t>
   </si>
   <si>
     <t>Jos Lelieveld</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>Air pollution and life expectancy in Europe: Does investment in renewable energy matter?</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>*</t>
-    </r>
+    <t>Air pollution and life expectancy in Europe: Does investment in renewable energy matter?</t>
   </si>
   <si>
     <t>Ana Rodriguez Alvarez</t>
@@ -4384,19 +4460,7 @@
     <t xml:space="preserve">To keep the data structure consistent, are we ok with having 30 rows for each of the 30 countries in this study. If we put all countries in a single cell under the country column in the dataset, it would become difficult for people to use the dataset. Even for in the shape file, each row of the dataset corresponds to a single country, So, to plot multiple countries, it would make sense to have multiple rows (one correspoding to each country) in the dataset. </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>A study of air pollutants influencing life expectancy and longevity from spatial perspective in China</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>*</t>
-    </r>
+    <t>A study of air pollutants influencing life expectancy and longevity from spatial perspective in China</t>
   </si>
   <si>
     <t>Li Wang</t>
@@ -4405,19 +4469,7 @@
     <t>Need Access</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>The impact of air pollution on deaths, disease burden, and life expectancy across the states of India: the Global Burden of Disease Study 2017</t>
-    </r>
-    <r>
-      <rPr>
-        <color rgb="FF000000"/>
-      </rPr>
-      <t>*</t>
-    </r>
+    <t>The impact of air pollution on deaths, disease burden, and life expectancy across the states of India: the Global Burden of Disease Study 2017</t>
   </si>
   <si>
     <t>Balakrishnan et al</t>
@@ -4472,7 +4524,7 @@
   </si>
   <si>
     <t xml:space="preserve">ECONOMIC COSTS OF AIR POLLUTION WITH SPECIAL
-REFERENCE TO INDIA*
+REFERENCE TO INDIA
 </t>
   </si>
   <si>
@@ -4513,7 +4565,7 @@
     </r>
   </si>
   <si>
-    <t>Part 1. A time-series study of ambient air pollution and daily mortality in Shanghai, China*</t>
+    <t>Part 1. A time-series study of ambient air pollution and daily mortality in Shanghai, China</t>
   </si>
   <si>
     <t>Should these type of papers be included in the analysis?</t>
@@ -4529,6 +4581,241 @@
   </si>
   <si>
     <t>1998-2009</t>
+  </si>
+  <si>
+    <t>Historical, Trends in PM2.5-Related Premature Mortality during 1990–2010 across the Northern Hemisphere</t>
+  </si>
+  <si>
+    <t>Specific differences and responses to reductions for premature mortality attributable to ambient PM2.5 in China</t>
+  </si>
+  <si>
+    <t>The burden of ambient air pollution on years of life lost in Wuxi, China, 2012–2015: A time-series study using a distributed lag non-linear model</t>
+  </si>
+  <si>
+    <t>Ambient PM2.5 exposure and premature mortality burden in the holy city Varanasi, India</t>
+  </si>
+  <si>
+    <t>Role of PM2.5 in the development and progression of COPD and its mechanisms*</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>Air particulate matter and cardiovascular disease: the epidemiological, biomedical and clinical evidence</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>PM2.5 air pollution and cause-specific cardiovascular disease mortality</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>Cardiorespiratory health effects of particulate ambient air pollution exposure in low-income and middle-income countries: a systematic review and meta-analysis</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>Particulate Matter Air Pollution: Effects on the Cardiovascular System</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>The concentration-response between long-term PM 2.5 exposure and mortality; A meta-regression approach</t>
+  </si>
+  <si>
+    <t>Ambient Particulate Air Pollution and Daily Mortality in 652 Cities</t>
+  </si>
+  <si>
+    <t>Exploring the Uncertainty Associated with Satellite-Based Estimates of Premature Mortality due to Exposure to Fine Particulate Matter*</t>
+  </si>
+  <si>
+    <t>Reductions of PM2.5 Air Concentrations and Possible Effects on Premature Mortality in Japan</t>
+  </si>
+  <si>
+    <t>Original Article Effects of Particulate Matter on Daily Mortality in 13 Japanese Cities</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>Valuing the health risks of particulate air pollution in the Pearl River Delta, China</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>Expected health benefits from mitigation of emissions from major anthropogenic PM2.5 sources in India</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>Ambient PM2.5 exposure and expected premature mortality to 2100 in India under climate change scenarios.</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>The health burden and economic costs averted by ambient PM2.5 pollution reductions in Nagpur</t>
+  </si>
+  <si>
+    <t>Health impacts of particulate pollution in a megacity—Delhi, India</t>
+  </si>
+  <si>
+    <t>Disability-adjusted life years and economic cost assessment of the health effects related to PM2.5 and PM10 pollution in Mumbai and Delhi, in India from 1991 to 2015. *</t>
+  </si>
+  <si>
+    <t>The estimated change in the level and distribution of PM2.5-attributable health impacts in the United States: 2005–2014</t>
+  </si>
+  <si>
+    <t>Premature Mortality Attributable to Particulate Matter in China: Source Contributions and Responses to Reductions</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>Potential reductions in premature mortality attributable to PM2.5 by reducing indoor pollution: A model analysis for Beijing-Tianjin-Hebei of China</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>PM2.5 from 2001 to 2017 in China and the role of urbanization in aggravating the health burden</t>
+  </si>
+  <si>
+    <t>Assessing the premature death due to ambient particulate matter in China’s urban areas from 2004 to 2013</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>Estimating premature mortality attributable to PM2.5 exposure and benefit of air pollution control policies in China for 2020</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>Characterization of Fine Particulate Matter and Associated Health Burden in Nanjing</t>
+  </si>
+  <si>
+    <t>Change in household fuels dominates the decrease in PM2.5 exposure and premature mortality in China in 2005–2015</t>
+  </si>
+  <si>
+    <t>Nonlinear relationships between air pollutant emissions and PM2.5-related health impacts in the Beijing-Tianjin-Hebei region</t>
+  </si>
+  <si>
+    <t>Long-term trend and spatial pattern of PM2.5 induced premature mortality in China</t>
+  </si>
+  <si>
+    <t>A county-level estimate of PM2.5 related chronic mortality risk in China based on multi-model exposure data.</t>
+  </si>
+  <si>
+    <t>Spatial and Temporal Trends of Number of Deaths Attributable to Ambient PM2.5 in the Korea</t>
+  </si>
+  <si>
+    <t>Levels and Health Risk Assessment of PM10 Aerosol in Brno, Czech Republic</t>
+  </si>
+  <si>
+    <t>Mapping distance-decay of premature mortality attributable to PM2.5-related traffic congestion</t>
+  </si>
+  <si>
+    <t>Premature Adult Death and Equity Impact of a Reduction of NO2, PM10, and PM2.5 Levels in Paris—A Health Impact Assessment Study Conducted at the Census Block Level</t>
+  </si>
+  <si>
+    <t>Health Impacts and Economic Costs of Air Pollution in the Metropolitan Area of Skopje</t>
+  </si>
+  <si>
+    <t>Health Impact of PM10, PM2.5 and Black Carbon Exposure Due to Different Source Sectors in Stockholm, Gothenburg and Umea, Sweden</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>Impacts of 21st century climate change on global air pollution-related premature mortality</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>The Impact of Individual Anthropogenic Emissions Sectors on the Global Burden of Human Mortality due to Ambient Air Pollution</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>The effect of future ambient air pollution on human premature mortality to 2100 using output from the ACCMIP model ensemble</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF000000"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <t>Evaluation of premature mortality caused by exposure to PM2.5 and ozone in East Asia</t>
+  </si>
+  <si>
+    <t>Long-term trends and spatial patterns of PM2.5-induced premature mortality in South and Southeast Asia from 1999 to 2014</t>
+  </si>
+  <si>
+    <t>Causes and consequences of decreasing atmospheric organic aerosol in the United States</t>
   </si>
   <si>
     <t>paper_uid</t>
@@ -4701,13 +4988,51 @@
     <t>South America</t>
   </si>
   <si>
-    <t>The impact of air pollution on deaths, disease burden, and life expectancy across the states of India: the Global Burden of Disease Study 2017</t>
-  </si>
-  <si>
     <t>India</t>
   </si>
   <si>
+    <t xml:space="preserve">ECONOMIC COSTS OF AIR POLLUTION WITH SPECIAL
+REFERENCE TO INDIA*
+</t>
+  </si>
+  <si>
     <t>Abdolahnejad et al</t>
+  </si>
+  <si>
+    <t>Part 1. A time-series study of ambient air pollution and daily mortality in Shanghai, China*</t>
+  </si>
+  <si>
+    <t>Historical, Trends in PM2.5-Related Premature Mortality during 1990–2010 across the Northern Hemisphere*</t>
+  </si>
+  <si>
+    <t>Zhu et al</t>
+  </si>
+  <si>
+    <t>Ambient PM2.5 exposure and premature mortality burden in the holy city Varanasi, India*</t>
+  </si>
+  <si>
+    <t>Hayes et al</t>
+  </si>
+  <si>
+    <t>Ambient Particulate Air Pollution and Daily Mortality in 652 Cities*</t>
+  </si>
+  <si>
+    <t>Nawahda et al</t>
+  </si>
+  <si>
+    <t>Omori et al</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Macedonia</t>
+  </si>
+  <si>
+    <t>Sweden</t>
   </si>
   <si>
     <t>Keyword/Q's/Concepts</t>
@@ -5353,6 +5678,9 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="12" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
@@ -5367,9 +5695,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="12" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -5642,7 +5967,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:AD93" displayName="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:AD136" displayName="Table_1" id="1">
   <tableColumns count="30">
     <tableColumn name="PaperUID" id="1"/>
     <tableColumn name="Paper PDF Link" id="2"/>
@@ -6356,13 +6681,13 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="38" t="s">
         <v>87</v>
       </c>
       <c r="C5" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="39" t="s">
         <v>88</v>
       </c>
       <c r="E5" s="25">
@@ -6428,7 +6753,7 @@
       <c r="Z5" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="AA5" s="39" t="s">
+      <c r="AA5" s="40" t="s">
         <v>99</v>
       </c>
       <c r="AB5" s="36"/>
@@ -6497,7 +6822,7 @@
       <c r="U6" s="25" t="s">
         <v>109</v>
       </c>
-      <c r="V6" s="40">
+      <c r="V6" s="41">
         <v>89835.0</v>
       </c>
       <c r="W6" s="29" t="s">
@@ -6585,7 +6910,7 @@
       <c r="U7" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="V7" s="40">
+      <c r="V7" s="41">
         <v>108767.0</v>
       </c>
       <c r="W7" s="29" t="s">
@@ -6605,7 +6930,7 @@
       </c>
       <c r="AB7" s="36"/>
       <c r="AC7" s="36"/>
-      <c r="AD7" s="39" t="s">
+      <c r="AD7" s="40" t="s">
         <v>128</v>
       </c>
     </row>
@@ -6782,7 +7107,7 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="38" t="s">
         <v>155</v>
       </c>
       <c r="C10" s="25" t="s">
@@ -6864,7 +7189,7 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="38" t="s">
         <v>167</v>
       </c>
       <c r="C11" s="25" t="s">
@@ -6948,7 +7273,7 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="B12" s="24" t="s">
+      <c r="B12" s="38" t="s">
         <v>180</v>
       </c>
       <c r="C12" s="25" t="s">
@@ -7032,7 +7357,7 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="38" t="s">
         <v>192</v>
       </c>
       <c r="C13" s="25" t="s">
@@ -7089,13 +7414,13 @@
       <c r="U13" s="25" t="s">
         <v>199</v>
       </c>
-      <c r="V13" s="40">
+      <c r="V13" s="41">
         <v>66820.0</v>
       </c>
       <c r="W13" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="X13" s="41" t="s">
+      <c r="X13" s="42" t="s">
         <v>201</v>
       </c>
       <c r="Y13" s="25"/>
@@ -7116,7 +7441,7 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="B14" s="24" t="s">
+      <c r="B14" s="38" t="s">
         <v>205</v>
       </c>
       <c r="C14" s="25" t="s">
@@ -7176,10 +7501,10 @@
       <c r="V14" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="W14" s="42" t="s">
+      <c r="W14" s="43" t="s">
         <v>215</v>
       </c>
-      <c r="X14" s="41" t="s">
+      <c r="X14" s="42" t="s">
         <v>216</v>
       </c>
       <c r="Y14" s="25"/>
@@ -7200,7 +7525,7 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="38" t="s">
         <v>220</v>
       </c>
       <c r="C15" s="25" t="s">
@@ -7286,7 +7611,7 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="24" t="s">
         <v>234</v>
       </c>
       <c r="C16" s="25" t="s">
@@ -7350,7 +7675,7 @@
       <c r="W16" s="29" t="s">
         <v>244</v>
       </c>
-      <c r="X16" s="41" t="s">
+      <c r="X16" s="42" t="s">
         <v>245</v>
       </c>
       <c r="Y16" s="25"/>
@@ -7427,7 +7752,7 @@
       <c r="W17" s="29" t="s">
         <v>256</v>
       </c>
-      <c r="X17" s="41" t="s">
+      <c r="X17" s="42" t="s">
         <v>257</v>
       </c>
       <c r="Y17" s="25"/>
@@ -7498,7 +7823,7 @@
       <c r="W18" s="29" t="s">
         <v>265</v>
       </c>
-      <c r="X18" s="41" t="s">
+      <c r="X18" s="42" t="s">
         <v>266</v>
       </c>
       <c r="Y18" s="25"/>
@@ -7944,7 +8269,7 @@
       <c r="U24" s="25" t="s">
         <v>291</v>
       </c>
-      <c r="V24" s="40">
+      <c r="V24" s="41">
         <v>1.6965154E7</v>
       </c>
       <c r="W24" s="29" t="s">
@@ -8918,7 +9243,7 @@
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="24" t="s">
         <v>400</v>
       </c>
       <c r="C38" s="25" t="s">
@@ -9116,7 +9441,7 @@
       <c r="U40" s="25" t="s">
         <v>124</v>
       </c>
-      <c r="V40" s="40">
+      <c r="V40" s="41">
         <v>3.3292571E7</v>
       </c>
       <c r="W40" s="29" t="s">
@@ -10578,7 +10903,7 @@
         <f t="shared" si="2"/>
         <v>61</v>
       </c>
-      <c r="B62" s="43" t="s">
+      <c r="B62" s="24" t="s">
         <v>539</v>
       </c>
       <c r="C62" s="25" t="s">
@@ -10636,7 +10961,7 @@
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="B63" s="24" t="s">
+      <c r="B63" s="38" t="s">
         <v>540</v>
       </c>
       <c r="C63" s="25" t="s">
@@ -10692,7 +11017,7 @@
         <f t="shared" si="2"/>
         <v>63</v>
       </c>
-      <c r="B64" s="24" t="s">
+      <c r="B64" s="38" t="s">
         <v>541</v>
       </c>
       <c r="C64" s="25" t="s">
@@ -10810,7 +11135,7 @@
         <f t="shared" si="2"/>
         <v>65</v>
       </c>
-      <c r="B66" s="24" t="s">
+      <c r="B66" s="38" t="s">
         <v>550</v>
       </c>
       <c r="C66" s="25" t="s">
@@ -10868,7 +11193,7 @@
         <f t="shared" si="2"/>
         <v>66</v>
       </c>
-      <c r="B67" s="24" t="s">
+      <c r="B67" s="38" t="s">
         <v>553</v>
       </c>
       <c r="C67" s="25" t="s">
@@ -11182,7 +11507,7 @@
       <c r="O72" s="36"/>
       <c r="P72" s="37"/>
       <c r="Q72" s="37"/>
-      <c r="R72" s="39" t="s">
+      <c r="R72" s="40" t="s">
         <v>564</v>
       </c>
       <c r="S72" s="25" t="s">
@@ -11644,7 +11969,7 @@
         <v>42</v>
       </c>
       <c r="H80" s="25" t="s">
-        <v>43</v>
+        <v>557</v>
       </c>
       <c r="I80" s="59"/>
       <c r="J80" s="57"/>
@@ -11690,7 +12015,7 @@
         <v>42</v>
       </c>
       <c r="H81" s="25" t="s">
-        <v>43</v>
+        <v>557</v>
       </c>
       <c r="I81" s="59"/>
       <c r="J81" s="57"/>
@@ -11988,7 +12313,7 @@
         <v>42</v>
       </c>
       <c r="H87" s="25" t="s">
-        <v>43</v>
+        <v>557</v>
       </c>
       <c r="I87" s="59"/>
       <c r="J87" s="57"/>
@@ -12189,7 +12514,7 @@
       <c r="A92" s="23">
         <v>92.0</v>
       </c>
-      <c r="B92" s="63" t="s">
+      <c r="B92" s="58" t="s">
         <v>636</v>
       </c>
       <c r="C92" s="57"/>
@@ -12253,7 +12578,9 @@
       <c r="M93" s="36"/>
       <c r="N93" s="36"/>
       <c r="O93" s="36"/>
-      <c r="P93" s="62"/>
+      <c r="P93" s="26" t="s">
+        <v>224</v>
+      </c>
       <c r="Q93" s="37"/>
       <c r="R93" s="37"/>
       <c r="S93" s="36"/>
@@ -12276,692 +12603,1562 @@
       <c r="AD93" s="62"/>
     </row>
     <row r="94">
-      <c r="A94" s="64"/>
-      <c r="B94" s="65"/>
-      <c r="C94" s="66"/>
-      <c r="D94" s="66"/>
-      <c r="E94" s="66"/>
-      <c r="G94" s="66"/>
-      <c r="H94" s="66"/>
-      <c r="I94" s="67"/>
-      <c r="J94" s="66"/>
-      <c r="P94" s="65"/>
-      <c r="Q94" s="65"/>
-      <c r="R94" s="65"/>
-      <c r="T94" s="65"/>
-      <c r="W94" s="68"/>
+      <c r="A94" s="23">
+        <v>94.0</v>
+      </c>
+      <c r="B94" s="58" t="s">
+        <v>642</v>
+      </c>
+      <c r="C94" s="57"/>
+      <c r="D94" s="57"/>
+      <c r="E94" s="57"/>
+      <c r="F94" s="61"/>
+      <c r="G94" s="57"/>
+      <c r="H94" s="25" t="s">
+        <v>557</v>
+      </c>
+      <c r="I94" s="59"/>
+      <c r="J94" s="57"/>
+      <c r="K94" s="57"/>
+      <c r="L94" s="36"/>
+      <c r="M94" s="36"/>
+      <c r="N94" s="36"/>
+      <c r="O94" s="36"/>
+      <c r="P94" s="62"/>
+      <c r="Q94" s="37"/>
+      <c r="R94" s="37"/>
+      <c r="S94" s="36"/>
+      <c r="T94" s="62"/>
+      <c r="U94" s="57"/>
+      <c r="V94" s="57"/>
+      <c r="W94" s="60"/>
+      <c r="X94" s="61"/>
+      <c r="Y94" s="57"/>
+      <c r="Z94" s="36"/>
+      <c r="AA94" s="36"/>
+      <c r="AB94" s="36"/>
+      <c r="AC94" s="36"/>
+      <c r="AD94" s="62"/>
     </row>
     <row r="95">
-      <c r="A95" s="64"/>
-      <c r="B95" s="65"/>
-      <c r="C95" s="66"/>
-      <c r="D95" s="66"/>
-      <c r="E95" s="66"/>
-      <c r="G95" s="66"/>
-      <c r="H95" s="66"/>
-      <c r="I95" s="67"/>
-      <c r="J95" s="66"/>
-      <c r="P95" s="65"/>
-      <c r="Q95" s="65"/>
-      <c r="R95" s="65"/>
-      <c r="T95" s="65"/>
-      <c r="W95" s="68"/>
+      <c r="A95" s="23">
+        <v>95.0</v>
+      </c>
+      <c r="B95" s="58" t="s">
+        <v>643</v>
+      </c>
+      <c r="C95" s="57"/>
+      <c r="D95" s="57"/>
+      <c r="E95" s="57"/>
+      <c r="F95" s="61"/>
+      <c r="G95" s="57"/>
+      <c r="H95" s="57"/>
+      <c r="I95" s="59"/>
+      <c r="J95" s="57"/>
+      <c r="K95" s="57"/>
+      <c r="L95" s="36"/>
+      <c r="M95" s="36"/>
+      <c r="N95" s="36"/>
+      <c r="O95" s="36"/>
+      <c r="P95" s="62"/>
+      <c r="Q95" s="37"/>
+      <c r="R95" s="37"/>
+      <c r="S95" s="36"/>
+      <c r="T95" s="62"/>
+      <c r="U95" s="57"/>
+      <c r="V95" s="57"/>
+      <c r="W95" s="60"/>
+      <c r="X95" s="61"/>
+      <c r="Y95" s="57"/>
+      <c r="Z95" s="36"/>
+      <c r="AA95" s="36"/>
+      <c r="AB95" s="36"/>
+      <c r="AC95" s="36"/>
+      <c r="AD95" s="62"/>
     </row>
     <row r="96">
-      <c r="A96" s="64"/>
-      <c r="B96" s="65"/>
-      <c r="C96" s="66"/>
-      <c r="D96" s="66"/>
-      <c r="E96" s="66"/>
-      <c r="G96" s="66"/>
-      <c r="H96" s="66"/>
-      <c r="I96" s="67"/>
-      <c r="J96" s="66"/>
-      <c r="P96" s="65"/>
-      <c r="Q96" s="65"/>
-      <c r="R96" s="65"/>
-      <c r="T96" s="65"/>
-      <c r="W96" s="68"/>
+      <c r="A96" s="23">
+        <v>96.0</v>
+      </c>
+      <c r="B96" s="58" t="s">
+        <v>644</v>
+      </c>
+      <c r="C96" s="57"/>
+      <c r="D96" s="57"/>
+      <c r="E96" s="57"/>
+      <c r="F96" s="61"/>
+      <c r="G96" s="57"/>
+      <c r="H96" s="57"/>
+      <c r="I96" s="59"/>
+      <c r="J96" s="57"/>
+      <c r="K96" s="57"/>
+      <c r="L96" s="36"/>
+      <c r="M96" s="36"/>
+      <c r="N96" s="36"/>
+      <c r="O96" s="36"/>
+      <c r="P96" s="62"/>
+      <c r="Q96" s="37"/>
+      <c r="R96" s="37"/>
+      <c r="S96" s="36"/>
+      <c r="T96" s="62"/>
+      <c r="U96" s="57"/>
+      <c r="V96" s="57"/>
+      <c r="W96" s="60"/>
+      <c r="X96" s="61"/>
+      <c r="Y96" s="57"/>
+      <c r="Z96" s="36"/>
+      <c r="AA96" s="36"/>
+      <c r="AB96" s="36"/>
+      <c r="AC96" s="36"/>
+      <c r="AD96" s="62"/>
     </row>
     <row r="97">
-      <c r="A97" s="64"/>
-      <c r="B97" s="65"/>
-      <c r="C97" s="66"/>
-      <c r="D97" s="66"/>
-      <c r="E97" s="66"/>
-      <c r="G97" s="66"/>
-      <c r="H97" s="66"/>
-      <c r="I97" s="67"/>
-      <c r="J97" s="66"/>
-      <c r="P97" s="65"/>
-      <c r="Q97" s="65"/>
-      <c r="R97" s="65"/>
-      <c r="T97" s="65"/>
-      <c r="W97" s="68"/>
+      <c r="A97" s="23">
+        <v>97.0</v>
+      </c>
+      <c r="B97" s="58" t="s">
+        <v>645</v>
+      </c>
+      <c r="C97" s="57"/>
+      <c r="D97" s="57"/>
+      <c r="E97" s="57"/>
+      <c r="F97" s="61"/>
+      <c r="G97" s="57"/>
+      <c r="H97" s="57"/>
+      <c r="I97" s="59"/>
+      <c r="J97" s="57"/>
+      <c r="K97" s="57"/>
+      <c r="L97" s="36"/>
+      <c r="M97" s="36"/>
+      <c r="N97" s="36"/>
+      <c r="O97" s="36"/>
+      <c r="P97" s="62"/>
+      <c r="Q97" s="37"/>
+      <c r="R97" s="37"/>
+      <c r="S97" s="36"/>
+      <c r="T97" s="62"/>
+      <c r="U97" s="57"/>
+      <c r="V97" s="57"/>
+      <c r="W97" s="60"/>
+      <c r="X97" s="61"/>
+      <c r="Y97" s="57"/>
+      <c r="Z97" s="36"/>
+      <c r="AA97" s="36"/>
+      <c r="AB97" s="36"/>
+      <c r="AC97" s="36"/>
+      <c r="AD97" s="62"/>
     </row>
     <row r="98">
-      <c r="A98" s="64"/>
-      <c r="B98" s="65"/>
-      <c r="C98" s="66"/>
-      <c r="D98" s="66"/>
-      <c r="E98" s="66"/>
-      <c r="G98" s="66"/>
-      <c r="H98" s="66"/>
-      <c r="I98" s="67"/>
-      <c r="J98" s="66"/>
-      <c r="P98" s="65"/>
-      <c r="Q98" s="65"/>
-      <c r="R98" s="65"/>
-      <c r="T98" s="65"/>
-      <c r="W98" s="68"/>
+      <c r="A98" s="23">
+        <v>98.0</v>
+      </c>
+      <c r="B98" s="58" t="s">
+        <v>646</v>
+      </c>
+      <c r="C98" s="57"/>
+      <c r="D98" s="57"/>
+      <c r="E98" s="57"/>
+      <c r="F98" s="61"/>
+      <c r="G98" s="57"/>
+      <c r="H98" s="57"/>
+      <c r="I98" s="59"/>
+      <c r="J98" s="57"/>
+      <c r="K98" s="57"/>
+      <c r="L98" s="36"/>
+      <c r="M98" s="36"/>
+      <c r="N98" s="36"/>
+      <c r="O98" s="36"/>
+      <c r="P98" s="62"/>
+      <c r="Q98" s="37"/>
+      <c r="R98" s="37"/>
+      <c r="S98" s="36"/>
+      <c r="T98" s="62"/>
+      <c r="U98" s="57"/>
+      <c r="V98" s="57"/>
+      <c r="W98" s="60"/>
+      <c r="X98" s="61"/>
+      <c r="Y98" s="57"/>
+      <c r="Z98" s="36"/>
+      <c r="AA98" s="36"/>
+      <c r="AB98" s="36"/>
+      <c r="AC98" s="36"/>
+      <c r="AD98" s="62"/>
     </row>
     <row r="99">
-      <c r="A99" s="64"/>
-      <c r="B99" s="65"/>
-      <c r="C99" s="66"/>
-      <c r="D99" s="66"/>
-      <c r="E99" s="66"/>
-      <c r="G99" s="66"/>
-      <c r="H99" s="66"/>
-      <c r="I99" s="67"/>
-      <c r="J99" s="66"/>
-      <c r="P99" s="65"/>
-      <c r="Q99" s="65"/>
-      <c r="R99" s="65"/>
-      <c r="T99" s="65"/>
-      <c r="W99" s="68"/>
+      <c r="A99" s="23">
+        <v>99.0</v>
+      </c>
+      <c r="B99" s="58" t="s">
+        <v>647</v>
+      </c>
+      <c r="C99" s="57"/>
+      <c r="D99" s="57"/>
+      <c r="E99" s="57"/>
+      <c r="F99" s="61"/>
+      <c r="G99" s="57"/>
+      <c r="H99" s="57"/>
+      <c r="I99" s="59"/>
+      <c r="J99" s="57"/>
+      <c r="K99" s="57"/>
+      <c r="L99" s="36"/>
+      <c r="M99" s="36"/>
+      <c r="N99" s="36"/>
+      <c r="O99" s="36"/>
+      <c r="P99" s="62"/>
+      <c r="Q99" s="37"/>
+      <c r="R99" s="37"/>
+      <c r="S99" s="36"/>
+      <c r="T99" s="62"/>
+      <c r="U99" s="57"/>
+      <c r="V99" s="57"/>
+      <c r="W99" s="60"/>
+      <c r="X99" s="61"/>
+      <c r="Y99" s="57"/>
+      <c r="Z99" s="36"/>
+      <c r="AA99" s="36"/>
+      <c r="AB99" s="36"/>
+      <c r="AC99" s="36"/>
+      <c r="AD99" s="62"/>
     </row>
     <row r="100">
-      <c r="A100" s="64"/>
-      <c r="B100" s="65"/>
-      <c r="C100" s="66"/>
-      <c r="D100" s="66"/>
-      <c r="E100" s="66"/>
-      <c r="G100" s="66"/>
-      <c r="H100" s="66"/>
-      <c r="I100" s="67"/>
-      <c r="J100" s="66"/>
-      <c r="P100" s="65"/>
-      <c r="Q100" s="65"/>
-      <c r="R100" s="65"/>
-      <c r="T100" s="65"/>
-      <c r="W100" s="68"/>
+      <c r="A100" s="23">
+        <v>100.0</v>
+      </c>
+      <c r="B100" s="58" t="s">
+        <v>648</v>
+      </c>
+      <c r="C100" s="57"/>
+      <c r="D100" s="57"/>
+      <c r="E100" s="57"/>
+      <c r="F100" s="61"/>
+      <c r="G100" s="57"/>
+      <c r="H100" s="57"/>
+      <c r="I100" s="59"/>
+      <c r="J100" s="57"/>
+      <c r="K100" s="57"/>
+      <c r="L100" s="36"/>
+      <c r="M100" s="36"/>
+      <c r="N100" s="36"/>
+      <c r="O100" s="36"/>
+      <c r="P100" s="62"/>
+      <c r="Q100" s="37"/>
+      <c r="R100" s="37"/>
+      <c r="S100" s="36"/>
+      <c r="T100" s="62"/>
+      <c r="U100" s="57"/>
+      <c r="V100" s="57"/>
+      <c r="W100" s="60"/>
+      <c r="X100" s="61"/>
+      <c r="Y100" s="57"/>
+      <c r="Z100" s="36"/>
+      <c r="AA100" s="36"/>
+      <c r="AB100" s="36"/>
+      <c r="AC100" s="36"/>
+      <c r="AD100" s="62"/>
     </row>
     <row r="101">
-      <c r="A101" s="64"/>
-      <c r="B101" s="65"/>
-      <c r="C101" s="66"/>
-      <c r="D101" s="66"/>
-      <c r="E101" s="66"/>
-      <c r="G101" s="66"/>
-      <c r="H101" s="66"/>
-      <c r="I101" s="67"/>
-      <c r="J101" s="66"/>
-      <c r="P101" s="65"/>
-      <c r="Q101" s="65"/>
-      <c r="R101" s="65"/>
-      <c r="T101" s="65"/>
-      <c r="W101" s="68"/>
+      <c r="A101" s="23">
+        <v>101.0</v>
+      </c>
+      <c r="B101" s="58" t="s">
+        <v>649</v>
+      </c>
+      <c r="C101" s="57"/>
+      <c r="D101" s="57"/>
+      <c r="E101" s="57"/>
+      <c r="F101" s="61"/>
+      <c r="G101" s="57"/>
+      <c r="H101" s="25" t="s">
+        <v>582</v>
+      </c>
+      <c r="I101" s="59"/>
+      <c r="J101" s="57"/>
+      <c r="K101" s="57"/>
+      <c r="L101" s="36"/>
+      <c r="M101" s="36"/>
+      <c r="N101" s="36"/>
+      <c r="O101" s="36"/>
+      <c r="P101" s="62"/>
+      <c r="Q101" s="37"/>
+      <c r="R101" s="37"/>
+      <c r="S101" s="36"/>
+      <c r="T101" s="62"/>
+      <c r="U101" s="57"/>
+      <c r="V101" s="57"/>
+      <c r="W101" s="60"/>
+      <c r="X101" s="61"/>
+      <c r="Y101" s="57"/>
+      <c r="Z101" s="36"/>
+      <c r="AA101" s="36"/>
+      <c r="AB101" s="36"/>
+      <c r="AC101" s="36"/>
+      <c r="AD101" s="62"/>
     </row>
     <row r="102">
-      <c r="A102" s="64"/>
-      <c r="B102" s="65"/>
-      <c r="C102" s="66"/>
-      <c r="D102" s="66"/>
-      <c r="E102" s="66"/>
-      <c r="G102" s="66"/>
-      <c r="H102" s="66"/>
-      <c r="I102" s="67"/>
-      <c r="J102" s="66"/>
-      <c r="P102" s="65"/>
-      <c r="Q102" s="65"/>
-      <c r="R102" s="65"/>
-      <c r="T102" s="65"/>
-      <c r="W102" s="68"/>
+      <c r="A102" s="23">
+        <v>102.0</v>
+      </c>
+      <c r="B102" s="58" t="s">
+        <v>650</v>
+      </c>
+      <c r="C102" s="57"/>
+      <c r="D102" s="57"/>
+      <c r="E102" s="57"/>
+      <c r="F102" s="61"/>
+      <c r="G102" s="57"/>
+      <c r="H102" s="57"/>
+      <c r="I102" s="59"/>
+      <c r="J102" s="57"/>
+      <c r="K102" s="57"/>
+      <c r="L102" s="36"/>
+      <c r="M102" s="36"/>
+      <c r="N102" s="36"/>
+      <c r="O102" s="36"/>
+      <c r="P102" s="62"/>
+      <c r="Q102" s="37"/>
+      <c r="R102" s="37"/>
+      <c r="S102" s="36"/>
+      <c r="T102" s="62"/>
+      <c r="U102" s="57"/>
+      <c r="V102" s="57"/>
+      <c r="W102" s="60"/>
+      <c r="X102" s="61"/>
+      <c r="Y102" s="57"/>
+      <c r="Z102" s="36"/>
+      <c r="AA102" s="36"/>
+      <c r="AB102" s="36"/>
+      <c r="AC102" s="36"/>
+      <c r="AD102" s="62"/>
     </row>
     <row r="103">
-      <c r="A103" s="64"/>
-      <c r="B103" s="65"/>
-      <c r="C103" s="66"/>
-      <c r="D103" s="66"/>
-      <c r="E103" s="66"/>
-      <c r="G103" s="66"/>
-      <c r="H103" s="66"/>
-      <c r="I103" s="67"/>
-      <c r="J103" s="66"/>
-      <c r="P103" s="65"/>
-      <c r="Q103" s="65"/>
-      <c r="R103" s="65"/>
-      <c r="T103" s="65"/>
-      <c r="W103" s="68"/>
+      <c r="A103" s="23">
+        <v>103.0</v>
+      </c>
+      <c r="B103" s="58" t="s">
+        <v>651</v>
+      </c>
+      <c r="C103" s="57"/>
+      <c r="D103" s="57"/>
+      <c r="E103" s="57"/>
+      <c r="F103" s="61"/>
+      <c r="G103" s="57"/>
+      <c r="H103" s="25" t="s">
+        <v>582</v>
+      </c>
+      <c r="I103" s="59"/>
+      <c r="J103" s="57"/>
+      <c r="K103" s="57"/>
+      <c r="L103" s="36"/>
+      <c r="M103" s="36"/>
+      <c r="N103" s="36"/>
+      <c r="O103" s="36"/>
+      <c r="P103" s="62"/>
+      <c r="Q103" s="37"/>
+      <c r="R103" s="37"/>
+      <c r="S103" s="36"/>
+      <c r="T103" s="62"/>
+      <c r="U103" s="57"/>
+      <c r="V103" s="57"/>
+      <c r="W103" s="60"/>
+      <c r="X103" s="61"/>
+      <c r="Y103" s="57"/>
+      <c r="Z103" s="36"/>
+      <c r="AA103" s="36"/>
+      <c r="AB103" s="36"/>
+      <c r="AC103" s="36"/>
+      <c r="AD103" s="62"/>
     </row>
     <row r="104">
-      <c r="A104" s="64"/>
-      <c r="B104" s="65"/>
-      <c r="C104" s="66"/>
-      <c r="D104" s="66"/>
-      <c r="E104" s="66"/>
-      <c r="G104" s="66"/>
-      <c r="H104" s="66"/>
-      <c r="I104" s="67"/>
-      <c r="J104" s="66"/>
-      <c r="P104" s="65"/>
-      <c r="Q104" s="65"/>
-      <c r="R104" s="65"/>
-      <c r="T104" s="65"/>
-      <c r="W104" s="68"/>
+      <c r="A104" s="23">
+        <v>104.0</v>
+      </c>
+      <c r="B104" s="58" t="s">
+        <v>652</v>
+      </c>
+      <c r="C104" s="57"/>
+      <c r="D104" s="57"/>
+      <c r="E104" s="57"/>
+      <c r="F104" s="61"/>
+      <c r="G104" s="57"/>
+      <c r="H104" s="57"/>
+      <c r="I104" s="59"/>
+      <c r="J104" s="57"/>
+      <c r="K104" s="57"/>
+      <c r="L104" s="36"/>
+      <c r="M104" s="36"/>
+      <c r="N104" s="36"/>
+      <c r="O104" s="36"/>
+      <c r="P104" s="62"/>
+      <c r="Q104" s="37"/>
+      <c r="R104" s="37"/>
+      <c r="S104" s="36"/>
+      <c r="T104" s="62"/>
+      <c r="U104" s="57"/>
+      <c r="V104" s="57"/>
+      <c r="W104" s="60"/>
+      <c r="X104" s="61"/>
+      <c r="Y104" s="57"/>
+      <c r="Z104" s="36"/>
+      <c r="AA104" s="36"/>
+      <c r="AB104" s="36"/>
+      <c r="AC104" s="36"/>
+      <c r="AD104" s="62"/>
     </row>
     <row r="105">
-      <c r="A105" s="64"/>
-      <c r="B105" s="65"/>
-      <c r="C105" s="66"/>
-      <c r="D105" s="66"/>
-      <c r="E105" s="66"/>
-      <c r="G105" s="66"/>
-      <c r="H105" s="66"/>
-      <c r="I105" s="67"/>
-      <c r="J105" s="66"/>
-      <c r="P105" s="65"/>
-      <c r="Q105" s="65"/>
-      <c r="R105" s="65"/>
-      <c r="T105" s="65"/>
-      <c r="W105" s="68"/>
+      <c r="A105" s="23">
+        <v>105.0</v>
+      </c>
+      <c r="B105" s="58" t="s">
+        <v>653</v>
+      </c>
+      <c r="C105" s="57"/>
+      <c r="D105" s="57"/>
+      <c r="E105" s="57"/>
+      <c r="F105" s="61"/>
+      <c r="G105" s="57"/>
+      <c r="H105" s="57"/>
+      <c r="I105" s="59"/>
+      <c r="J105" s="57"/>
+      <c r="K105" s="57"/>
+      <c r="L105" s="36"/>
+      <c r="M105" s="36"/>
+      <c r="N105" s="36"/>
+      <c r="O105" s="36"/>
+      <c r="P105" s="62"/>
+      <c r="Q105" s="37"/>
+      <c r="R105" s="37"/>
+      <c r="S105" s="36"/>
+      <c r="T105" s="62"/>
+      <c r="U105" s="57"/>
+      <c r="V105" s="57"/>
+      <c r="W105" s="60"/>
+      <c r="X105" s="61"/>
+      <c r="Y105" s="57"/>
+      <c r="Z105" s="36"/>
+      <c r="AA105" s="36"/>
+      <c r="AB105" s="36"/>
+      <c r="AC105" s="36"/>
+      <c r="AD105" s="62"/>
     </row>
     <row r="106">
-      <c r="A106" s="64"/>
-      <c r="B106" s="65"/>
-      <c r="C106" s="66"/>
-      <c r="D106" s="66"/>
-      <c r="E106" s="66"/>
-      <c r="G106" s="66"/>
-      <c r="H106" s="66"/>
-      <c r="I106" s="67"/>
-      <c r="J106" s="66"/>
-      <c r="P106" s="65"/>
-      <c r="Q106" s="65"/>
-      <c r="R106" s="65"/>
-      <c r="T106" s="65"/>
-      <c r="W106" s="68"/>
+      <c r="A106" s="23">
+        <v>106.0</v>
+      </c>
+      <c r="B106" s="58" t="s">
+        <v>654</v>
+      </c>
+      <c r="C106" s="57"/>
+      <c r="D106" s="57"/>
+      <c r="E106" s="57"/>
+      <c r="F106" s="61"/>
+      <c r="G106" s="57"/>
+      <c r="H106" s="57"/>
+      <c r="I106" s="59"/>
+      <c r="J106" s="57"/>
+      <c r="K106" s="57"/>
+      <c r="L106" s="36"/>
+      <c r="M106" s="36"/>
+      <c r="N106" s="36"/>
+      <c r="O106" s="36"/>
+      <c r="P106" s="62"/>
+      <c r="Q106" s="37"/>
+      <c r="R106" s="37"/>
+      <c r="S106" s="36"/>
+      <c r="T106" s="62"/>
+      <c r="U106" s="57"/>
+      <c r="V106" s="57"/>
+      <c r="W106" s="60"/>
+      <c r="X106" s="61"/>
+      <c r="Y106" s="57"/>
+      <c r="Z106" s="36"/>
+      <c r="AA106" s="36"/>
+      <c r="AB106" s="36"/>
+      <c r="AC106" s="36"/>
+      <c r="AD106" s="62"/>
     </row>
     <row r="107">
-      <c r="A107" s="64"/>
-      <c r="B107" s="65"/>
-      <c r="C107" s="66"/>
-      <c r="D107" s="66"/>
-      <c r="E107" s="66"/>
-      <c r="G107" s="66"/>
-      <c r="H107" s="66"/>
-      <c r="I107" s="67"/>
-      <c r="J107" s="66"/>
-      <c r="P107" s="65"/>
-      <c r="Q107" s="65"/>
-      <c r="R107" s="65"/>
-      <c r="T107" s="65"/>
-      <c r="W107" s="68"/>
+      <c r="A107" s="23">
+        <v>107.0</v>
+      </c>
+      <c r="B107" s="58" t="s">
+        <v>655</v>
+      </c>
+      <c r="C107" s="57"/>
+      <c r="D107" s="57"/>
+      <c r="E107" s="57"/>
+      <c r="F107" s="61"/>
+      <c r="G107" s="57"/>
+      <c r="H107" s="57"/>
+      <c r="I107" s="59"/>
+      <c r="J107" s="57"/>
+      <c r="K107" s="57"/>
+      <c r="L107" s="36"/>
+      <c r="M107" s="36"/>
+      <c r="N107" s="36"/>
+      <c r="O107" s="36"/>
+      <c r="P107" s="26"/>
+      <c r="Q107" s="37"/>
+      <c r="R107" s="37"/>
+      <c r="S107" s="36"/>
+      <c r="T107" s="62"/>
+      <c r="U107" s="57"/>
+      <c r="V107" s="57"/>
+      <c r="W107" s="60"/>
+      <c r="X107" s="61"/>
+      <c r="Y107" s="57"/>
+      <c r="Z107" s="36"/>
+      <c r="AA107" s="36"/>
+      <c r="AB107" s="36"/>
+      <c r="AC107" s="36"/>
+      <c r="AD107" s="62"/>
     </row>
     <row r="108">
-      <c r="A108" s="64"/>
-      <c r="B108" s="65"/>
-      <c r="C108" s="66"/>
-      <c r="D108" s="66"/>
-      <c r="E108" s="66"/>
-      <c r="G108" s="66"/>
-      <c r="H108" s="66"/>
-      <c r="I108" s="67"/>
-      <c r="J108" s="66"/>
-      <c r="P108" s="65"/>
-      <c r="Q108" s="65"/>
-      <c r="R108" s="65"/>
-      <c r="T108" s="65"/>
-      <c r="W108" s="68"/>
+      <c r="A108" s="23">
+        <v>108.0</v>
+      </c>
+      <c r="B108" s="58" t="s">
+        <v>656</v>
+      </c>
+      <c r="C108" s="57"/>
+      <c r="D108" s="57"/>
+      <c r="E108" s="57"/>
+      <c r="F108" s="61"/>
+      <c r="G108" s="57"/>
+      <c r="H108" s="57"/>
+      <c r="I108" s="59"/>
+      <c r="J108" s="57"/>
+      <c r="K108" s="57"/>
+      <c r="L108" s="36"/>
+      <c r="M108" s="36"/>
+      <c r="N108" s="36"/>
+      <c r="O108" s="36"/>
+      <c r="P108" s="62"/>
+      <c r="Q108" s="37"/>
+      <c r="R108" s="37"/>
+      <c r="S108" s="36"/>
+      <c r="T108" s="62"/>
+      <c r="U108" s="57"/>
+      <c r="V108" s="57"/>
+      <c r="W108" s="60"/>
+      <c r="X108" s="61"/>
+      <c r="Y108" s="57"/>
+      <c r="Z108" s="36"/>
+      <c r="AA108" s="36"/>
+      <c r="AB108" s="36"/>
+      <c r="AC108" s="36"/>
+      <c r="AD108" s="62"/>
     </row>
     <row r="109">
-      <c r="A109" s="64"/>
-      <c r="B109" s="65"/>
-      <c r="C109" s="66"/>
-      <c r="D109" s="66"/>
-      <c r="E109" s="66"/>
-      <c r="G109" s="66"/>
-      <c r="H109" s="66"/>
-      <c r="I109" s="67"/>
-      <c r="J109" s="66"/>
-      <c r="P109" s="65"/>
-      <c r="Q109" s="65"/>
-      <c r="R109" s="65"/>
-      <c r="T109" s="65"/>
-      <c r="W109" s="68"/>
+      <c r="A109" s="23">
+        <v>109.0</v>
+      </c>
+      <c r="B109" s="58" t="s">
+        <v>657</v>
+      </c>
+      <c r="C109" s="57"/>
+      <c r="D109" s="57"/>
+      <c r="E109" s="25">
+        <v>2018.0</v>
+      </c>
+      <c r="F109" s="61"/>
+      <c r="G109" s="57"/>
+      <c r="H109" s="57"/>
+      <c r="I109" s="59"/>
+      <c r="J109" s="57"/>
+      <c r="K109" s="57"/>
+      <c r="L109" s="36"/>
+      <c r="M109" s="36"/>
+      <c r="N109" s="36"/>
+      <c r="O109" s="36"/>
+      <c r="P109" s="62"/>
+      <c r="Q109" s="37"/>
+      <c r="R109" s="37"/>
+      <c r="S109" s="36"/>
+      <c r="T109" s="62"/>
+      <c r="U109" s="57"/>
+      <c r="V109" s="57"/>
+      <c r="W109" s="60"/>
+      <c r="X109" s="61"/>
+      <c r="Y109" s="57"/>
+      <c r="Z109" s="36"/>
+      <c r="AA109" s="36"/>
+      <c r="AB109" s="36"/>
+      <c r="AC109" s="36"/>
+      <c r="AD109" s="62"/>
     </row>
     <row r="110">
-      <c r="A110" s="64"/>
-      <c r="B110" s="65"/>
-      <c r="C110" s="66"/>
-      <c r="D110" s="66"/>
-      <c r="E110" s="66"/>
-      <c r="G110" s="66"/>
-      <c r="H110" s="66"/>
-      <c r="I110" s="67"/>
-      <c r="J110" s="66"/>
-      <c r="P110" s="65"/>
-      <c r="Q110" s="65"/>
-      <c r="R110" s="65"/>
-      <c r="T110" s="65"/>
-      <c r="W110" s="68"/>
+      <c r="A110" s="23">
+        <v>110.0</v>
+      </c>
+      <c r="B110" s="58" t="s">
+        <v>658</v>
+      </c>
+      <c r="C110" s="57"/>
+      <c r="D110" s="57"/>
+      <c r="E110" s="57"/>
+      <c r="F110" s="61"/>
+      <c r="G110" s="57"/>
+      <c r="H110" s="57"/>
+      <c r="I110" s="59"/>
+      <c r="J110" s="57"/>
+      <c r="K110" s="57"/>
+      <c r="L110" s="36"/>
+      <c r="M110" s="36"/>
+      <c r="N110" s="36"/>
+      <c r="O110" s="36"/>
+      <c r="P110" s="62"/>
+      <c r="Q110" s="37"/>
+      <c r="R110" s="37"/>
+      <c r="S110" s="36"/>
+      <c r="T110" s="62"/>
+      <c r="U110" s="57"/>
+      <c r="V110" s="57"/>
+      <c r="W110" s="60"/>
+      <c r="X110" s="61"/>
+      <c r="Y110" s="57"/>
+      <c r="Z110" s="36"/>
+      <c r="AA110" s="36"/>
+      <c r="AB110" s="36"/>
+      <c r="AC110" s="36"/>
+      <c r="AD110" s="62"/>
     </row>
     <row r="111">
-      <c r="A111" s="64"/>
-      <c r="B111" s="65"/>
-      <c r="C111" s="66"/>
-      <c r="D111" s="66"/>
-      <c r="E111" s="66"/>
-      <c r="G111" s="66"/>
-      <c r="H111" s="66"/>
-      <c r="I111" s="67"/>
-      <c r="J111" s="66"/>
-      <c r="P111" s="65"/>
-      <c r="Q111" s="65"/>
-      <c r="R111" s="65"/>
-      <c r="T111" s="65"/>
-      <c r="W111" s="68"/>
+      <c r="A111" s="23">
+        <v>111.0</v>
+      </c>
+      <c r="B111" s="58" t="s">
+        <v>659</v>
+      </c>
+      <c r="C111" s="57"/>
+      <c r="D111" s="57"/>
+      <c r="E111" s="57"/>
+      <c r="F111" s="61"/>
+      <c r="G111" s="57"/>
+      <c r="H111" s="57"/>
+      <c r="I111" s="59"/>
+      <c r="J111" s="57"/>
+      <c r="K111" s="57"/>
+      <c r="L111" s="36"/>
+      <c r="M111" s="36"/>
+      <c r="N111" s="36"/>
+      <c r="O111" s="36"/>
+      <c r="P111" s="62"/>
+      <c r="Q111" s="37"/>
+      <c r="R111" s="37"/>
+      <c r="S111" s="36"/>
+      <c r="T111" s="62"/>
+      <c r="U111" s="57"/>
+      <c r="V111" s="57"/>
+      <c r="W111" s="60"/>
+      <c r="X111" s="61"/>
+      <c r="Y111" s="57"/>
+      <c r="Z111" s="36"/>
+      <c r="AA111" s="36"/>
+      <c r="AB111" s="36"/>
+      <c r="AC111" s="36"/>
+      <c r="AD111" s="62"/>
     </row>
     <row r="112">
-      <c r="A112" s="64"/>
-      <c r="B112" s="65"/>
-      <c r="C112" s="66"/>
-      <c r="D112" s="66"/>
-      <c r="E112" s="66"/>
-      <c r="G112" s="66"/>
-      <c r="H112" s="66"/>
-      <c r="I112" s="67"/>
-      <c r="J112" s="66"/>
-      <c r="P112" s="65"/>
-      <c r="Q112" s="65"/>
-      <c r="R112" s="65"/>
-      <c r="T112" s="65"/>
-      <c r="W112" s="68"/>
+      <c r="A112" s="23">
+        <v>112.0</v>
+      </c>
+      <c r="B112" s="58" t="s">
+        <v>660</v>
+      </c>
+      <c r="C112" s="57"/>
+      <c r="D112" s="57"/>
+      <c r="E112" s="57"/>
+      <c r="F112" s="61"/>
+      <c r="G112" s="57"/>
+      <c r="H112" s="57"/>
+      <c r="I112" s="59"/>
+      <c r="J112" s="57"/>
+      <c r="K112" s="57"/>
+      <c r="L112" s="36"/>
+      <c r="M112" s="36"/>
+      <c r="N112" s="36"/>
+      <c r="O112" s="36"/>
+      <c r="P112" s="62"/>
+      <c r="Q112" s="37"/>
+      <c r="R112" s="37"/>
+      <c r="S112" s="36"/>
+      <c r="T112" s="62"/>
+      <c r="U112" s="57"/>
+      <c r="V112" s="57"/>
+      <c r="W112" s="60"/>
+      <c r="X112" s="61"/>
+      <c r="Y112" s="57"/>
+      <c r="Z112" s="36"/>
+      <c r="AA112" s="36"/>
+      <c r="AB112" s="36"/>
+      <c r="AC112" s="36"/>
+      <c r="AD112" s="62"/>
     </row>
     <row r="113">
-      <c r="A113" s="64"/>
-      <c r="B113" s="65"/>
-      <c r="C113" s="66"/>
-      <c r="D113" s="66"/>
-      <c r="E113" s="66"/>
-      <c r="G113" s="66"/>
-      <c r="H113" s="66"/>
-      <c r="I113" s="67"/>
-      <c r="J113" s="66"/>
-      <c r="P113" s="65"/>
-      <c r="Q113" s="65"/>
-      <c r="R113" s="65"/>
-      <c r="T113" s="65"/>
-      <c r="W113" s="68"/>
+      <c r="A113" s="23">
+        <v>113.0</v>
+      </c>
+      <c r="B113" s="63" t="s">
+        <v>661</v>
+      </c>
+      <c r="C113" s="57"/>
+      <c r="D113" s="57"/>
+      <c r="E113" s="57"/>
+      <c r="F113" s="61"/>
+      <c r="G113" s="57"/>
+      <c r="H113" s="57"/>
+      <c r="I113" s="59"/>
+      <c r="J113" s="57"/>
+      <c r="K113" s="57"/>
+      <c r="L113" s="36"/>
+      <c r="M113" s="36"/>
+      <c r="N113" s="36"/>
+      <c r="O113" s="36"/>
+      <c r="P113" s="62"/>
+      <c r="Q113" s="37"/>
+      <c r="R113" s="37"/>
+      <c r="S113" s="36"/>
+      <c r="T113" s="62"/>
+      <c r="U113" s="57"/>
+      <c r="V113" s="57"/>
+      <c r="W113" s="60"/>
+      <c r="X113" s="61"/>
+      <c r="Y113" s="57"/>
+      <c r="Z113" s="36"/>
+      <c r="AA113" s="36"/>
+      <c r="AB113" s="36"/>
+      <c r="AC113" s="36"/>
+      <c r="AD113" s="62"/>
     </row>
     <row r="114">
-      <c r="A114" s="64"/>
-      <c r="B114" s="65"/>
-      <c r="C114" s="66"/>
-      <c r="D114" s="66"/>
-      <c r="E114" s="66"/>
-      <c r="G114" s="66"/>
-      <c r="H114" s="66"/>
-      <c r="I114" s="67"/>
-      <c r="J114" s="66"/>
-      <c r="P114" s="65"/>
-      <c r="Q114" s="65"/>
-      <c r="R114" s="65"/>
-      <c r="T114" s="65"/>
-      <c r="W114" s="68"/>
+      <c r="A114" s="23">
+        <v>114.0</v>
+      </c>
+      <c r="B114" s="58" t="s">
+        <v>662</v>
+      </c>
+      <c r="C114" s="57"/>
+      <c r="D114" s="57"/>
+      <c r="E114" s="57"/>
+      <c r="F114" s="61"/>
+      <c r="G114" s="57"/>
+      <c r="H114" s="57"/>
+      <c r="I114" s="59"/>
+      <c r="J114" s="57"/>
+      <c r="K114" s="57"/>
+      <c r="L114" s="36"/>
+      <c r="M114" s="36"/>
+      <c r="N114" s="36"/>
+      <c r="O114" s="36"/>
+      <c r="P114" s="62"/>
+      <c r="Q114" s="37"/>
+      <c r="R114" s="37"/>
+      <c r="S114" s="36"/>
+      <c r="T114" s="62"/>
+      <c r="U114" s="57"/>
+      <c r="V114" s="57"/>
+      <c r="W114" s="60"/>
+      <c r="X114" s="61"/>
+      <c r="Y114" s="57"/>
+      <c r="Z114" s="36"/>
+      <c r="AA114" s="36"/>
+      <c r="AB114" s="36"/>
+      <c r="AC114" s="36"/>
+      <c r="AD114" s="62"/>
     </row>
     <row r="115">
-      <c r="A115" s="64"/>
-      <c r="B115" s="65"/>
-      <c r="C115" s="66"/>
-      <c r="D115" s="66"/>
-      <c r="E115" s="66"/>
-      <c r="G115" s="66"/>
-      <c r="H115" s="66"/>
-      <c r="I115" s="67"/>
-      <c r="J115" s="66"/>
-      <c r="P115" s="65"/>
-      <c r="Q115" s="65"/>
-      <c r="R115" s="65"/>
-      <c r="T115" s="65"/>
-      <c r="W115" s="68"/>
+      <c r="A115" s="23">
+        <v>115.0</v>
+      </c>
+      <c r="B115" s="58" t="s">
+        <v>663</v>
+      </c>
+      <c r="C115" s="57"/>
+      <c r="D115" s="57"/>
+      <c r="E115" s="57"/>
+      <c r="F115" s="61"/>
+      <c r="G115" s="57"/>
+      <c r="H115" s="57"/>
+      <c r="I115" s="59"/>
+      <c r="J115" s="57"/>
+      <c r="K115" s="57"/>
+      <c r="L115" s="36"/>
+      <c r="M115" s="36"/>
+      <c r="N115" s="36"/>
+      <c r="O115" s="36"/>
+      <c r="P115" s="62"/>
+      <c r="Q115" s="37"/>
+      <c r="R115" s="37"/>
+      <c r="S115" s="36"/>
+      <c r="T115" s="62"/>
+      <c r="U115" s="57"/>
+      <c r="V115" s="57"/>
+      <c r="W115" s="60"/>
+      <c r="X115" s="61"/>
+      <c r="Y115" s="57"/>
+      <c r="Z115" s="36"/>
+      <c r="AA115" s="36"/>
+      <c r="AB115" s="36"/>
+      <c r="AC115" s="36"/>
+      <c r="AD115" s="62"/>
     </row>
     <row r="116">
-      <c r="A116" s="64"/>
-      <c r="B116" s="65"/>
-      <c r="C116" s="66"/>
-      <c r="D116" s="66"/>
-      <c r="E116" s="66"/>
-      <c r="G116" s="66"/>
-      <c r="H116" s="66"/>
-      <c r="I116" s="67"/>
-      <c r="J116" s="66"/>
-      <c r="P116" s="65"/>
-      <c r="Q116" s="65"/>
-      <c r="R116" s="65"/>
-      <c r="T116" s="65"/>
-      <c r="W116" s="68"/>
+      <c r="A116" s="23">
+        <v>116.0</v>
+      </c>
+      <c r="B116" s="58" t="s">
+        <v>664</v>
+      </c>
+      <c r="C116" s="57"/>
+      <c r="D116" s="57"/>
+      <c r="E116" s="57"/>
+      <c r="F116" s="61"/>
+      <c r="G116" s="57"/>
+      <c r="H116" s="57"/>
+      <c r="I116" s="59"/>
+      <c r="J116" s="57"/>
+      <c r="K116" s="57"/>
+      <c r="L116" s="36"/>
+      <c r="M116" s="36"/>
+      <c r="N116" s="36"/>
+      <c r="O116" s="36"/>
+      <c r="P116" s="62"/>
+      <c r="Q116" s="37"/>
+      <c r="R116" s="37"/>
+      <c r="S116" s="36"/>
+      <c r="T116" s="62"/>
+      <c r="U116" s="57"/>
+      <c r="V116" s="57"/>
+      <c r="W116" s="60"/>
+      <c r="X116" s="61"/>
+      <c r="Y116" s="57"/>
+      <c r="Z116" s="36"/>
+      <c r="AA116" s="36"/>
+      <c r="AB116" s="36"/>
+      <c r="AC116" s="36"/>
+      <c r="AD116" s="62"/>
     </row>
     <row r="117">
-      <c r="A117" s="64"/>
-      <c r="B117" s="65"/>
-      <c r="C117" s="66"/>
-      <c r="D117" s="66"/>
-      <c r="E117" s="66"/>
-      <c r="G117" s="66"/>
-      <c r="H117" s="66"/>
-      <c r="I117" s="67"/>
-      <c r="J117" s="66"/>
-      <c r="P117" s="65"/>
-      <c r="Q117" s="65"/>
-      <c r="R117" s="65"/>
-      <c r="T117" s="65"/>
-      <c r="W117" s="68"/>
+      <c r="A117" s="23">
+        <v>117.0</v>
+      </c>
+      <c r="B117" s="58" t="s">
+        <v>665</v>
+      </c>
+      <c r="C117" s="57"/>
+      <c r="D117" s="57"/>
+      <c r="E117" s="57"/>
+      <c r="F117" s="61"/>
+      <c r="G117" s="57"/>
+      <c r="H117" s="57"/>
+      <c r="I117" s="59"/>
+      <c r="J117" s="57"/>
+      <c r="K117" s="57"/>
+      <c r="L117" s="36"/>
+      <c r="M117" s="36"/>
+      <c r="N117" s="36"/>
+      <c r="O117" s="36"/>
+      <c r="P117" s="62"/>
+      <c r="Q117" s="37"/>
+      <c r="R117" s="37"/>
+      <c r="S117" s="36"/>
+      <c r="T117" s="62"/>
+      <c r="U117" s="57"/>
+      <c r="V117" s="57"/>
+      <c r="W117" s="60"/>
+      <c r="X117" s="61"/>
+      <c r="Y117" s="57"/>
+      <c r="Z117" s="36"/>
+      <c r="AA117" s="36"/>
+      <c r="AB117" s="36"/>
+      <c r="AC117" s="36"/>
+      <c r="AD117" s="62"/>
     </row>
     <row r="118">
-      <c r="A118" s="64"/>
-      <c r="B118" s="65"/>
-      <c r="C118" s="66"/>
-      <c r="D118" s="66"/>
-      <c r="E118" s="66"/>
-      <c r="G118" s="66"/>
-      <c r="H118" s="66"/>
-      <c r="I118" s="67"/>
-      <c r="J118" s="66"/>
-      <c r="P118" s="65"/>
-      <c r="Q118" s="65"/>
-      <c r="R118" s="65"/>
-      <c r="T118" s="65"/>
-      <c r="W118" s="68"/>
+      <c r="A118" s="23">
+        <v>118.0</v>
+      </c>
+      <c r="B118" s="58" t="s">
+        <v>666</v>
+      </c>
+      <c r="C118" s="57"/>
+      <c r="D118" s="57"/>
+      <c r="E118" s="57"/>
+      <c r="F118" s="61"/>
+      <c r="G118" s="57"/>
+      <c r="H118" s="57"/>
+      <c r="I118" s="59"/>
+      <c r="J118" s="57"/>
+      <c r="K118" s="57"/>
+      <c r="L118" s="36"/>
+      <c r="M118" s="36"/>
+      <c r="N118" s="36"/>
+      <c r="O118" s="36"/>
+      <c r="P118" s="62"/>
+      <c r="Q118" s="37"/>
+      <c r="R118" s="37"/>
+      <c r="S118" s="36"/>
+      <c r="T118" s="62"/>
+      <c r="U118" s="57"/>
+      <c r="V118" s="57"/>
+      <c r="W118" s="60"/>
+      <c r="X118" s="61"/>
+      <c r="Y118" s="57"/>
+      <c r="Z118" s="36"/>
+      <c r="AA118" s="36"/>
+      <c r="AB118" s="36"/>
+      <c r="AC118" s="36"/>
+      <c r="AD118" s="62"/>
     </row>
     <row r="119">
-      <c r="A119" s="64"/>
-      <c r="B119" s="65"/>
-      <c r="C119" s="66"/>
-      <c r="D119" s="66"/>
-      <c r="E119" s="66"/>
-      <c r="G119" s="66"/>
-      <c r="H119" s="66"/>
-      <c r="I119" s="67"/>
-      <c r="J119" s="66"/>
-      <c r="P119" s="65"/>
-      <c r="Q119" s="65"/>
-      <c r="R119" s="65"/>
-      <c r="T119" s="65"/>
-      <c r="W119" s="68"/>
+      <c r="A119" s="23">
+        <v>119.0</v>
+      </c>
+      <c r="B119" s="58" t="s">
+        <v>667</v>
+      </c>
+      <c r="C119" s="57"/>
+      <c r="D119" s="57"/>
+      <c r="E119" s="57"/>
+      <c r="F119" s="61"/>
+      <c r="G119" s="57"/>
+      <c r="H119" s="57"/>
+      <c r="I119" s="59"/>
+      <c r="J119" s="57"/>
+      <c r="K119" s="57"/>
+      <c r="L119" s="36"/>
+      <c r="M119" s="36"/>
+      <c r="N119" s="36"/>
+      <c r="O119" s="36"/>
+      <c r="P119" s="62"/>
+      <c r="Q119" s="37"/>
+      <c r="R119" s="37"/>
+      <c r="S119" s="36"/>
+      <c r="T119" s="62"/>
+      <c r="U119" s="57"/>
+      <c r="V119" s="57"/>
+      <c r="W119" s="60"/>
+      <c r="X119" s="61"/>
+      <c r="Y119" s="57"/>
+      <c r="Z119" s="36"/>
+      <c r="AA119" s="36"/>
+      <c r="AB119" s="36"/>
+      <c r="AC119" s="36"/>
+      <c r="AD119" s="62"/>
     </row>
     <row r="120">
-      <c r="A120" s="64"/>
-      <c r="B120" s="65"/>
-      <c r="C120" s="66"/>
-      <c r="D120" s="66"/>
-      <c r="E120" s="66"/>
-      <c r="G120" s="66"/>
-      <c r="H120" s="66"/>
-      <c r="I120" s="67"/>
-      <c r="J120" s="66"/>
-      <c r="P120" s="65"/>
-      <c r="Q120" s="65"/>
-      <c r="R120" s="65"/>
-      <c r="T120" s="65"/>
-      <c r="W120" s="68"/>
+      <c r="A120" s="23">
+        <v>120.0</v>
+      </c>
+      <c r="B120" s="58" t="s">
+        <v>668</v>
+      </c>
+      <c r="C120" s="57"/>
+      <c r="D120" s="57"/>
+      <c r="E120" s="57"/>
+      <c r="F120" s="61"/>
+      <c r="G120" s="57"/>
+      <c r="H120" s="57"/>
+      <c r="I120" s="59"/>
+      <c r="J120" s="57"/>
+      <c r="K120" s="57"/>
+      <c r="L120" s="36"/>
+      <c r="M120" s="36"/>
+      <c r="N120" s="36"/>
+      <c r="O120" s="36"/>
+      <c r="P120" s="62"/>
+      <c r="Q120" s="37"/>
+      <c r="R120" s="37"/>
+      <c r="S120" s="36"/>
+      <c r="T120" s="62"/>
+      <c r="U120" s="57"/>
+      <c r="V120" s="57"/>
+      <c r="W120" s="60"/>
+      <c r="X120" s="61"/>
+      <c r="Y120" s="57"/>
+      <c r="Z120" s="36"/>
+      <c r="AA120" s="36"/>
+      <c r="AB120" s="36"/>
+      <c r="AC120" s="36"/>
+      <c r="AD120" s="62"/>
     </row>
     <row r="121">
-      <c r="A121" s="64"/>
-      <c r="B121" s="65"/>
-      <c r="C121" s="66"/>
-      <c r="D121" s="66"/>
-      <c r="E121" s="66"/>
-      <c r="G121" s="66"/>
-      <c r="H121" s="66"/>
-      <c r="I121" s="67"/>
-      <c r="J121" s="66"/>
-      <c r="P121" s="65"/>
-      <c r="Q121" s="65"/>
-      <c r="R121" s="65"/>
-      <c r="T121" s="65"/>
-      <c r="W121" s="68"/>
+      <c r="A121" s="23">
+        <v>121.0</v>
+      </c>
+      <c r="B121" s="58" t="s">
+        <v>669</v>
+      </c>
+      <c r="C121" s="57"/>
+      <c r="D121" s="57"/>
+      <c r="E121" s="57"/>
+      <c r="F121" s="61"/>
+      <c r="G121" s="57"/>
+      <c r="H121" s="57"/>
+      <c r="I121" s="59"/>
+      <c r="J121" s="57"/>
+      <c r="K121" s="57"/>
+      <c r="L121" s="36"/>
+      <c r="M121" s="36"/>
+      <c r="N121" s="36"/>
+      <c r="O121" s="36"/>
+      <c r="P121" s="62"/>
+      <c r="Q121" s="37"/>
+      <c r="R121" s="37"/>
+      <c r="S121" s="36"/>
+      <c r="T121" s="62"/>
+      <c r="U121" s="57"/>
+      <c r="V121" s="57"/>
+      <c r="W121" s="60"/>
+      <c r="X121" s="61"/>
+      <c r="Y121" s="57"/>
+      <c r="Z121" s="36"/>
+      <c r="AA121" s="36"/>
+      <c r="AB121" s="36"/>
+      <c r="AC121" s="36"/>
+      <c r="AD121" s="62"/>
     </row>
     <row r="122">
-      <c r="A122" s="64"/>
-      <c r="B122" s="65"/>
-      <c r="C122" s="66"/>
-      <c r="D122" s="66"/>
-      <c r="E122" s="66"/>
-      <c r="G122" s="66"/>
-      <c r="H122" s="66"/>
-      <c r="I122" s="67"/>
-      <c r="J122" s="66"/>
-      <c r="P122" s="65"/>
-      <c r="Q122" s="65"/>
-      <c r="R122" s="65"/>
-      <c r="T122" s="65"/>
-      <c r="W122" s="68"/>
+      <c r="A122" s="23">
+        <v>122.0</v>
+      </c>
+      <c r="B122" s="58" t="s">
+        <v>670</v>
+      </c>
+      <c r="C122" s="57"/>
+      <c r="D122" s="57"/>
+      <c r="E122" s="57"/>
+      <c r="F122" s="61"/>
+      <c r="G122" s="57"/>
+      <c r="H122" s="57"/>
+      <c r="I122" s="59"/>
+      <c r="J122" s="57"/>
+      <c r="K122" s="57"/>
+      <c r="L122" s="36"/>
+      <c r="M122" s="36"/>
+      <c r="N122" s="36"/>
+      <c r="O122" s="36"/>
+      <c r="P122" s="62"/>
+      <c r="Q122" s="37"/>
+      <c r="R122" s="37"/>
+      <c r="S122" s="36"/>
+      <c r="T122" s="62"/>
+      <c r="U122" s="57"/>
+      <c r="V122" s="57"/>
+      <c r="W122" s="60"/>
+      <c r="X122" s="61"/>
+      <c r="Y122" s="57"/>
+      <c r="Z122" s="36"/>
+      <c r="AA122" s="36"/>
+      <c r="AB122" s="36"/>
+      <c r="AC122" s="36"/>
+      <c r="AD122" s="62"/>
     </row>
     <row r="123">
-      <c r="A123" s="64"/>
-      <c r="B123" s="65"/>
-      <c r="C123" s="66"/>
-      <c r="D123" s="66"/>
-      <c r="E123" s="66"/>
-      <c r="G123" s="66"/>
-      <c r="H123" s="66"/>
-      <c r="I123" s="67"/>
-      <c r="J123" s="66"/>
-      <c r="P123" s="65"/>
-      <c r="Q123" s="65"/>
-      <c r="R123" s="65"/>
-      <c r="T123" s="65"/>
-      <c r="W123" s="68"/>
+      <c r="A123" s="23">
+        <v>123.0</v>
+      </c>
+      <c r="B123" s="58" t="s">
+        <v>671</v>
+      </c>
+      <c r="C123" s="57"/>
+      <c r="D123" s="57"/>
+      <c r="E123" s="57"/>
+      <c r="F123" s="61"/>
+      <c r="G123" s="57"/>
+      <c r="H123" s="57"/>
+      <c r="I123" s="59"/>
+      <c r="J123" s="57"/>
+      <c r="K123" s="57"/>
+      <c r="L123" s="36"/>
+      <c r="M123" s="36"/>
+      <c r="N123" s="36"/>
+      <c r="O123" s="36"/>
+      <c r="P123" s="62"/>
+      <c r="Q123" s="37"/>
+      <c r="R123" s="37"/>
+      <c r="S123" s="36"/>
+      <c r="T123" s="62"/>
+      <c r="U123" s="57"/>
+      <c r="V123" s="57"/>
+      <c r="W123" s="60"/>
+      <c r="X123" s="61"/>
+      <c r="Y123" s="57"/>
+      <c r="Z123" s="36"/>
+      <c r="AA123" s="36"/>
+      <c r="AB123" s="36"/>
+      <c r="AC123" s="36"/>
+      <c r="AD123" s="62"/>
     </row>
     <row r="124">
-      <c r="A124" s="64"/>
-      <c r="B124" s="65"/>
-      <c r="C124" s="66"/>
-      <c r="D124" s="66"/>
-      <c r="E124" s="66"/>
-      <c r="G124" s="66"/>
-      <c r="H124" s="66"/>
-      <c r="I124" s="67"/>
-      <c r="J124" s="66"/>
-      <c r="P124" s="65"/>
-      <c r="Q124" s="65"/>
-      <c r="R124" s="65"/>
-      <c r="T124" s="65"/>
-      <c r="W124" s="68"/>
+      <c r="A124" s="23">
+        <v>124.0</v>
+      </c>
+      <c r="B124" s="58" t="s">
+        <v>672</v>
+      </c>
+      <c r="C124" s="57"/>
+      <c r="D124" s="57"/>
+      <c r="E124" s="57"/>
+      <c r="F124" s="61"/>
+      <c r="G124" s="57"/>
+      <c r="H124" s="57"/>
+      <c r="I124" s="59"/>
+      <c r="J124" s="57"/>
+      <c r="K124" s="57"/>
+      <c r="L124" s="36"/>
+      <c r="M124" s="36"/>
+      <c r="N124" s="36"/>
+      <c r="O124" s="36"/>
+      <c r="P124" s="62"/>
+      <c r="Q124" s="37"/>
+      <c r="R124" s="37"/>
+      <c r="S124" s="36"/>
+      <c r="T124" s="62"/>
+      <c r="U124" s="57"/>
+      <c r="V124" s="57"/>
+      <c r="W124" s="60"/>
+      <c r="X124" s="61"/>
+      <c r="Y124" s="57"/>
+      <c r="Z124" s="36"/>
+      <c r="AA124" s="36"/>
+      <c r="AB124" s="36"/>
+      <c r="AC124" s="36"/>
+      <c r="AD124" s="62"/>
     </row>
     <row r="125">
-      <c r="A125" s="64"/>
-      <c r="B125" s="65"/>
-      <c r="C125" s="66"/>
-      <c r="D125" s="66"/>
-      <c r="E125" s="66"/>
-      <c r="G125" s="66"/>
-      <c r="H125" s="66"/>
-      <c r="I125" s="67"/>
-      <c r="J125" s="66"/>
-      <c r="P125" s="65"/>
-      <c r="Q125" s="65"/>
-      <c r="R125" s="65"/>
-      <c r="T125" s="65"/>
-      <c r="W125" s="68"/>
+      <c r="A125" s="23">
+        <v>125.0</v>
+      </c>
+      <c r="B125" s="58" t="s">
+        <v>673</v>
+      </c>
+      <c r="C125" s="57"/>
+      <c r="D125" s="57"/>
+      <c r="E125" s="57"/>
+      <c r="F125" s="61"/>
+      <c r="G125" s="57"/>
+      <c r="H125" s="57"/>
+      <c r="I125" s="59"/>
+      <c r="J125" s="57"/>
+      <c r="K125" s="57"/>
+      <c r="L125" s="36"/>
+      <c r="M125" s="36"/>
+      <c r="N125" s="36"/>
+      <c r="O125" s="36"/>
+      <c r="P125" s="62"/>
+      <c r="Q125" s="37"/>
+      <c r="R125" s="37"/>
+      <c r="S125" s="36"/>
+      <c r="T125" s="62"/>
+      <c r="U125" s="57"/>
+      <c r="V125" s="57"/>
+      <c r="W125" s="60"/>
+      <c r="X125" s="61"/>
+      <c r="Y125" s="57"/>
+      <c r="Z125" s="36"/>
+      <c r="AA125" s="36"/>
+      <c r="AB125" s="36"/>
+      <c r="AC125" s="36"/>
+      <c r="AD125" s="62"/>
     </row>
     <row r="126">
-      <c r="A126" s="64"/>
-      <c r="B126" s="65"/>
-      <c r="C126" s="66"/>
-      <c r="D126" s="66"/>
-      <c r="E126" s="66"/>
-      <c r="G126" s="66"/>
-      <c r="H126" s="66"/>
-      <c r="I126" s="67"/>
-      <c r="J126" s="66"/>
-      <c r="P126" s="65"/>
-      <c r="Q126" s="65"/>
-      <c r="R126" s="65"/>
-      <c r="T126" s="65"/>
-      <c r="W126" s="68"/>
+      <c r="A126" s="23">
+        <v>126.0</v>
+      </c>
+      <c r="B126" s="58" t="s">
+        <v>674</v>
+      </c>
+      <c r="C126" s="57"/>
+      <c r="D126" s="57"/>
+      <c r="E126" s="57"/>
+      <c r="F126" s="61"/>
+      <c r="G126" s="57"/>
+      <c r="H126" s="57"/>
+      <c r="I126" s="59"/>
+      <c r="J126" s="57"/>
+      <c r="K126" s="57"/>
+      <c r="L126" s="36"/>
+      <c r="M126" s="36"/>
+      <c r="N126" s="36"/>
+      <c r="O126" s="36"/>
+      <c r="P126" s="26" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q126" s="37"/>
+      <c r="R126" s="37"/>
+      <c r="S126" s="36"/>
+      <c r="T126" s="62"/>
+      <c r="U126" s="57"/>
+      <c r="V126" s="57"/>
+      <c r="W126" s="60"/>
+      <c r="X126" s="61"/>
+      <c r="Y126" s="57"/>
+      <c r="Z126" s="36"/>
+      <c r="AA126" s="36"/>
+      <c r="AB126" s="36"/>
+      <c r="AC126" s="36"/>
+      <c r="AD126" s="62"/>
     </row>
     <row r="127">
-      <c r="A127" s="64"/>
-      <c r="B127" s="65"/>
-      <c r="C127" s="66"/>
-      <c r="D127" s="66"/>
-      <c r="E127" s="66"/>
-      <c r="G127" s="66"/>
-      <c r="H127" s="66"/>
-      <c r="I127" s="67"/>
-      <c r="J127" s="66"/>
-      <c r="P127" s="65"/>
-      <c r="Q127" s="65"/>
-      <c r="R127" s="65"/>
-      <c r="T127" s="65"/>
-      <c r="W127" s="68"/>
+      <c r="A127" s="23">
+        <v>127.0</v>
+      </c>
+      <c r="B127" s="58" t="s">
+        <v>675</v>
+      </c>
+      <c r="C127" s="57"/>
+      <c r="D127" s="57"/>
+      <c r="E127" s="57"/>
+      <c r="F127" s="61"/>
+      <c r="G127" s="57"/>
+      <c r="H127" s="57"/>
+      <c r="I127" s="59"/>
+      <c r="J127" s="57"/>
+      <c r="K127" s="57"/>
+      <c r="L127" s="36"/>
+      <c r="M127" s="36"/>
+      <c r="N127" s="36"/>
+      <c r="O127" s="36"/>
+      <c r="P127" s="62"/>
+      <c r="Q127" s="37"/>
+      <c r="R127" s="37"/>
+      <c r="S127" s="36"/>
+      <c r="T127" s="62"/>
+      <c r="U127" s="57"/>
+      <c r="V127" s="57"/>
+      <c r="W127" s="60"/>
+      <c r="X127" s="61"/>
+      <c r="Y127" s="57"/>
+      <c r="Z127" s="36"/>
+      <c r="AA127" s="36"/>
+      <c r="AB127" s="36"/>
+      <c r="AC127" s="36"/>
+      <c r="AD127" s="62"/>
     </row>
     <row r="128">
-      <c r="A128" s="64"/>
-      <c r="B128" s="65"/>
-      <c r="C128" s="66"/>
-      <c r="D128" s="66"/>
-      <c r="E128" s="66"/>
-      <c r="G128" s="66"/>
-      <c r="H128" s="66"/>
-      <c r="I128" s="67"/>
-      <c r="J128" s="66"/>
-      <c r="P128" s="65"/>
-      <c r="Q128" s="65"/>
-      <c r="R128" s="65"/>
-      <c r="T128" s="65"/>
-      <c r="W128" s="68"/>
+      <c r="A128" s="23">
+        <v>128.0</v>
+      </c>
+      <c r="B128" s="58" t="s">
+        <v>676</v>
+      </c>
+      <c r="C128" s="57"/>
+      <c r="D128" s="57"/>
+      <c r="E128" s="57"/>
+      <c r="F128" s="61"/>
+      <c r="G128" s="57"/>
+      <c r="H128" s="57"/>
+      <c r="I128" s="59"/>
+      <c r="J128" s="57"/>
+      <c r="K128" s="57"/>
+      <c r="L128" s="36"/>
+      <c r="M128" s="36"/>
+      <c r="N128" s="36"/>
+      <c r="O128" s="36"/>
+      <c r="P128" s="62"/>
+      <c r="Q128" s="37"/>
+      <c r="R128" s="37"/>
+      <c r="S128" s="36"/>
+      <c r="T128" s="62"/>
+      <c r="U128" s="57"/>
+      <c r="V128" s="57"/>
+      <c r="W128" s="60"/>
+      <c r="X128" s="61"/>
+      <c r="Y128" s="57"/>
+      <c r="Z128" s="36"/>
+      <c r="AA128" s="36"/>
+      <c r="AB128" s="36"/>
+      <c r="AC128" s="36"/>
+      <c r="AD128" s="62"/>
     </row>
     <row r="129">
-      <c r="A129" s="64"/>
-      <c r="B129" s="65"/>
-      <c r="C129" s="66"/>
-      <c r="D129" s="66"/>
-      <c r="E129" s="66"/>
-      <c r="G129" s="66"/>
-      <c r="H129" s="66"/>
-      <c r="I129" s="67"/>
-      <c r="J129" s="66"/>
-      <c r="P129" s="65"/>
-      <c r="Q129" s="65"/>
-      <c r="R129" s="65"/>
-      <c r="T129" s="65"/>
-      <c r="W129" s="68"/>
+      <c r="A129" s="23">
+        <v>129.0</v>
+      </c>
+      <c r="B129" s="58" t="s">
+        <v>677</v>
+      </c>
+      <c r="C129" s="57"/>
+      <c r="D129" s="57"/>
+      <c r="E129" s="57"/>
+      <c r="F129" s="61"/>
+      <c r="G129" s="57"/>
+      <c r="H129" s="57"/>
+      <c r="I129" s="59"/>
+      <c r="J129" s="57"/>
+      <c r="K129" s="57"/>
+      <c r="L129" s="36"/>
+      <c r="M129" s="36"/>
+      <c r="N129" s="36"/>
+      <c r="O129" s="36"/>
+      <c r="P129" s="62"/>
+      <c r="Q129" s="37"/>
+      <c r="R129" s="37"/>
+      <c r="S129" s="36"/>
+      <c r="T129" s="62"/>
+      <c r="U129" s="57"/>
+      <c r="V129" s="57"/>
+      <c r="W129" s="60"/>
+      <c r="X129" s="61"/>
+      <c r="Y129" s="57"/>
+      <c r="Z129" s="36"/>
+      <c r="AA129" s="36"/>
+      <c r="AB129" s="36"/>
+      <c r="AC129" s="36"/>
+      <c r="AD129" s="62"/>
     </row>
     <row r="130">
-      <c r="A130" s="64"/>
-      <c r="B130" s="65"/>
-      <c r="C130" s="66"/>
-      <c r="D130" s="66"/>
-      <c r="E130" s="66"/>
-      <c r="G130" s="66"/>
-      <c r="H130" s="66"/>
-      <c r="I130" s="67"/>
-      <c r="J130" s="66"/>
-      <c r="P130" s="65"/>
-      <c r="Q130" s="65"/>
-      <c r="R130" s="65"/>
-      <c r="T130" s="65"/>
-      <c r="W130" s="68"/>
+      <c r="A130" s="23">
+        <v>130.0</v>
+      </c>
+      <c r="B130" s="58" t="s">
+        <v>678</v>
+      </c>
+      <c r="C130" s="57"/>
+      <c r="D130" s="57"/>
+      <c r="E130" s="57"/>
+      <c r="F130" s="61"/>
+      <c r="G130" s="57"/>
+      <c r="H130" s="57"/>
+      <c r="I130" s="59"/>
+      <c r="J130" s="57"/>
+      <c r="K130" s="57"/>
+      <c r="L130" s="36"/>
+      <c r="M130" s="36"/>
+      <c r="N130" s="36"/>
+      <c r="O130" s="36"/>
+      <c r="P130" s="62"/>
+      <c r="Q130" s="37"/>
+      <c r="R130" s="37"/>
+      <c r="S130" s="36"/>
+      <c r="T130" s="62"/>
+      <c r="U130" s="57"/>
+      <c r="V130" s="57"/>
+      <c r="W130" s="60"/>
+      <c r="X130" s="61"/>
+      <c r="Y130" s="57"/>
+      <c r="Z130" s="36"/>
+      <c r="AA130" s="36"/>
+      <c r="AB130" s="36"/>
+      <c r="AC130" s="36"/>
+      <c r="AD130" s="62"/>
     </row>
     <row r="131">
-      <c r="A131" s="64"/>
-      <c r="B131" s="65"/>
-      <c r="C131" s="66"/>
-      <c r="D131" s="66"/>
-      <c r="E131" s="66"/>
-      <c r="G131" s="66"/>
-      <c r="H131" s="66"/>
-      <c r="I131" s="67"/>
-      <c r="J131" s="66"/>
-      <c r="P131" s="65"/>
-      <c r="Q131" s="65"/>
-      <c r="R131" s="65"/>
-      <c r="T131" s="65"/>
-      <c r="W131" s="68"/>
+      <c r="A131" s="23">
+        <v>131.0</v>
+      </c>
+      <c r="B131" s="58" t="s">
+        <v>679</v>
+      </c>
+      <c r="C131" s="57"/>
+      <c r="D131" s="57"/>
+      <c r="E131" s="57"/>
+      <c r="F131" s="61"/>
+      <c r="G131" s="57"/>
+      <c r="H131" s="57"/>
+      <c r="I131" s="59"/>
+      <c r="J131" s="57"/>
+      <c r="K131" s="57"/>
+      <c r="L131" s="36"/>
+      <c r="M131" s="36"/>
+      <c r="N131" s="36"/>
+      <c r="O131" s="36"/>
+      <c r="P131" s="62"/>
+      <c r="Q131" s="37"/>
+      <c r="R131" s="37"/>
+      <c r="S131" s="36"/>
+      <c r="T131" s="62"/>
+      <c r="U131" s="57"/>
+      <c r="V131" s="57"/>
+      <c r="W131" s="60"/>
+      <c r="X131" s="61"/>
+      <c r="Y131" s="57"/>
+      <c r="Z131" s="36"/>
+      <c r="AA131" s="36"/>
+      <c r="AB131" s="36"/>
+      <c r="AC131" s="36"/>
+      <c r="AD131" s="62"/>
     </row>
     <row r="132">
-      <c r="A132" s="64"/>
-      <c r="B132" s="65"/>
-      <c r="C132" s="66"/>
-      <c r="D132" s="66"/>
-      <c r="E132" s="66"/>
-      <c r="G132" s="66"/>
-      <c r="H132" s="66"/>
-      <c r="I132" s="67"/>
-      <c r="J132" s="66"/>
-      <c r="P132" s="65"/>
-      <c r="Q132" s="65"/>
-      <c r="R132" s="65"/>
-      <c r="T132" s="65"/>
-      <c r="W132" s="68"/>
+      <c r="A132" s="23">
+        <v>132.0</v>
+      </c>
+      <c r="B132" s="58" t="s">
+        <v>680</v>
+      </c>
+      <c r="C132" s="57"/>
+      <c r="D132" s="57"/>
+      <c r="E132" s="57"/>
+      <c r="F132" s="61"/>
+      <c r="G132" s="57"/>
+      <c r="H132" s="57"/>
+      <c r="I132" s="59"/>
+      <c r="J132" s="57"/>
+      <c r="K132" s="57"/>
+      <c r="L132" s="36"/>
+      <c r="M132" s="36"/>
+      <c r="N132" s="36"/>
+      <c r="O132" s="36"/>
+      <c r="P132" s="62"/>
+      <c r="Q132" s="37"/>
+      <c r="R132" s="37"/>
+      <c r="S132" s="36"/>
+      <c r="T132" s="62"/>
+      <c r="U132" s="57"/>
+      <c r="V132" s="57"/>
+      <c r="W132" s="60"/>
+      <c r="X132" s="61"/>
+      <c r="Y132" s="57"/>
+      <c r="Z132" s="36"/>
+      <c r="AA132" s="36"/>
+      <c r="AB132" s="36"/>
+      <c r="AC132" s="36"/>
+      <c r="AD132" s="62"/>
     </row>
     <row r="133">
-      <c r="A133" s="64"/>
-      <c r="B133" s="65"/>
-      <c r="C133" s="66"/>
-      <c r="D133" s="66"/>
-      <c r="E133" s="66"/>
-      <c r="G133" s="66"/>
-      <c r="H133" s="66"/>
-      <c r="I133" s="67"/>
-      <c r="J133" s="66"/>
-      <c r="P133" s="65"/>
-      <c r="Q133" s="65"/>
-      <c r="R133" s="65"/>
-      <c r="T133" s="65"/>
-      <c r="W133" s="68"/>
+      <c r="A133" s="23">
+        <v>133.0</v>
+      </c>
+      <c r="B133" s="58" t="s">
+        <v>681</v>
+      </c>
+      <c r="C133" s="57"/>
+      <c r="D133" s="57"/>
+      <c r="E133" s="57"/>
+      <c r="F133" s="61"/>
+      <c r="G133" s="57"/>
+      <c r="H133" s="57"/>
+      <c r="I133" s="59"/>
+      <c r="J133" s="57"/>
+      <c r="K133" s="57"/>
+      <c r="L133" s="36"/>
+      <c r="M133" s="36"/>
+      <c r="N133" s="36"/>
+      <c r="O133" s="36"/>
+      <c r="P133" s="62"/>
+      <c r="Q133" s="37"/>
+      <c r="R133" s="37"/>
+      <c r="S133" s="36"/>
+      <c r="T133" s="62"/>
+      <c r="U133" s="57"/>
+      <c r="V133" s="57"/>
+      <c r="W133" s="60"/>
+      <c r="X133" s="61"/>
+      <c r="Y133" s="57"/>
+      <c r="Z133" s="36"/>
+      <c r="AA133" s="36"/>
+      <c r="AB133" s="36"/>
+      <c r="AC133" s="36"/>
+      <c r="AD133" s="62"/>
     </row>
     <row r="134">
-      <c r="A134" s="64"/>
-      <c r="B134" s="65"/>
-      <c r="C134" s="66"/>
-      <c r="D134" s="66"/>
-      <c r="E134" s="66"/>
-      <c r="G134" s="66"/>
-      <c r="H134" s="66"/>
-      <c r="I134" s="67"/>
-      <c r="J134" s="66"/>
-      <c r="P134" s="65"/>
-      <c r="Q134" s="65"/>
-      <c r="R134" s="65"/>
-      <c r="T134" s="65"/>
-      <c r="W134" s="68"/>
+      <c r="A134" s="23">
+        <v>134.0</v>
+      </c>
+      <c r="B134" s="58" t="s">
+        <v>682</v>
+      </c>
+      <c r="C134" s="57"/>
+      <c r="D134" s="57"/>
+      <c r="E134" s="57"/>
+      <c r="F134" s="61"/>
+      <c r="G134" s="57"/>
+      <c r="H134" s="57"/>
+      <c r="I134" s="59"/>
+      <c r="J134" s="57"/>
+      <c r="K134" s="57"/>
+      <c r="L134" s="36"/>
+      <c r="M134" s="36"/>
+      <c r="N134" s="36"/>
+      <c r="O134" s="36"/>
+      <c r="P134" s="62"/>
+      <c r="Q134" s="37"/>
+      <c r="R134" s="37"/>
+      <c r="S134" s="36"/>
+      <c r="T134" s="62"/>
+      <c r="U134" s="57"/>
+      <c r="V134" s="57"/>
+      <c r="W134" s="60"/>
+      <c r="X134" s="61"/>
+      <c r="Y134" s="57"/>
+      <c r="Z134" s="36"/>
+      <c r="AA134" s="36"/>
+      <c r="AB134" s="36"/>
+      <c r="AC134" s="36"/>
+      <c r="AD134" s="62"/>
     </row>
     <row r="135">
-      <c r="A135" s="64"/>
-      <c r="B135" s="65"/>
-      <c r="C135" s="66"/>
-      <c r="D135" s="66"/>
-      <c r="E135" s="66"/>
-      <c r="G135" s="66"/>
-      <c r="H135" s="66"/>
-      <c r="I135" s="67"/>
-      <c r="J135" s="66"/>
-      <c r="P135" s="65"/>
-      <c r="Q135" s="65"/>
-      <c r="R135" s="65"/>
-      <c r="T135" s="65"/>
-      <c r="W135" s="68"/>
+      <c r="A135" s="23">
+        <v>135.0</v>
+      </c>
+      <c r="B135" s="58" t="s">
+        <v>683</v>
+      </c>
+      <c r="C135" s="57"/>
+      <c r="D135" s="57"/>
+      <c r="E135" s="57"/>
+      <c r="F135" s="61"/>
+      <c r="G135" s="57"/>
+      <c r="H135" s="57"/>
+      <c r="I135" s="59"/>
+      <c r="J135" s="57"/>
+      <c r="K135" s="57"/>
+      <c r="L135" s="36"/>
+      <c r="M135" s="36"/>
+      <c r="N135" s="36"/>
+      <c r="O135" s="36"/>
+      <c r="P135" s="62"/>
+      <c r="Q135" s="37"/>
+      <c r="R135" s="37"/>
+      <c r="S135" s="36"/>
+      <c r="T135" s="62"/>
+      <c r="U135" s="57"/>
+      <c r="V135" s="57"/>
+      <c r="W135" s="60"/>
+      <c r="X135" s="61"/>
+      <c r="Y135" s="57"/>
+      <c r="Z135" s="36"/>
+      <c r="AA135" s="36"/>
+      <c r="AB135" s="36"/>
+      <c r="AC135" s="36"/>
+      <c r="AD135" s="62"/>
     </row>
     <row r="136">
-      <c r="A136" s="64"/>
-      <c r="B136" s="65"/>
-      <c r="C136" s="66"/>
-      <c r="D136" s="66"/>
-      <c r="E136" s="66"/>
-      <c r="G136" s="66"/>
-      <c r="H136" s="66"/>
-      <c r="I136" s="67"/>
-      <c r="J136" s="66"/>
-      <c r="P136" s="65"/>
-      <c r="Q136" s="65"/>
-      <c r="R136" s="65"/>
-      <c r="T136" s="65"/>
-      <c r="W136" s="68"/>
+      <c r="A136" s="23">
+        <v>136.0</v>
+      </c>
+      <c r="B136" s="58" t="s">
+        <v>684</v>
+      </c>
+      <c r="C136" s="57"/>
+      <c r="D136" s="57"/>
+      <c r="E136" s="57"/>
+      <c r="F136" s="61"/>
+      <c r="G136" s="57"/>
+      <c r="H136" s="57"/>
+      <c r="I136" s="59"/>
+      <c r="J136" s="57"/>
+      <c r="K136" s="57"/>
+      <c r="L136" s="36"/>
+      <c r="M136" s="36"/>
+      <c r="N136" s="36"/>
+      <c r="O136" s="36"/>
+      <c r="P136" s="62"/>
+      <c r="Q136" s="37"/>
+      <c r="R136" s="37"/>
+      <c r="S136" s="36"/>
+      <c r="T136" s="62"/>
+      <c r="U136" s="57"/>
+      <c r="V136" s="57"/>
+      <c r="W136" s="60"/>
+      <c r="X136" s="61"/>
+      <c r="Y136" s="57"/>
+      <c r="Z136" s="36"/>
+      <c r="AA136" s="36"/>
+      <c r="AB136" s="36"/>
+      <c r="AC136" s="36"/>
+      <c r="AD136" s="62"/>
     </row>
     <row r="137">
       <c r="A137" s="64"/>
@@ -27654,12 +28851,55 @@
     <hyperlink r:id="rId89" ref="B89"/>
     <hyperlink r:id="rId90" ref="B90"/>
     <hyperlink r:id="rId91" ref="B91"/>
-    <hyperlink r:id="rId92" ref="B93"/>
+    <hyperlink r:id="rId92" ref="B92"/>
+    <hyperlink r:id="rId93" ref="B93"/>
+    <hyperlink r:id="rId94" ref="B94"/>
+    <hyperlink r:id="rId95" ref="B95"/>
+    <hyperlink r:id="rId96" ref="B96"/>
+    <hyperlink r:id="rId97" ref="B97"/>
+    <hyperlink r:id="rId98" ref="B98"/>
+    <hyperlink r:id="rId99" ref="B99"/>
+    <hyperlink r:id="rId100" ref="B100"/>
+    <hyperlink r:id="rId101" ref="B101"/>
+    <hyperlink r:id="rId102" ref="B102"/>
+    <hyperlink r:id="rId103" ref="B103"/>
+    <hyperlink r:id="rId104" ref="B104"/>
+    <hyperlink r:id="rId105" ref="B105"/>
+    <hyperlink r:id="rId106" ref="B106"/>
+    <hyperlink r:id="rId107" ref="B107"/>
+    <hyperlink r:id="rId108" ref="B108"/>
+    <hyperlink r:id="rId109" ref="B109"/>
+    <hyperlink r:id="rId110" ref="B110"/>
+    <hyperlink r:id="rId111" ref="B111"/>
+    <hyperlink r:id="rId112" ref="B112"/>
+    <hyperlink r:id="rId113" ref="B114"/>
+    <hyperlink r:id="rId114" ref="B115"/>
+    <hyperlink r:id="rId115" ref="B116"/>
+    <hyperlink r:id="rId116" ref="B117"/>
+    <hyperlink r:id="rId117" ref="B118"/>
+    <hyperlink r:id="rId118" ref="B119"/>
+    <hyperlink r:id="rId119" ref="B120"/>
+    <hyperlink r:id="rId120" ref="B121"/>
+    <hyperlink r:id="rId121" ref="B122"/>
+    <hyperlink r:id="rId122" ref="B123"/>
+    <hyperlink r:id="rId123" ref="B124"/>
+    <hyperlink r:id="rId124" ref="B125"/>
+    <hyperlink r:id="rId125" ref="B126"/>
+    <hyperlink r:id="rId126" ref="B127"/>
+    <hyperlink r:id="rId127" ref="B128"/>
+    <hyperlink r:id="rId128" ref="B129"/>
+    <hyperlink r:id="rId129" ref="B130"/>
+    <hyperlink r:id="rId130" ref="B131"/>
+    <hyperlink r:id="rId131" ref="B132"/>
+    <hyperlink r:id="rId132" ref="B133"/>
+    <hyperlink r:id="rId133" ref="B134"/>
+    <hyperlink r:id="rId134" ref="B135"/>
+    <hyperlink r:id="rId135" ref="B136"/>
   </hyperlinks>
-  <drawing r:id="rId93"/>
-  <legacyDrawing r:id="rId94"/>
+  <drawing r:id="rId136"/>
+  <legacyDrawing r:id="rId137"/>
   <tableParts count="1">
-    <tablePart r:id="rId96"/>
+    <tablePart r:id="rId139"/>
   </tableParts>
 </worksheet>
 </file>
@@ -27683,7 +28923,8 @@
     <col customWidth="1" min="2" max="2" width="41.0"/>
     <col customWidth="1" min="3" max="3" width="23.13"/>
     <col customWidth="1" min="4" max="4" width="13.75"/>
-    <col customWidth="1" min="5" max="6" width="10.0"/>
+    <col customWidth="1" min="5" max="5" width="15.63"/>
+    <col customWidth="1" min="6" max="6" width="10.0"/>
     <col customWidth="1" min="7" max="7" width="14.75"/>
     <col customWidth="1" min="8" max="9" width="10.25"/>
     <col customWidth="1" min="10" max="10" width="14.38"/>
@@ -27698,72 +28939,72 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="73" t="s">
-        <v>642</v>
+        <v>685</v>
       </c>
       <c r="B1" s="73" t="s">
-        <v>643</v>
+        <v>686</v>
       </c>
       <c r="C1" s="73" t="s">
-        <v>644</v>
+        <v>687</v>
       </c>
       <c r="D1" s="73" t="s">
-        <v>645</v>
+        <v>688</v>
       </c>
       <c r="E1" s="73" t="s">
-        <v>646</v>
+        <v>689</v>
       </c>
       <c r="F1" s="73" t="s">
-        <v>647</v>
+        <v>690</v>
       </c>
       <c r="G1" s="73" t="s">
-        <v>648</v>
+        <v>691</v>
       </c>
       <c r="H1" s="73" t="s">
-        <v>649</v>
+        <v>692</v>
       </c>
       <c r="I1" s="73" t="s">
-        <v>650</v>
+        <v>693</v>
       </c>
       <c r="J1" s="73" t="s">
-        <v>651</v>
+        <v>694</v>
       </c>
       <c r="K1" s="73" t="s">
-        <v>652</v>
+        <v>695</v>
       </c>
       <c r="L1" s="73" t="s">
-        <v>653</v>
+        <v>696</v>
       </c>
       <c r="M1" s="73" t="s">
-        <v>654</v>
+        <v>697</v>
       </c>
       <c r="N1" s="73" t="s">
-        <v>655</v>
+        <v>698</v>
       </c>
       <c r="O1" s="73" t="s">
-        <v>656</v>
+        <v>699</v>
       </c>
       <c r="P1" s="73" t="s">
-        <v>657</v>
+        <v>700</v>
       </c>
       <c r="Q1" s="73" t="s">
-        <v>658</v>
+        <v>701</v>
       </c>
       <c r="R1" s="73" t="s">
-        <v>659</v>
+        <v>702</v>
       </c>
       <c r="S1" s="73" t="s">
-        <v>660</v>
+        <v>703</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="30">
         <v>1.0</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="42" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="74" t="s">
-        <v>661</v>
+        <v>704</v>
       </c>
       <c r="D2" s="74">
         <v>2018.0</v>
@@ -27772,10 +29013,10 @@
         <v>43</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>662</v>
-      </c>
-      <c r="H2" s="41" t="s">
-        <v>663</v>
+        <v>705</v>
+      </c>
+      <c r="H2" s="42" t="s">
+        <v>706</v>
       </c>
       <c r="I2" s="75">
         <v>116972.0</v>
@@ -27792,10 +29033,10 @@
       <c r="M2" s="30">
         <v>114.0</v>
       </c>
-      <c r="N2" s="41">
+      <c r="N2" s="42">
         <v>67.4</v>
       </c>
-      <c r="O2" s="41">
+      <c r="O2" s="42">
         <v>15.1</v>
       </c>
       <c r="R2" s="30">
@@ -27806,11 +29047,11 @@
       <c r="A3" s="66">
         <v>2.0</v>
       </c>
-      <c r="B3" s="41" t="s">
-        <v>664</v>
+      <c r="B3" s="42" t="s">
+        <v>707</v>
       </c>
       <c r="C3" s="74" t="s">
-        <v>665</v>
+        <v>708</v>
       </c>
       <c r="D3" s="74">
         <v>2016.0</v>
@@ -27821,8 +29062,8 @@
       <c r="F3" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="41" t="s">
-        <v>666</v>
+      <c r="H3" s="42" t="s">
+        <v>709</v>
       </c>
       <c r="I3" s="75">
         <v>669046.0</v>
@@ -27839,10 +29080,10 @@
       <c r="M3" s="30">
         <v>27.9</v>
       </c>
-      <c r="N3" s="41">
+      <c r="N3" s="42">
         <v>12.6</v>
       </c>
-      <c r="O3" s="41">
+      <c r="O3" s="42">
         <v>2.9</v>
       </c>
       <c r="P3" s="30">
@@ -27859,11 +29100,11 @@
       <c r="A4" s="66">
         <v>3.0</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="42" t="s">
         <v>75</v>
       </c>
       <c r="C4" s="74" t="s">
-        <v>667</v>
+        <v>710</v>
       </c>
       <c r="D4" s="74">
         <v>2016.0</v>
@@ -27874,8 +29115,8 @@
       <c r="F4" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="41" t="s">
-        <v>666</v>
+      <c r="H4" s="42" t="s">
+        <v>709</v>
       </c>
       <c r="I4" s="75">
         <v>517041.0</v>
@@ -27892,10 +29133,10 @@
       <c r="M4" s="30">
         <v>28.0</v>
       </c>
-      <c r="N4" s="41">
+      <c r="N4" s="42">
         <v>17.7</v>
       </c>
-      <c r="O4" s="41">
+      <c r="O4" s="42">
         <v>3.7</v>
       </c>
       <c r="P4" s="30">
@@ -27912,11 +29153,11 @@
       <c r="A5" s="66">
         <v>4.0</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="42" t="s">
         <v>87</v>
       </c>
       <c r="C5" s="74" t="s">
-        <v>668</v>
+        <v>711</v>
       </c>
       <c r="D5" s="74">
         <v>2013.0</v>
@@ -27927,7 +29168,7 @@
       <c r="F5" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="H5" s="41" t="s">
+      <c r="H5" s="42" t="s">
         <v>565</v>
       </c>
       <c r="I5" s="75">
@@ -27945,10 +29186,10 @@
       <c r="M5" s="30">
         <v>20.2</v>
       </c>
-      <c r="N5" s="41">
+      <c r="N5" s="42">
         <v>12.9</v>
       </c>
-      <c r="O5" s="41">
+      <c r="O5" s="42">
         <v>1.4</v>
       </c>
       <c r="P5" s="30">
@@ -27965,11 +29206,11 @@
       <c r="A6" s="66">
         <v>5.0</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="42" t="s">
         <v>100</v>
       </c>
       <c r="C6" s="74" t="s">
-        <v>669</v>
+        <v>712</v>
       </c>
       <c r="D6" s="74">
         <v>2015.0</v>
@@ -27980,8 +29221,8 @@
       <c r="F6" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="H6" s="41" t="s">
-        <v>666</v>
+      <c r="H6" s="42" t="s">
+        <v>709</v>
       </c>
       <c r="I6" s="75">
         <v>89835.0</v>
@@ -27998,10 +29239,10 @@
       <c r="M6" s="30">
         <v>7.6</v>
       </c>
-      <c r="N6" s="41">
+      <c r="N6" s="42">
         <v>9.1</v>
       </c>
-      <c r="O6" s="41">
+      <c r="O6" s="42">
         <v>3.4</v>
       </c>
       <c r="P6" s="30">
@@ -28018,11 +29259,11 @@
       <c r="A7" s="66">
         <v>6.0</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="42" t="s">
         <v>116</v>
       </c>
       <c r="C7" s="74" t="s">
-        <v>670</v>
+        <v>713</v>
       </c>
       <c r="D7" s="74">
         <v>2015.0</v>
@@ -28033,8 +29274,8 @@
       <c r="F7" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="41" t="s">
-        <v>666</v>
+      <c r="H7" s="42" t="s">
+        <v>709</v>
       </c>
       <c r="I7" s="75">
         <v>108767.0</v>
@@ -28051,10 +29292,10 @@
       <c r="M7" s="30">
         <v>14.8</v>
       </c>
-      <c r="N7" s="41">
+      <c r="N7" s="42">
         <v>12.0</v>
       </c>
-      <c r="O7" s="41">
+      <c r="O7" s="42">
         <v>2.8</v>
       </c>
       <c r="P7" s="30">
@@ -28071,11 +29312,11 @@
       <c r="A8" s="66">
         <v>7.0</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="42" t="s">
         <v>129</v>
       </c>
       <c r="C8" s="66" t="s">
-        <v>671</v>
+        <v>714</v>
       </c>
       <c r="D8" s="74">
         <v>2011.0</v>
@@ -28086,10 +29327,10 @@
       <c r="F8" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="41" t="s">
-        <v>666</v>
-      </c>
-      <c r="I8" s="41">
+      <c r="H8" s="42" t="s">
+        <v>709</v>
+      </c>
+      <c r="I8" s="42">
         <v>73489.0</v>
       </c>
       <c r="J8" s="30">
@@ -28104,10 +29345,10 @@
       <c r="M8" s="76">
         <v>28.35</v>
       </c>
-      <c r="N8" s="41">
+      <c r="N8" s="42">
         <v>15.64</v>
       </c>
-      <c r="O8" s="41">
+      <c r="O8" s="42">
         <v>4.48</v>
       </c>
       <c r="R8" s="30">
@@ -28118,11 +29359,11 @@
       <c r="A9" s="66">
         <v>8.0</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="42" t="s">
         <v>143</v>
       </c>
       <c r="C9" s="66" t="s">
-        <v>672</v>
+        <v>715</v>
       </c>
       <c r="D9" s="74">
         <v>2015.0</v>
@@ -28133,8 +29374,8 @@
       <c r="F9" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="H9" s="41" t="s">
-        <v>666</v>
+      <c r="H9" s="42" t="s">
+        <v>709</v>
       </c>
       <c r="I9" s="75">
         <v>2100000.0</v>
@@ -28151,10 +29392,10 @@
       <c r="M9" s="30">
         <v>20.0</v>
       </c>
-      <c r="N9" s="41">
+      <c r="N9" s="42">
         <v>7.4</v>
       </c>
-      <c r="O9" s="41">
+      <c r="O9" s="42">
         <v>2.6</v>
       </c>
       <c r="R9" s="30">
@@ -28165,11 +29406,11 @@
       <c r="A10" s="66">
         <v>9.0</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="42" t="s">
         <v>155</v>
       </c>
       <c r="C10" s="66" t="s">
-        <v>673</v>
+        <v>716</v>
       </c>
       <c r="D10" s="74">
         <v>2015.0</v>
@@ -28180,8 +29421,8 @@
       <c r="F10" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="H10" s="41" t="s">
-        <v>666</v>
+      <c r="H10" s="42" t="s">
+        <v>709</v>
       </c>
       <c r="I10" s="75">
         <v>2521525.0</v>
@@ -28198,7 +29439,7 @@
       <c r="M10" s="30">
         <v>8.9</v>
       </c>
-      <c r="N10" s="41">
+      <c r="N10" s="42">
         <v>8.9</v>
       </c>
       <c r="O10" s="65"/>
@@ -28210,11 +29451,11 @@
       <c r="A11" s="66">
         <v>10.0</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="42" t="s">
         <v>167</v>
       </c>
       <c r="C11" s="66" t="s">
-        <v>674</v>
+        <v>717</v>
       </c>
       <c r="D11" s="74">
         <v>2016.0</v>
@@ -28225,8 +29466,8 @@
       <c r="F11" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="H11" s="41" t="s">
-        <v>666</v>
+      <c r="H11" s="42" t="s">
+        <v>709</v>
       </c>
       <c r="I11" s="75">
         <v>299500.0</v>
@@ -28243,10 +29484,10 @@
       <c r="M11" s="30">
         <v>13.0</v>
       </c>
-      <c r="N11" s="41">
+      <c r="N11" s="42">
         <v>6.3</v>
       </c>
-      <c r="O11" s="41">
+      <c r="O11" s="42">
         <v>2.5</v>
       </c>
       <c r="P11" s="30">
@@ -28263,11 +29504,11 @@
       <c r="A12" s="66">
         <v>11.0</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="42" t="s">
         <v>180</v>
       </c>
       <c r="C12" s="66" t="s">
-        <v>675</v>
+        <v>718</v>
       </c>
       <c r="D12" s="74">
         <v>2013.0</v>
@@ -28276,9 +29517,9 @@
         <v>43</v>
       </c>
       <c r="F12" s="30" t="s">
-        <v>676</v>
-      </c>
-      <c r="H12" s="41" t="s">
+        <v>719</v>
+      </c>
+      <c r="H12" s="42" t="s">
         <v>565</v>
       </c>
       <c r="I12" s="75">
@@ -28296,10 +29537,10 @@
       <c r="M12" s="30">
         <v>26.0</v>
       </c>
-      <c r="N12" s="41">
+      <c r="N12" s="42">
         <v>23.0</v>
       </c>
-      <c r="O12" s="41">
+      <c r="O12" s="42">
         <v>4.4</v>
       </c>
       <c r="P12" s="30">
@@ -28316,11 +29557,11 @@
       <c r="A13" s="66">
         <v>12.0</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="42" t="s">
         <v>192</v>
       </c>
       <c r="C13" s="66" t="s">
-        <v>677</v>
+        <v>720</v>
       </c>
       <c r="D13" s="74">
         <v>2015.0</v>
@@ -28329,13 +29570,13 @@
         <v>43</v>
       </c>
       <c r="F13" s="30" t="s">
-        <v>662</v>
+        <v>705</v>
       </c>
       <c r="G13" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="H13" s="41" t="s">
-        <v>663</v>
+      <c r="H13" s="42" t="s">
+        <v>706</v>
       </c>
       <c r="I13" s="75">
         <v>66820.0</v>
@@ -28352,10 +29593,10 @@
       <c r="M13" s="30">
         <v>44.6</v>
       </c>
-      <c r="N13" s="41">
+      <c r="N13" s="42">
         <v>35.3</v>
       </c>
-      <c r="O13" s="41" t="s">
+      <c r="O13" s="42" t="s">
         <v>294</v>
       </c>
       <c r="P13" s="30">
@@ -28372,11 +29613,11 @@
       <c r="A14" s="66">
         <v>13.0</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="42" t="s">
         <v>205</v>
       </c>
       <c r="C14" s="66" t="s">
-        <v>678</v>
+        <v>721</v>
       </c>
       <c r="D14" s="74">
         <v>2017.0</v>
@@ -28387,10 +29628,10 @@
       <c r="F14" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="H14" s="41" t="s">
-        <v>666</v>
-      </c>
-      <c r="I14" s="41">
+      <c r="H14" s="42" t="s">
+        <v>709</v>
+      </c>
+      <c r="I14" s="42">
         <v>555180.0</v>
       </c>
       <c r="J14" s="30">
@@ -28402,10 +29643,10 @@
       <c r="L14" s="30">
         <v>12.59</v>
       </c>
-      <c r="N14" s="41">
+      <c r="N14" s="42">
         <v>12.59</v>
       </c>
-      <c r="O14" s="41" t="s">
+      <c r="O14" s="42" t="s">
         <v>294</v>
       </c>
       <c r="P14" s="30">
@@ -28422,11 +29663,11 @@
       <c r="A15" s="30">
         <v>14.0</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="42" t="s">
         <v>220</v>
       </c>
       <c r="C15" s="66" t="s">
-        <v>679</v>
+        <v>722</v>
       </c>
       <c r="D15" s="74">
         <v>2015.0</v>
@@ -28435,9 +29676,9 @@
         <v>43</v>
       </c>
       <c r="F15" s="30" t="s">
-        <v>680</v>
-      </c>
-      <c r="H15" s="41" t="s">
+        <v>723</v>
+      </c>
+      <c r="H15" s="42" t="s">
         <v>565</v>
       </c>
       <c r="I15" s="75">
@@ -28451,8 +29692,8 @@
       </c>
       <c r="L15" s="30"/>
       <c r="M15" s="30"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
       <c r="P15" s="30"/>
       <c r="Q15" s="30"/>
       <c r="R15" s="30">
@@ -28463,7 +29704,7 @@
       <c r="A16" s="66">
         <v>15.0</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="42" t="s">
         <v>234</v>
       </c>
       <c r="C16" s="74" t="s">
@@ -28478,8 +29719,8 @@
       <c r="F16" s="74" t="s">
         <v>68</v>
       </c>
-      <c r="H16" s="41" t="s">
-        <v>666</v>
+      <c r="H16" s="42" t="s">
+        <v>709</v>
       </c>
       <c r="I16" s="75">
         <v>8111.0</v>
@@ -28496,10 +29737,10 @@
       <c r="M16" s="30">
         <v>29.6</v>
       </c>
-      <c r="N16" s="41">
+      <c r="N16" s="42">
         <v>20.3</v>
       </c>
-      <c r="O16" s="41" t="s">
+      <c r="O16" s="42" t="s">
         <v>294</v>
       </c>
       <c r="P16" s="30">
@@ -28516,7 +29757,7 @@
       <c r="A17" s="30">
         <v>16.0</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="42" t="s">
         <v>249</v>
       </c>
       <c r="C17" s="30" t="s">
@@ -28532,12 +29773,12 @@
         <v>68</v>
       </c>
       <c r="G17" s="30" t="s">
-        <v>681</v>
-      </c>
-      <c r="H17" s="41" t="s">
-        <v>666</v>
-      </c>
-      <c r="I17" s="41">
+        <v>724</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>709</v>
+      </c>
+      <c r="I17" s="42">
         <v>9205500.0</v>
       </c>
       <c r="J17" s="30">
@@ -28546,19 +29787,19 @@
       <c r="K17" s="30">
         <v>2009.0</v>
       </c>
-      <c r="L17" s="41">
+      <c r="L17" s="42">
         <v>9.0</v>
       </c>
       <c r="M17" s="30">
         <v>12.9</v>
       </c>
-      <c r="N17" s="41">
+      <c r="N17" s="42">
         <v>11.3</v>
       </c>
-      <c r="O17" s="41" t="s">
+      <c r="O17" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="P17" s="41" t="s">
+      <c r="P17" s="42" t="s">
         <v>294</v>
       </c>
       <c r="Q17" s="30" t="s">
@@ -28572,7 +29813,7 @@
       <c r="A18" s="30">
         <v>17.0</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="42" t="s">
         <v>258</v>
       </c>
       <c r="C18" s="30" t="s">
@@ -28587,8 +29828,8 @@
       <c r="F18" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="H18" s="41" t="s">
-        <v>666</v>
+      <c r="H18" s="42" t="s">
+        <v>709</v>
       </c>
       <c r="I18" s="75">
         <v>663100.0</v>
@@ -28599,19 +29840,19 @@
       <c r="K18" s="30">
         <v>2016.0</v>
       </c>
-      <c r="L18" s="41">
+      <c r="L18" s="42">
         <v>4.5</v>
       </c>
       <c r="M18" s="30">
         <v>10.6</v>
       </c>
-      <c r="N18" s="41">
+      <c r="N18" s="42">
         <v>7.46</v>
       </c>
-      <c r="O18" s="41" t="s">
+      <c r="O18" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="P18" s="41">
+      <c r="P18" s="42">
         <v>25.0</v>
       </c>
       <c r="Q18" s="30">
@@ -28625,7 +29866,7 @@
       <c r="A19" s="30">
         <v>18.0</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="42" t="s">
         <v>267</v>
       </c>
       <c r="C19" s="30" t="s">
@@ -28640,10 +29881,10 @@
       <c r="F19" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="H19" s="41" t="s">
-        <v>666</v>
-      </c>
-      <c r="I19" s="41" t="s">
+      <c r="H19" s="42" t="s">
+        <v>709</v>
+      </c>
+      <c r="I19" s="42" t="s">
         <v>294</v>
       </c>
       <c r="J19" s="30">
@@ -28652,19 +29893,19 @@
       <c r="K19" s="30">
         <v>2000.0</v>
       </c>
-      <c r="L19" s="41">
+      <c r="L19" s="42">
         <v>11.24</v>
       </c>
       <c r="M19" s="30">
         <v>24.97</v>
       </c>
-      <c r="N19" s="41">
+      <c r="N19" s="42">
         <v>20.61</v>
       </c>
-      <c r="O19" s="41">
+      <c r="O19" s="42">
         <v>4.36</v>
       </c>
-      <c r="P19" s="41">
+      <c r="P19" s="42">
         <v>45.0</v>
       </c>
       <c r="Q19" s="30" t="s">
@@ -28678,7 +29919,7 @@
       <c r="A20" s="30">
         <v>19.0</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="42" t="s">
         <v>276</v>
       </c>
       <c r="C20" s="30" t="s">
@@ -28693,8 +29934,8 @@
       <c r="F20" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="H20" s="41" t="s">
-        <v>666</v>
+      <c r="H20" s="42" t="s">
+        <v>709</v>
       </c>
       <c r="I20" s="75">
         <v>3.5295005E7</v>
@@ -28705,19 +29946,19 @@
       <c r="K20" s="30">
         <v>2010.0</v>
       </c>
-      <c r="L20" s="41">
+      <c r="L20" s="42">
         <v>7.8</v>
       </c>
       <c r="M20" s="30">
         <v>15.7</v>
       </c>
-      <c r="N20" s="41">
+      <c r="N20" s="42">
         <v>11.5</v>
       </c>
-      <c r="O20" s="41">
+      <c r="O20" s="42">
         <v>1.5</v>
       </c>
-      <c r="P20" s="41">
+      <c r="P20" s="42">
         <v>65.0</v>
       </c>
       <c r="Q20" s="30" t="s">
@@ -28731,7 +29972,7 @@
       <c r="A21" s="30">
         <v>20.0</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="42" t="s">
         <v>286</v>
       </c>
       <c r="C21" s="30" t="s">
@@ -28747,10 +29988,10 @@
         <v>68</v>
       </c>
       <c r="G21" s="30" t="s">
-        <v>682</v>
-      </c>
-      <c r="H21" s="41" t="s">
-        <v>666</v>
+        <v>725</v>
+      </c>
+      <c r="H21" s="42" t="s">
+        <v>709</v>
       </c>
       <c r="I21" s="75">
         <v>1.3E7</v>
@@ -28761,19 +30002,19 @@
       <c r="K21" s="30">
         <v>2013.0</v>
       </c>
-      <c r="L21" s="41" t="s">
+      <c r="L21" s="42" t="s">
         <v>294</v>
       </c>
       <c r="M21" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="N21" s="41" t="s">
+      <c r="N21" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="O21" s="41" t="s">
+      <c r="O21" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="P21" s="41">
+      <c r="P21" s="42">
         <v>65.0</v>
       </c>
       <c r="Q21" s="30" t="s">
@@ -28787,7 +30028,7 @@
       <c r="A22" s="30">
         <v>21.0</v>
       </c>
-      <c r="B22" s="41" t="s">
+      <c r="B22" s="42" t="s">
         <v>296</v>
       </c>
       <c r="C22" s="30" t="s">
@@ -28803,12 +30044,12 @@
         <v>68</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>683</v>
-      </c>
-      <c r="H22" s="41" t="s">
-        <v>666</v>
-      </c>
-      <c r="I22" s="41" t="s">
+        <v>726</v>
+      </c>
+      <c r="H22" s="42" t="s">
+        <v>709</v>
+      </c>
+      <c r="I22" s="42" t="s">
         <v>294</v>
       </c>
       <c r="J22" s="30">
@@ -28817,19 +30058,19 @@
       <c r="K22" s="30">
         <v>2009.0</v>
       </c>
-      <c r="L22" s="41">
+      <c r="L22" s="42">
         <v>0.2</v>
       </c>
       <c r="M22" s="30">
         <v>67.2</v>
       </c>
-      <c r="N22" s="41">
+      <c r="N22" s="42">
         <v>9.8</v>
       </c>
-      <c r="O22" s="41">
+      <c r="O22" s="42">
         <v>5.8</v>
       </c>
-      <c r="P22" s="41" t="s">
+      <c r="P22" s="42" t="s">
         <v>294</v>
       </c>
       <c r="Q22" s="30" t="s">
@@ -28843,7 +30084,7 @@
       <c r="A23" s="30">
         <v>22.0</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="42" t="s">
         <v>307</v>
       </c>
       <c r="C23" s="30" t="s">
@@ -28858,10 +30099,10 @@
       <c r="F23" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="H23" s="41" t="s">
-        <v>666</v>
-      </c>
-      <c r="I23" s="41" t="s">
+      <c r="H23" s="42" t="s">
+        <v>709</v>
+      </c>
+      <c r="I23" s="42" t="s">
         <v>294</v>
       </c>
       <c r="J23" s="30">
@@ -28870,19 +30111,19 @@
       <c r="K23" s="30">
         <v>2010.0</v>
       </c>
-      <c r="L23" s="41">
+      <c r="L23" s="42">
         <v>2.0</v>
       </c>
       <c r="M23" s="30">
         <v>30.0</v>
       </c>
-      <c r="N23" s="41">
+      <c r="N23" s="42">
         <v>12.8</v>
       </c>
-      <c r="O23" s="41">
+      <c r="O23" s="42">
         <v>7.0</v>
       </c>
-      <c r="P23" s="41" t="s">
+      <c r="P23" s="42" t="s">
         <v>294</v>
       </c>
       <c r="Q23" s="30" t="s">
@@ -28896,7 +30137,7 @@
       <c r="A24" s="30">
         <v>23.0</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="42" t="s">
         <v>314</v>
       </c>
       <c r="C24" s="30" t="s">
@@ -28911,8 +30152,8 @@
       <c r="F24" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="H24" s="41" t="s">
-        <v>666</v>
+      <c r="H24" s="42" t="s">
+        <v>709</v>
       </c>
       <c r="I24" s="75">
         <v>1.6965154E7</v>
@@ -28923,19 +30164,19 @@
       <c r="K24" s="30">
         <v>2013.0</v>
       </c>
-      <c r="L24" s="41">
+      <c r="L24" s="42">
         <v>9.2</v>
       </c>
       <c r="M24" s="30">
         <v>11.4</v>
       </c>
-      <c r="N24" s="41">
+      <c r="N24" s="42">
         <v>10.4</v>
       </c>
-      <c r="O24" s="41" t="s">
+      <c r="O24" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="P24" s="41">
+      <c r="P24" s="42">
         <v>65.0</v>
       </c>
       <c r="Q24" s="30" t="s">
@@ -28949,7 +30190,7 @@
       <c r="A25" s="30">
         <v>24.0</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="42" t="s">
         <v>319</v>
       </c>
       <c r="C25" s="30" t="s">
@@ -28964,8 +30205,8 @@
       <c r="F25" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="H25" s="41" t="s">
-        <v>666</v>
+      <c r="H25" s="42" t="s">
+        <v>709</v>
       </c>
       <c r="I25" s="75">
         <v>3239.0</v>
@@ -28976,19 +30217,19 @@
       <c r="K25" s="30">
         <v>1988.0</v>
       </c>
-      <c r="L25" s="41">
+      <c r="L25" s="42">
         <v>15.0</v>
       </c>
       <c r="M25" s="30">
         <v>45.0</v>
       </c>
-      <c r="N25" s="41">
+      <c r="N25" s="42">
         <v>32.0</v>
       </c>
-      <c r="O25" s="41" t="s">
+      <c r="O25" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="P25" s="41" t="s">
+      <c r="P25" s="42" t="s">
         <v>294</v>
       </c>
       <c r="Q25" s="30" t="s">
@@ -29002,7 +30243,7 @@
       <c r="A26" s="30">
         <v>25.0</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="42" t="s">
         <v>326</v>
       </c>
       <c r="C26" s="30" t="s">
@@ -29017,8 +30258,8 @@
       <c r="F26" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="H26" s="41" t="s">
-        <v>666</v>
+      <c r="H26" s="42" t="s">
+        <v>709</v>
       </c>
       <c r="I26" s="75">
         <v>11484.0</v>
@@ -29029,19 +30270,19 @@
       <c r="K26" s="30">
         <v>2000.0</v>
       </c>
-      <c r="L26" s="41">
+      <c r="L26" s="42">
         <v>9.5</v>
       </c>
       <c r="M26" s="30">
         <v>17.9</v>
       </c>
-      <c r="N26" s="41">
+      <c r="N26" s="42">
         <v>13.7</v>
       </c>
-      <c r="O26" s="41">
+      <c r="O26" s="42">
         <v>4.2</v>
       </c>
-      <c r="P26" s="41">
+      <c r="P26" s="42">
         <v>8.4</v>
       </c>
       <c r="Q26" s="30">
@@ -29055,7 +30296,7 @@
       <c r="A27" s="30">
         <v>26.0</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="42" t="s">
         <v>333</v>
       </c>
       <c r="C27" s="30" t="s">
@@ -29070,8 +30311,8 @@
       <c r="F27" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="H27" s="41" t="s">
-        <v>666</v>
+      <c r="H27" s="42" t="s">
+        <v>709</v>
       </c>
       <c r="I27" s="75">
         <v>65893.0</v>
@@ -29082,19 +30323,19 @@
       <c r="K27" s="30">
         <v>1998.0</v>
       </c>
-      <c r="L27" s="41">
+      <c r="L27" s="42">
         <v>3.4</v>
       </c>
       <c r="M27" s="30">
         <v>28.3</v>
       </c>
-      <c r="N27" s="41">
+      <c r="N27" s="42">
         <v>13.5</v>
       </c>
-      <c r="O27" s="41">
+      <c r="O27" s="42">
         <v>3.7</v>
       </c>
-      <c r="P27" s="41">
+      <c r="P27" s="42">
         <v>50.0</v>
       </c>
       <c r="Q27" s="30">
@@ -29108,8 +30349,8 @@
       <c r="A28" s="30">
         <v>27.0</v>
       </c>
-      <c r="B28" s="41" t="s">
-        <v>684</v>
+      <c r="B28" s="42" t="s">
+        <v>727</v>
       </c>
       <c r="C28" s="30" t="s">
         <v>341</v>
@@ -29123,8 +30364,8 @@
       <c r="F28" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="H28" s="41" t="s">
-        <v>666</v>
+      <c r="H28" s="42" t="s">
+        <v>709</v>
       </c>
       <c r="I28" s="75">
         <v>4.0E7</v>
@@ -29135,19 +30376,19 @@
       <c r="K28" s="30">
         <v>2002.0</v>
       </c>
-      <c r="L28" s="41">
+      <c r="L28" s="42">
         <v>6.0</v>
       </c>
       <c r="M28" s="30">
         <v>23.0</v>
       </c>
-      <c r="N28" s="41">
+      <c r="N28" s="42">
         <v>13.6</v>
       </c>
-      <c r="O28" s="41">
+      <c r="O28" s="42">
         <v>2.8</v>
       </c>
-      <c r="P28" s="41">
+      <c r="P28" s="42">
         <v>65.0</v>
       </c>
       <c r="Q28" s="30" t="s">
@@ -29161,7 +30402,7 @@
       <c r="A29" s="30">
         <v>28.0</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="42" t="s">
         <v>348</v>
       </c>
       <c r="C29" s="30" t="s">
@@ -29176,8 +30417,8 @@
       <c r="F29" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="H29" s="41" t="s">
-        <v>666</v>
+      <c r="H29" s="42" t="s">
+        <v>709</v>
       </c>
       <c r="I29" s="75">
         <v>1.32E7</v>
@@ -29188,19 +30429,19 @@
       <c r="K29" s="30">
         <v>2005.0</v>
       </c>
-      <c r="L29" s="41">
+      <c r="L29" s="42">
         <v>9.8</v>
       </c>
       <c r="M29" s="30">
         <v>18.5</v>
       </c>
-      <c r="N29" s="41">
+      <c r="N29" s="42">
         <v>13.2</v>
       </c>
-      <c r="O29" s="41" t="s">
+      <c r="O29" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="P29" s="41">
+      <c r="P29" s="42">
         <v>65.0</v>
       </c>
       <c r="Q29" s="30" t="s">
@@ -29214,7 +30455,7 @@
       <c r="A30" s="30">
         <v>29.0</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="42" t="s">
         <v>353</v>
       </c>
       <c r="C30" s="30" t="s">
@@ -29229,10 +30470,10 @@
       <c r="F30" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="H30" s="41" t="s">
-        <v>666</v>
-      </c>
-      <c r="I30" s="41" t="s">
+      <c r="H30" s="42" t="s">
+        <v>709</v>
+      </c>
+      <c r="I30" s="42" t="s">
         <v>294</v>
       </c>
       <c r="J30" s="30">
@@ -29241,19 +30482,19 @@
       <c r="K30" s="30">
         <v>2008.0</v>
       </c>
-      <c r="L30" s="41">
+      <c r="L30" s="42">
         <v>3.1</v>
       </c>
       <c r="M30" s="30">
         <v>13.3</v>
       </c>
-      <c r="N30" s="41">
+      <c r="N30" s="42">
         <v>8.2</v>
       </c>
-      <c r="O30" s="41">
+      <c r="O30" s="42">
         <v>5.1</v>
       </c>
-      <c r="P30" s="41">
+      <c r="P30" s="42">
         <v>65.0</v>
       </c>
       <c r="Q30" s="30" t="s">
@@ -29267,7 +30508,7 @@
       <c r="A31" s="30">
         <v>30.0</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="42" t="s">
         <v>359</v>
       </c>
       <c r="C31" s="30" t="s">
@@ -29282,8 +30523,8 @@
       <c r="F31" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="H31" s="41" t="s">
-        <v>666</v>
+      <c r="H31" s="42" t="s">
+        <v>709</v>
       </c>
       <c r="I31" s="75">
         <v>1.31E7</v>
@@ -29294,19 +30535,19 @@
       <c r="K31" s="30">
         <v>2013.0</v>
       </c>
-      <c r="L31" s="41">
+      <c r="L31" s="42">
         <v>6.0</v>
       </c>
       <c r="M31" s="30">
         <v>26.0</v>
       </c>
-      <c r="N31" s="41">
+      <c r="N31" s="42">
         <v>10.7</v>
       </c>
-      <c r="O31" s="41" t="s">
+      <c r="O31" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="P31" s="41">
+      <c r="P31" s="42">
         <v>65.0</v>
       </c>
       <c r="Q31" s="30" t="s">
@@ -29320,7 +30561,7 @@
       <c r="A32" s="30">
         <v>31.0</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="42" t="s">
         <v>362</v>
       </c>
       <c r="C32" s="30" t="s">
@@ -29335,8 +30576,8 @@
       <c r="F32" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="H32" s="41" t="s">
-        <v>666</v>
+      <c r="H32" s="42" t="s">
+        <v>709</v>
       </c>
       <c r="I32" s="75">
         <v>2.0E7</v>
@@ -29347,19 +30588,19 @@
       <c r="K32" s="30">
         <v>2012.0</v>
       </c>
-      <c r="L32" s="41">
+      <c r="L32" s="42">
         <v>9.2</v>
       </c>
       <c r="M32" s="30">
         <v>13.8</v>
       </c>
-      <c r="N32" s="41">
+      <c r="N32" s="42">
         <v>11.65</v>
       </c>
-      <c r="O32" s="41">
+      <c r="O32" s="42">
         <v>3.09</v>
       </c>
-      <c r="P32" s="41">
+      <c r="P32" s="42">
         <v>65.0</v>
       </c>
       <c r="Q32" s="30" t="s">
@@ -29373,7 +30614,7 @@
       <c r="A33" s="30">
         <v>32.0</v>
       </c>
-      <c r="B33" s="41" t="s">
+      <c r="B33" s="42" t="s">
         <v>368</v>
       </c>
       <c r="C33" s="30" t="s">
@@ -29388,8 +30629,8 @@
       <c r="F33" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="H33" s="41" t="s">
-        <v>666</v>
+      <c r="H33" s="42" t="s">
+        <v>709</v>
       </c>
       <c r="I33" s="75">
         <v>70000.0</v>
@@ -29400,19 +30641,19 @@
       <c r="K33" s="30">
         <v>2001.0</v>
       </c>
-      <c r="L33" s="41">
+      <c r="L33" s="42">
         <v>11.1</v>
       </c>
       <c r="M33" s="30">
         <v>29.6</v>
       </c>
-      <c r="N33" s="41">
+      <c r="N33" s="42">
         <v>24.0</v>
       </c>
-      <c r="O33" s="41">
+      <c r="O33" s="42">
         <v>5.6</v>
       </c>
-      <c r="P33" s="41" t="s">
+      <c r="P33" s="42" t="s">
         <v>294</v>
       </c>
       <c r="Q33" s="30" t="s">
@@ -29426,7 +30667,7 @@
       <c r="A34" s="30">
         <v>33.0</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="42" t="s">
         <v>378</v>
       </c>
       <c r="C34" s="30" t="s">
@@ -29441,8 +30682,8 @@
       <c r="F34" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="H34" s="41" t="s">
-        <v>666</v>
+      <c r="H34" s="42" t="s">
+        <v>709</v>
       </c>
       <c r="I34" s="75">
         <v>66250.0</v>
@@ -29453,19 +30694,19 @@
       <c r="K34" s="30">
         <v>2002.0</v>
       </c>
-      <c r="L34" s="41">
+      <c r="L34" s="42">
         <v>5.8</v>
       </c>
       <c r="M34" s="30">
         <v>27.6</v>
       </c>
-      <c r="N34" s="41">
+      <c r="N34" s="42">
         <v>13.9</v>
       </c>
-      <c r="O34" s="41">
+      <c r="O34" s="42">
         <v>2.4</v>
       </c>
-      <c r="P34" s="41">
+      <c r="P34" s="42">
         <v>63.0</v>
       </c>
       <c r="Q34" s="30">
@@ -29479,7 +30720,7 @@
       <c r="A35" s="30">
         <v>34.0</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="42" t="s">
         <v>384</v>
       </c>
       <c r="C35" s="30" t="s">
@@ -29494,8 +30735,8 @@
       <c r="F35" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="H35" s="41" t="s">
-        <v>666</v>
+      <c r="H35" s="42" t="s">
+        <v>709</v>
       </c>
       <c r="I35" s="75">
         <v>51529.0</v>
@@ -29506,19 +30747,19 @@
       <c r="K35" s="30">
         <v>2002.0</v>
       </c>
-      <c r="L35" s="41">
+      <c r="L35" s="42">
         <v>12.5</v>
       </c>
       <c r="M35" s="30">
         <v>17.5</v>
       </c>
-      <c r="N35" s="41">
+      <c r="N35" s="42">
         <v>17.8</v>
       </c>
-      <c r="O35" s="41">
+      <c r="O35" s="42">
         <v>3.4</v>
       </c>
-      <c r="P35" s="41">
+      <c r="P35" s="42">
         <v>40.0</v>
       </c>
       <c r="Q35" s="30">
@@ -29532,7 +30773,7 @@
       <c r="A36" s="30">
         <v>35.0</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="42" t="s">
         <v>390</v>
       </c>
       <c r="C36" s="30" t="s">
@@ -29547,8 +30788,8 @@
       <c r="F36" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="H36" s="41" t="s">
-        <v>666</v>
+      <c r="H36" s="42" t="s">
+        <v>709</v>
       </c>
       <c r="I36" s="75">
         <v>53814.0</v>
@@ -29559,19 +30800,19 @@
       <c r="K36" s="30">
         <v>2000.0</v>
       </c>
-      <c r="L36" s="41" t="s">
+      <c r="L36" s="42" t="s">
         <v>294</v>
       </c>
       <c r="M36" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="N36" s="41">
+      <c r="N36" s="42">
         <v>14.1</v>
       </c>
-      <c r="O36" s="41">
+      <c r="O36" s="42">
         <v>4.0</v>
       </c>
-      <c r="P36" s="41">
+      <c r="P36" s="42">
         <v>15.3</v>
       </c>
       <c r="Q36" s="30">
@@ -29585,7 +30826,7 @@
       <c r="A37" s="30">
         <v>36.0</v>
       </c>
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="42" t="s">
         <v>397</v>
       </c>
       <c r="C37" s="30" t="s">
@@ -29600,8 +30841,8 @@
       <c r="F37" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="H37" s="41" t="s">
-        <v>666</v>
+      <c r="H37" s="42" t="s">
+        <v>709</v>
       </c>
       <c r="I37" s="75">
         <v>44000.0</v>
@@ -29612,13 +30853,13 @@
       <c r="K37" s="30">
         <v>2007.0</v>
       </c>
-      <c r="L37" s="41" t="s">
+      <c r="L37" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="N37" s="41" t="s">
+      <c r="N37" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="O37" s="41" t="s">
+      <c r="O37" s="42" t="s">
         <v>294</v>
       </c>
       <c r="P37" s="75" t="s">
@@ -29635,7 +30876,7 @@
       <c r="A38" s="30">
         <v>37.0</v>
       </c>
-      <c r="B38" s="41" t="s">
+      <c r="B38" s="42" t="s">
         <v>400</v>
       </c>
       <c r="C38" s="30" t="s">
@@ -29650,8 +30891,8 @@
       <c r="F38" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="H38" s="41" t="s">
-        <v>666</v>
+      <c r="H38" s="42" t="s">
+        <v>709</v>
       </c>
       <c r="I38" s="75">
         <v>101884.0</v>
@@ -29662,19 +30903,19 @@
       <c r="K38" s="30">
         <v>2007.0</v>
       </c>
-      <c r="L38" s="41">
+      <c r="L38" s="42">
         <v>13.1</v>
       </c>
       <c r="M38" s="30">
         <v>22.8</v>
       </c>
-      <c r="N38" s="41">
+      <c r="N38" s="42">
         <v>17.9</v>
       </c>
-      <c r="O38" s="41" t="s">
+      <c r="O38" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="P38" s="41">
+      <c r="P38" s="42">
         <v>43.5</v>
       </c>
       <c r="Q38" s="30">
@@ -29688,7 +30929,7 @@
       <c r="A39" s="30">
         <v>38.0</v>
       </c>
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="42" t="s">
         <v>406</v>
       </c>
       <c r="C39" s="30" t="s">
@@ -29703,8 +30944,8 @@
       <c r="F39" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="H39" s="41" t="s">
-        <v>666</v>
+      <c r="H39" s="42" t="s">
+        <v>709</v>
       </c>
       <c r="I39" s="75">
         <v>83378.0</v>
@@ -29715,19 +30956,19 @@
       <c r="K39" s="30">
         <v>2009.0</v>
       </c>
-      <c r="L39" s="41">
+      <c r="L39" s="42">
         <v>7.84</v>
       </c>
       <c r="M39" s="30">
         <v>11.18</v>
       </c>
-      <c r="N39" s="41">
+      <c r="N39" s="42">
         <v>9.52</v>
       </c>
-      <c r="O39" s="41">
+      <c r="O39" s="42">
         <v>1.66</v>
       </c>
-      <c r="P39" s="41" t="s">
+      <c r="P39" s="42" t="s">
         <v>294</v>
       </c>
       <c r="Q39" s="30" t="s">
@@ -29741,7 +30982,7 @@
       <c r="A40" s="30">
         <v>39.0</v>
       </c>
-      <c r="B40" s="41" t="s">
+      <c r="B40" s="42" t="s">
         <v>413</v>
       </c>
       <c r="C40" s="30" t="s">
@@ -29756,8 +30997,8 @@
       <c r="F40" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="H40" s="41" t="s">
-        <v>666</v>
+      <c r="H40" s="42" t="s">
+        <v>709</v>
       </c>
       <c r="I40" s="75">
         <v>3.3292571E7</v>
@@ -29768,19 +31009,19 @@
       <c r="K40" s="30">
         <v>2006.0</v>
       </c>
-      <c r="L40" s="41">
+      <c r="L40" s="42">
         <v>7.42</v>
       </c>
       <c r="M40" s="30">
         <v>17.94</v>
       </c>
-      <c r="N40" s="41">
+      <c r="N40" s="42">
         <v>12.68</v>
       </c>
-      <c r="O40" s="41">
+      <c r="O40" s="42">
         <v>5.26</v>
       </c>
-      <c r="P40" s="41">
+      <c r="P40" s="42">
         <v>65.0</v>
       </c>
       <c r="Q40" s="30" t="s">
@@ -29794,7 +31035,7 @@
       <c r="A41" s="30">
         <v>40.0</v>
       </c>
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="42" t="s">
         <v>421</v>
       </c>
       <c r="C41" s="30" t="s">
@@ -29809,10 +31050,10 @@
       <c r="F41" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="H41" s="41" t="s">
-        <v>666</v>
-      </c>
-      <c r="I41" s="41">
+      <c r="H41" s="42" t="s">
+        <v>709</v>
+      </c>
+      <c r="I41" s="42">
         <v>1599329.0</v>
       </c>
       <c r="J41" s="30">
@@ -29821,19 +31062,19 @@
       <c r="K41" s="30">
         <v>2014.0</v>
       </c>
-      <c r="L41" s="41">
+      <c r="L41" s="42">
         <v>2.5</v>
       </c>
       <c r="M41" s="30">
         <v>19.2</v>
       </c>
-      <c r="N41" s="41">
+      <c r="N41" s="42">
         <v>10.7</v>
       </c>
-      <c r="O41" s="41">
+      <c r="O41" s="42">
         <v>2.4</v>
       </c>
-      <c r="P41" s="41">
+      <c r="P41" s="42">
         <v>18.0</v>
       </c>
       <c r="Q41" s="30">
@@ -29847,7 +31088,7 @@
       <c r="A42" s="30">
         <v>41.0</v>
       </c>
-      <c r="B42" s="41" t="s">
+      <c r="B42" s="42" t="s">
         <v>428</v>
       </c>
       <c r="C42" s="30" t="s">
@@ -29862,8 +31103,8 @@
       <c r="F42" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="H42" s="41" t="s">
-        <v>666</v>
+      <c r="H42" s="42" t="s">
+        <v>709</v>
       </c>
       <c r="I42" s="75">
         <v>193300.0</v>
@@ -29874,16 +31115,16 @@
       <c r="K42" s="30">
         <v>2009.0</v>
       </c>
-      <c r="L42" s="41">
+      <c r="L42" s="42">
         <v>7.95</v>
       </c>
-      <c r="N42" s="41">
+      <c r="N42" s="42">
         <v>9.85</v>
       </c>
-      <c r="O42" s="41">
+      <c r="O42" s="42">
         <v>1.9</v>
       </c>
-      <c r="P42" s="41">
+      <c r="P42" s="42">
         <v>25.0</v>
       </c>
       <c r="Q42" s="30">
@@ -29897,7 +31138,7 @@
       <c r="A43" s="30">
         <v>42.0</v>
       </c>
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="42" t="s">
         <v>434</v>
       </c>
       <c r="C43" s="30" t="s">
@@ -29912,8 +31153,8 @@
       <c r="F43" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="H43" s="41" t="s">
-        <v>666</v>
+      <c r="H43" s="42" t="s">
+        <v>709</v>
       </c>
       <c r="I43" s="75">
         <v>2451855.0</v>
@@ -29924,19 +31165,19 @@
       <c r="K43" s="30">
         <v>2006.0</v>
       </c>
-      <c r="L43" s="41">
+      <c r="L43" s="42">
         <v>1.2</v>
       </c>
       <c r="M43" s="30">
         <v>17.0</v>
       </c>
-      <c r="N43" s="41">
+      <c r="N43" s="42">
         <v>8.26</v>
       </c>
-      <c r="O43" s="41" t="s">
+      <c r="O43" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="P43" s="41">
+      <c r="P43" s="42">
         <v>25.0</v>
       </c>
       <c r="Q43" s="30">
@@ -29950,7 +31191,7 @@
       <c r="A44" s="30">
         <v>43.0</v>
       </c>
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="42" t="s">
         <v>441</v>
       </c>
       <c r="C44" s="30" t="s">
@@ -29965,8 +31206,8 @@
       <c r="F44" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="H44" s="41" t="s">
-        <v>666</v>
+      <c r="H44" s="42" t="s">
+        <v>709</v>
       </c>
       <c r="I44" s="75">
         <v>2400000.0</v>
@@ -29977,19 +31218,19 @@
       <c r="K44" s="30">
         <v>2011.0</v>
       </c>
-      <c r="L44" s="41">
+      <c r="L44" s="42">
         <v>0.01</v>
       </c>
       <c r="M44" s="30">
         <v>20.0</v>
       </c>
-      <c r="N44" s="41">
+      <c r="N44" s="42">
         <v>7.4</v>
       </c>
-      <c r="O44" s="41">
+      <c r="O44" s="42">
         <v>2.6</v>
       </c>
-      <c r="P44" s="41">
+      <c r="P44" s="42">
         <v>25.0</v>
       </c>
       <c r="Q44" s="30">
@@ -30003,7 +31244,7 @@
       <c r="A45" s="30">
         <v>44.0</v>
       </c>
-      <c r="B45" s="41" t="s">
+      <c r="B45" s="42" t="s">
         <v>444</v>
       </c>
       <c r="C45" s="30" t="s">
@@ -30018,8 +31259,8 @@
       <c r="F45" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="H45" s="41" t="s">
-        <v>666</v>
+      <c r="H45" s="42" t="s">
+        <v>709</v>
       </c>
       <c r="I45" s="75">
         <v>270600.0</v>
@@ -30030,19 +31271,19 @@
       <c r="K45" s="30">
         <v>2008.0</v>
       </c>
-      <c r="L45" s="41">
+      <c r="L45" s="42">
         <v>4.77</v>
       </c>
       <c r="M45" s="30">
         <v>9.97</v>
       </c>
-      <c r="N45" s="41">
+      <c r="N45" s="42">
         <v>7.37</v>
       </c>
-      <c r="O45" s="41">
+      <c r="O45" s="42">
         <v>2.6</v>
       </c>
-      <c r="P45" s="41">
+      <c r="P45" s="42">
         <v>25.0</v>
       </c>
       <c r="Q45" s="30">
@@ -30056,7 +31297,7 @@
       <c r="A46" s="30">
         <v>45.0</v>
       </c>
-      <c r="B46" s="41" t="s">
+      <c r="B46" s="42" t="s">
         <v>448</v>
       </c>
       <c r="C46" s="30" t="s">
@@ -30071,8 +31312,8 @@
       <c r="F46" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="H46" s="41" t="s">
-        <v>666</v>
+      <c r="H46" s="42" t="s">
+        <v>709</v>
       </c>
       <c r="I46" s="75">
         <v>2291250.0</v>
@@ -30083,19 +31324,19 @@
       <c r="K46" s="30">
         <v>2011.0</v>
       </c>
-      <c r="L46" s="41">
+      <c r="L46" s="42">
         <v>1.2</v>
       </c>
       <c r="M46" s="30">
         <v>24.1</v>
       </c>
-      <c r="N46" s="41">
+      <c r="N46" s="42">
         <v>6.5</v>
       </c>
-      <c r="O46" s="41">
+      <c r="O46" s="42">
         <v>2.0</v>
       </c>
-      <c r="P46" s="41">
+      <c r="P46" s="42">
         <v>25.0</v>
       </c>
       <c r="Q46" s="30">
@@ -30109,7 +31350,7 @@
       <c r="A47" s="30">
         <v>46.0</v>
       </c>
-      <c r="B47" s="41" t="s">
+      <c r="B47" s="42" t="s">
         <v>456</v>
       </c>
       <c r="C47" s="30" t="s">
@@ -30124,8 +31365,8 @@
       <c r="F47" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="H47" s="41" t="s">
-        <v>666</v>
+      <c r="H47" s="42" t="s">
+        <v>709</v>
       </c>
       <c r="I47" s="75">
         <v>8873.0</v>
@@ -30136,19 +31377,19 @@
       <c r="K47" s="30">
         <v>2011.0</v>
       </c>
-      <c r="L47" s="41">
+      <c r="L47" s="42">
         <v>2.2</v>
       </c>
       <c r="M47" s="30">
         <v>16.5</v>
       </c>
-      <c r="N47" s="41">
+      <c r="N47" s="42">
         <v>10.7</v>
       </c>
-      <c r="O47" s="41" t="s">
+      <c r="O47" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="P47" s="41">
+      <c r="P47" s="42">
         <v>53.9</v>
       </c>
       <c r="Q47" s="30">
@@ -30162,7 +31403,7 @@
       <c r="A48" s="30">
         <v>47.0</v>
       </c>
-      <c r="B48" s="41" t="s">
+      <c r="B48" s="42" t="s">
         <v>461</v>
       </c>
       <c r="C48" s="30" t="s">
@@ -30175,9 +31416,9 @@
         <v>43</v>
       </c>
       <c r="F48" s="30" t="s">
-        <v>680</v>
-      </c>
-      <c r="H48" s="41" t="s">
+        <v>723</v>
+      </c>
+      <c r="H48" s="42" t="s">
         <v>565</v>
       </c>
       <c r="I48" s="75">
@@ -30189,19 +31430,19 @@
       <c r="K48" s="30">
         <v>1996.0</v>
       </c>
-      <c r="L48" s="41">
+      <c r="L48" s="42">
         <v>23.0</v>
       </c>
       <c r="M48" s="30">
         <v>36.8</v>
       </c>
-      <c r="N48" s="41">
+      <c r="N48" s="42">
         <v>28.3</v>
       </c>
-      <c r="O48" s="41">
+      <c r="O48" s="42">
         <v>2.1</v>
       </c>
-      <c r="P48" s="41">
+      <c r="P48" s="42">
         <v>55.0</v>
       </c>
       <c r="Q48" s="30">
@@ -30215,7 +31456,7 @@
       <c r="A49" s="30">
         <v>48.0</v>
       </c>
-      <c r="B49" s="41" t="s">
+      <c r="B49" s="42" t="s">
         <v>468</v>
       </c>
       <c r="C49" s="30" t="s">
@@ -30228,9 +31469,9 @@
         <v>43</v>
       </c>
       <c r="F49" s="30" t="s">
-        <v>680</v>
-      </c>
-      <c r="H49" s="41" t="s">
+        <v>723</v>
+      </c>
+      <c r="H49" s="42" t="s">
         <v>565</v>
       </c>
       <c r="I49" s="75">
@@ -30242,19 +31483,19 @@
       <c r="K49" s="30">
         <v>2015.0</v>
       </c>
-      <c r="L49" s="41">
+      <c r="L49" s="42">
         <v>15.4</v>
       </c>
       <c r="M49" s="30">
         <v>20.95</v>
       </c>
-      <c r="N49" s="41">
+      <c r="N49" s="42">
         <v>17.0</v>
       </c>
-      <c r="O49" s="41">
+      <c r="O49" s="42">
         <v>0.56</v>
       </c>
-      <c r="P49" s="41">
+      <c r="P49" s="42">
         <v>39.0</v>
       </c>
       <c r="Q49" s="30">
@@ -30268,7 +31509,7 @@
       <c r="A50" s="30">
         <v>49.0</v>
       </c>
-      <c r="B50" s="41" t="s">
+      <c r="B50" s="42" t="s">
         <v>475</v>
       </c>
       <c r="C50" s="30" t="s">
@@ -30283,10 +31524,10 @@
       <c r="F50" s="30" t="s">
         <v>551</v>
       </c>
-      <c r="H50" s="41" t="s">
+      <c r="H50" s="42" t="s">
         <v>565</v>
       </c>
-      <c r="I50" s="41">
+      <c r="I50" s="42">
         <v>14284.0</v>
       </c>
       <c r="J50" s="30">
@@ -30295,11 +31536,11 @@
       <c r="K50" s="30">
         <v>2000.0</v>
       </c>
-      <c r="L50" s="41"/>
+      <c r="L50" s="42"/>
       <c r="M50" s="30"/>
-      <c r="N50" s="41"/>
-      <c r="O50" s="41"/>
-      <c r="P50" s="41">
+      <c r="N50" s="42"/>
+      <c r="O50" s="42"/>
+      <c r="P50" s="42">
         <v>25.0</v>
       </c>
       <c r="Q50" s="30">
@@ -30313,7 +31554,7 @@
       <c r="A51" s="30">
         <v>50.0</v>
       </c>
-      <c r="B51" s="41" t="s">
+      <c r="B51" s="42" t="s">
         <v>484</v>
       </c>
       <c r="C51" s="30" t="s">
@@ -30326,12 +31567,12 @@
         <v>43</v>
       </c>
       <c r="F51" s="30" t="s">
-        <v>685</v>
-      </c>
-      <c r="H51" s="41" t="s">
+        <v>728</v>
+      </c>
+      <c r="H51" s="42" t="s">
         <v>565</v>
       </c>
-      <c r="I51" s="41">
+      <c r="I51" s="42">
         <v>4800.0</v>
       </c>
       <c r="J51" s="30">
@@ -30340,19 +31581,19 @@
       <c r="K51" s="30">
         <v>2003.0</v>
       </c>
-      <c r="L51" s="41" t="s">
+      <c r="L51" s="42" t="s">
         <v>294</v>
       </c>
       <c r="M51" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="N51" s="41" t="s">
+      <c r="N51" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="O51" s="41" t="s">
+      <c r="O51" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="P51" s="41">
+      <c r="P51" s="42">
         <v>50.0</v>
       </c>
       <c r="Q51" s="30">
@@ -30366,7 +31607,7 @@
       <c r="A52" s="30">
         <v>51.0</v>
       </c>
-      <c r="B52" s="41" t="s">
+      <c r="B52" s="42" t="s">
         <v>491</v>
       </c>
       <c r="C52" s="30" t="s">
@@ -30381,10 +31622,10 @@
       <c r="F52" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="H52" s="41" t="s">
+      <c r="H52" s="42" t="s">
         <v>565</v>
       </c>
-      <c r="I52" s="41">
+      <c r="I52" s="42">
         <v>7529.0</v>
       </c>
       <c r="J52" s="30">
@@ -30393,19 +31634,19 @@
       <c r="K52" s="30">
         <v>2011.0</v>
       </c>
-      <c r="L52" s="41">
+      <c r="L52" s="42">
         <v>9.9</v>
       </c>
       <c r="M52" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="N52" s="41">
+      <c r="N52" s="42">
         <v>9.9</v>
       </c>
-      <c r="O52" s="41" t="s">
+      <c r="O52" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="P52" s="41">
+      <c r="P52" s="42">
         <v>40.0</v>
       </c>
       <c r="Q52" s="30">
@@ -30419,7 +31660,7 @@
       <c r="A53" s="30">
         <v>52.0</v>
       </c>
-      <c r="B53" s="41" t="s">
+      <c r="B53" s="42" t="s">
         <v>497</v>
       </c>
       <c r="C53" s="30" t="s">
@@ -30432,12 +31673,12 @@
         <v>43</v>
       </c>
       <c r="F53" s="30" t="s">
-        <v>686</v>
-      </c>
-      <c r="H53" s="41" t="s">
+        <v>729</v>
+      </c>
+      <c r="H53" s="42" t="s">
         <v>565</v>
       </c>
-      <c r="I53" s="41" t="s">
+      <c r="I53" s="42" t="s">
         <v>294</v>
       </c>
       <c r="J53" s="30">
@@ -30446,19 +31687,19 @@
       <c r="K53" s="30">
         <v>2013.0</v>
       </c>
-      <c r="L53" s="41">
+      <c r="L53" s="42">
         <v>8.22</v>
       </c>
       <c r="M53" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="N53" s="41">
+      <c r="N53" s="42">
         <v>8.22</v>
       </c>
-      <c r="O53" s="41" t="s">
+      <c r="O53" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="P53" s="41" t="s">
+      <c r="P53" s="42" t="s">
         <v>294</v>
       </c>
       <c r="Q53" s="30" t="s">
@@ -30472,7 +31713,7 @@
       <c r="A54" s="30">
         <v>53.0</v>
       </c>
-      <c r="B54" s="41" t="s">
+      <c r="B54" s="42" t="s">
         <v>501</v>
       </c>
       <c r="C54" s="30" t="s">
@@ -30485,9 +31726,9 @@
         <v>43</v>
       </c>
       <c r="F54" s="30" t="s">
-        <v>687</v>
-      </c>
-      <c r="H54" s="41" t="s">
+        <v>730</v>
+      </c>
+      <c r="H54" s="42" t="s">
         <v>565</v>
       </c>
       <c r="I54" s="75">
@@ -30499,19 +31740,19 @@
       <c r="K54" s="30">
         <v>2015.0</v>
       </c>
-      <c r="L54" s="41">
+      <c r="L54" s="42">
         <v>17.2</v>
       </c>
       <c r="M54" s="30">
         <v>21.5</v>
       </c>
-      <c r="N54" s="41">
+      <c r="N54" s="42">
         <v>18.0</v>
       </c>
-      <c r="O54" s="41" t="s">
+      <c r="O54" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="P54" s="41">
+      <c r="P54" s="42">
         <v>50.0</v>
       </c>
       <c r="Q54" s="30">
@@ -30525,7 +31766,7 @@
       <c r="A55" s="30">
         <v>54.0</v>
       </c>
-      <c r="B55" s="41" t="s">
+      <c r="B55" s="42" t="s">
         <v>507</v>
       </c>
       <c r="C55" s="30" t="s">
@@ -30540,10 +31781,10 @@
       <c r="F55" s="30" t="s">
         <v>512</v>
       </c>
-      <c r="H55" s="41" t="s">
-        <v>663</v>
-      </c>
-      <c r="I55" s="41">
+      <c r="H55" s="42" t="s">
+        <v>706</v>
+      </c>
+      <c r="I55" s="42">
         <v>7250.0</v>
       </c>
       <c r="J55" s="30">
@@ -30552,19 +31793,19 @@
       <c r="K55" s="30">
         <v>2004.0</v>
       </c>
-      <c r="L55" s="41" t="s">
+      <c r="L55" s="42" t="s">
         <v>294</v>
       </c>
       <c r="M55" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="N55" s="41" t="s">
+      <c r="N55" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="O55" s="41" t="s">
+      <c r="O55" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="P55" s="41">
+      <c r="P55" s="42">
         <v>30.0</v>
       </c>
       <c r="Q55" s="30" t="s">
@@ -30578,7 +31819,7 @@
       <c r="A56" s="30">
         <v>55.0</v>
       </c>
-      <c r="B56" s="41" t="s">
+      <c r="B56" s="42" t="s">
         <v>516</v>
       </c>
       <c r="C56" s="30" t="s">
@@ -30593,10 +31834,10 @@
       <c r="F56" s="30" t="s">
         <v>512</v>
       </c>
-      <c r="H56" s="41" t="s">
-        <v>663</v>
-      </c>
-      <c r="I56" s="41">
+      <c r="H56" s="42" t="s">
+        <v>706</v>
+      </c>
+      <c r="I56" s="42">
         <v>63520.0</v>
       </c>
       <c r="J56" s="30">
@@ -30605,19 +31846,19 @@
       <c r="K56" s="30">
         <v>1993.0</v>
       </c>
-      <c r="L56" s="41">
+      <c r="L56" s="42">
         <v>16.8</v>
       </c>
       <c r="M56" s="30">
         <v>41.9</v>
       </c>
-      <c r="N56" s="41">
+      <c r="N56" s="42">
         <v>30.4</v>
       </c>
-      <c r="O56" s="41" t="s">
+      <c r="O56" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="P56" s="41">
+      <c r="P56" s="42">
         <v>40.0</v>
       </c>
       <c r="Q56" s="30" t="s">
@@ -30631,7 +31872,7 @@
       <c r="A57" s="30">
         <v>56.0</v>
       </c>
-      <c r="B57" s="41" t="s">
+      <c r="B57" s="42" t="s">
         <v>521</v>
       </c>
       <c r="C57" s="30" t="s">
@@ -30646,10 +31887,10 @@
       <c r="F57" s="30" t="s">
         <v>524</v>
       </c>
-      <c r="H57" s="41" t="s">
-        <v>663</v>
-      </c>
-      <c r="I57" s="41" t="s">
+      <c r="H57" s="42" t="s">
+        <v>706</v>
+      </c>
+      <c r="I57" s="42" t="s">
         <v>294</v>
       </c>
       <c r="J57" s="30">
@@ -30658,16 +31899,16 @@
       <c r="K57" s="30">
         <v>2016.0</v>
       </c>
-      <c r="L57" s="41">
+      <c r="L57" s="42">
         <v>12.5</v>
       </c>
       <c r="M57" s="30">
         <v>137.5</v>
       </c>
-      <c r="N57" s="41">
+      <c r="N57" s="42">
         <v>41.9</v>
       </c>
-      <c r="O57" s="41" t="s">
+      <c r="O57" s="42" t="s">
         <v>294</v>
       </c>
       <c r="P57" s="65"/>
@@ -30679,11 +31920,11 @@
       <c r="A58" s="30">
         <v>57.0</v>
       </c>
-      <c r="B58" s="41" t="s">
+      <c r="B58" s="42" t="s">
         <v>525</v>
       </c>
       <c r="C58" s="30" t="s">
-        <v>688</v>
+        <v>731</v>
       </c>
       <c r="D58" s="30">
         <v>2016.0</v>
@@ -30694,10 +31935,10 @@
       <c r="F58" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="H58" s="41" t="s">
-        <v>663</v>
-      </c>
-      <c r="I58" s="41">
+      <c r="H58" s="42" t="s">
+        <v>706</v>
+      </c>
+      <c r="I58" s="42">
         <v>66820.0</v>
       </c>
       <c r="J58" s="30">
@@ -30706,19 +31947,19 @@
       <c r="K58" s="30">
         <v>2011.0</v>
       </c>
-      <c r="L58" s="41">
+      <c r="L58" s="42">
         <v>26.1</v>
       </c>
       <c r="M58" s="30">
         <v>92.6</v>
       </c>
-      <c r="N58" s="41">
+      <c r="N58" s="42">
         <v>33.7</v>
       </c>
-      <c r="O58" s="41">
+      <c r="O58" s="42">
         <v>3.2</v>
       </c>
-      <c r="P58" s="41">
+      <c r="P58" s="42">
         <v>65.0</v>
       </c>
       <c r="Q58" s="30" t="s">
@@ -30732,7 +31973,7 @@
       <c r="A59" s="30">
         <v>58.0</v>
       </c>
-      <c r="B59" s="41" t="s">
+      <c r="B59" s="42" t="s">
         <v>528</v>
       </c>
       <c r="C59" s="30" t="s">
@@ -30747,10 +31988,10 @@
       <c r="F59" s="30" t="s">
         <v>593</v>
       </c>
-      <c r="H59" s="41" t="s">
-        <v>663</v>
-      </c>
-      <c r="I59" s="41">
+      <c r="H59" s="42" t="s">
+        <v>706</v>
+      </c>
+      <c r="I59" s="42">
         <v>70947.0</v>
       </c>
       <c r="J59" s="30">
@@ -30759,11 +32000,11 @@
       <c r="K59" s="30">
         <v>2000.0</v>
       </c>
-      <c r="L59" s="41"/>
+      <c r="L59" s="42"/>
       <c r="M59" s="30"/>
-      <c r="N59" s="41"/>
-      <c r="O59" s="41"/>
-      <c r="P59" s="41"/>
+      <c r="N59" s="42"/>
+      <c r="O59" s="42"/>
+      <c r="P59" s="42"/>
       <c r="Q59" s="30"/>
       <c r="R59" s="30">
         <v>1.0</v>
@@ -30788,10 +32029,10 @@
       <c r="F60" s="30" t="s">
         <v>593</v>
       </c>
-      <c r="H60" s="41" t="s">
-        <v>663</v>
-      </c>
-      <c r="I60" s="41">
+      <c r="H60" s="42" t="s">
+        <v>706</v>
+      </c>
+      <c r="I60" s="42">
         <v>189793.0</v>
       </c>
       <c r="J60" s="30">
@@ -30800,19 +32041,19 @@
       <c r="K60" s="30">
         <v>2005.0</v>
       </c>
-      <c r="L60" s="41">
+      <c r="L60" s="42">
         <v>4.2</v>
       </c>
       <c r="M60" s="30">
         <v>83.8</v>
       </c>
-      <c r="N60" s="41" t="s">
+      <c r="N60" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="O60" s="41" t="s">
+      <c r="O60" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="P60" s="41">
+      <c r="P60" s="42">
         <v>40.1</v>
       </c>
       <c r="Q60" s="30" t="s">
@@ -30826,7 +32067,7 @@
       <c r="A61" s="30">
         <v>60.0</v>
       </c>
-      <c r="B61" s="41" t="s">
+      <c r="B61" s="42" t="s">
         <v>535</v>
       </c>
       <c r="C61" s="30" t="s">
@@ -30841,10 +32082,10 @@
       <c r="F61" s="30" t="s">
         <v>593</v>
       </c>
-      <c r="H61" s="41" t="s">
-        <v>663</v>
-      </c>
-      <c r="I61" s="41">
+      <c r="H61" s="42" t="s">
+        <v>706</v>
+      </c>
+      <c r="I61" s="42">
         <v>13344.0</v>
       </c>
       <c r="J61" s="30">
@@ -30853,19 +32094,19 @@
       <c r="K61" s="30">
         <v>2014.0</v>
       </c>
-      <c r="L61" s="41">
+      <c r="L61" s="42">
         <v>6.7</v>
       </c>
       <c r="M61" s="30">
         <v>113.3</v>
       </c>
-      <c r="N61" s="41">
+      <c r="N61" s="42">
         <v>50.7</v>
       </c>
-      <c r="O61" s="41" t="s">
+      <c r="O61" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="P61" s="41">
+      <c r="P61" s="42">
         <v>65.0</v>
       </c>
       <c r="Q61" s="30" t="s">
@@ -30879,11 +32120,11 @@
       <c r="A62" s="30">
         <v>61.0</v>
       </c>
-      <c r="B62" s="41" t="s">
+      <c r="B62" s="42" t="s">
         <v>539</v>
       </c>
       <c r="C62" s="30" t="s">
-        <v>689</v>
+        <v>732</v>
       </c>
       <c r="D62" s="30">
         <v>2012.0</v>
@@ -30894,10 +32135,10 @@
       <c r="F62" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="H62" s="41" t="s">
-        <v>666</v>
-      </c>
-      <c r="I62" s="41">
+      <c r="H62" s="42" t="s">
+        <v>709</v>
+      </c>
+      <c r="I62" s="42">
         <v>8096.0</v>
       </c>
       <c r="J62" s="30">
@@ -30906,19 +32147,19 @@
       <c r="K62" s="30">
         <v>2009.0</v>
       </c>
-      <c r="L62" s="41" t="s">
+      <c r="L62" s="42" t="s">
         <v>294</v>
       </c>
       <c r="M62" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="N62" s="41">
+      <c r="N62" s="42">
         <v>15.9</v>
       </c>
-      <c r="O62" s="41" t="s">
+      <c r="O62" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="P62" s="41">
+      <c r="P62" s="42">
         <v>25.0</v>
       </c>
       <c r="Q62" s="30">
@@ -30932,11 +32173,11 @@
       <c r="A63" s="30">
         <v>62.0</v>
       </c>
-      <c r="B63" s="41" t="s">
+      <c r="B63" s="42" t="s">
         <v>540</v>
       </c>
       <c r="C63" s="30" t="s">
-        <v>690</v>
+        <v>733</v>
       </c>
       <c r="D63" s="30">
         <v>2011.0</v>
@@ -30947,10 +32188,10 @@
       <c r="F63" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="H63" s="41" t="s">
-        <v>666</v>
-      </c>
-      <c r="I63" s="41">
+      <c r="H63" s="42" t="s">
+        <v>709</v>
+      </c>
+      <c r="I63" s="42">
         <v>17545.0</v>
       </c>
       <c r="J63" s="30">
@@ -30959,19 +32200,19 @@
       <c r="K63" s="30">
         <v>2003.0</v>
       </c>
-      <c r="L63" s="41" t="s">
+      <c r="L63" s="42" t="s">
         <v>294</v>
       </c>
       <c r="M63" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="N63" s="41">
+      <c r="N63" s="42">
         <v>17.8</v>
       </c>
-      <c r="O63" s="41">
+      <c r="O63" s="42">
         <v>3.4</v>
       </c>
-      <c r="P63" s="41">
+      <c r="P63" s="42">
         <v>40.0</v>
       </c>
       <c r="Q63" s="30">
@@ -30985,11 +32226,11 @@
       <c r="A64" s="30">
         <v>63.0</v>
       </c>
-      <c r="B64" s="41" t="s">
+      <c r="B64" s="42" t="s">
         <v>541</v>
       </c>
       <c r="C64" s="30" t="s">
-        <v>691</v>
+        <v>734</v>
       </c>
       <c r="D64" s="30">
         <v>2000.0</v>
@@ -31001,12 +32242,12 @@
         <v>68</v>
       </c>
       <c r="G64" s="30" t="s">
-        <v>692</v>
-      </c>
-      <c r="H64" s="41" t="s">
-        <v>666</v>
-      </c>
-      <c r="I64" s="41">
+        <v>735</v>
+      </c>
+      <c r="H64" s="42" t="s">
+        <v>709</v>
+      </c>
+      <c r="I64" s="42">
         <v>6338.0</v>
       </c>
       <c r="J64" s="30">
@@ -31015,19 +32256,19 @@
       <c r="K64" s="30">
         <v>1992.0</v>
       </c>
-      <c r="L64" s="41">
+      <c r="L64" s="42">
         <v>17.2</v>
       </c>
       <c r="M64" s="30">
         <v>45.2</v>
       </c>
-      <c r="N64" s="41">
+      <c r="N64" s="42">
         <v>31.9</v>
       </c>
-      <c r="O64" s="41">
+      <c r="O64" s="42">
         <v>10.7</v>
       </c>
-      <c r="P64" s="41" t="s">
+      <c r="P64" s="42" t="s">
         <v>294</v>
       </c>
       <c r="Q64" s="30" t="s">
@@ -31041,11 +32282,11 @@
       <c r="A65" s="30">
         <v>64.0</v>
       </c>
-      <c r="B65" s="41" t="s">
+      <c r="B65" s="42" t="s">
         <v>546</v>
       </c>
       <c r="C65" s="30" t="s">
-        <v>693</v>
+        <v>736</v>
       </c>
       <c r="D65" s="30">
         <v>2015.0</v>
@@ -31056,10 +32297,10 @@
       <c r="F65" s="30" t="s">
         <v>548</v>
       </c>
-      <c r="H65" s="41" t="s">
-        <v>663</v>
-      </c>
-      <c r="I65" s="41">
+      <c r="H65" s="42" t="s">
+        <v>706</v>
+      </c>
+      <c r="I65" s="42">
         <v>43227.0</v>
       </c>
       <c r="J65" s="30">
@@ -31068,19 +32309,19 @@
       <c r="K65" s="30">
         <v>2008.0</v>
       </c>
-      <c r="L65" s="41">
+      <c r="L65" s="42">
         <v>22.8</v>
       </c>
       <c r="M65" s="30">
         <v>32.9</v>
       </c>
-      <c r="N65" s="41">
+      <c r="N65" s="42">
         <v>25.8</v>
       </c>
-      <c r="O65" s="41">
+      <c r="O65" s="42">
         <v>1.4</v>
       </c>
-      <c r="P65" s="41">
+      <c r="P65" s="42">
         <v>30.2</v>
       </c>
       <c r="Q65" s="30">
@@ -31094,11 +32335,11 @@
       <c r="A66" s="30">
         <v>65.0</v>
       </c>
-      <c r="B66" s="41" t="s">
+      <c r="B66" s="42" t="s">
         <v>550</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>694</v>
+        <v>737</v>
       </c>
       <c r="D66" s="30">
         <v>2017.0</v>
@@ -31121,19 +32362,19 @@
       <c r="K66" s="30">
         <v>2012.0</v>
       </c>
-      <c r="L66" s="41">
+      <c r="L66" s="42">
         <v>6.21</v>
       </c>
       <c r="M66" s="30">
         <v>15.64</v>
       </c>
-      <c r="N66" s="41">
+      <c r="N66" s="42">
         <v>13.3</v>
       </c>
-      <c r="O66" s="41" t="s">
+      <c r="O66" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="P66" s="41">
+      <c r="P66" s="42">
         <v>65.0</v>
       </c>
       <c r="Q66" s="30" t="s">
@@ -31147,11 +32388,11 @@
       <c r="A67" s="30">
         <v>66.0</v>
       </c>
-      <c r="B67" s="41" t="s">
+      <c r="B67" s="42" t="s">
         <v>553</v>
       </c>
       <c r="C67" s="30" t="s">
-        <v>695</v>
+        <v>738</v>
       </c>
       <c r="D67" s="30">
         <v>2015.0</v>
@@ -31162,10 +32403,10 @@
       <c r="F67" s="30" t="s">
         <v>551</v>
       </c>
-      <c r="H67" s="41" t="s">
+      <c r="H67" s="42" t="s">
         <v>565</v>
       </c>
-      <c r="I67" s="41">
+      <c r="I67" s="42">
         <v>20327.0</v>
       </c>
       <c r="J67" s="30">
@@ -31174,19 +32415,19 @@
       <c r="K67" s="30">
         <v>2013.0</v>
       </c>
-      <c r="L67" s="41" t="s">
+      <c r="L67" s="42" t="s">
         <v>294</v>
       </c>
       <c r="M67" s="30" t="s">
         <v>294</v>
       </c>
-      <c r="N67" s="41">
+      <c r="N67" s="42">
         <v>17.0</v>
       </c>
-      <c r="O67" s="41">
+      <c r="O67" s="42">
         <v>4.3</v>
       </c>
-      <c r="P67" s="41">
+      <c r="P67" s="42">
         <v>40.2</v>
       </c>
       <c r="Q67" s="30">
@@ -31209,16 +32450,16 @@
       <c r="D68" s="30">
         <v>2017.0</v>
       </c>
-      <c r="E68" s="41" t="s">
+      <c r="E68" s="42" t="s">
         <v>43</v>
       </c>
       <c r="F68" s="30" t="s">
         <v>593</v>
       </c>
-      <c r="H68" s="41" t="s">
-        <v>663</v>
-      </c>
-      <c r="I68" s="41">
+      <c r="H68" s="42" t="s">
+        <v>706</v>
+      </c>
+      <c r="I68" s="42">
         <v>7.3E7</v>
       </c>
       <c r="J68" s="30">
@@ -31247,14 +32488,14 @@
       <c r="D69" s="30">
         <v>2013.0</v>
       </c>
-      <c r="E69" s="41" t="s">
+      <c r="E69" s="42" t="s">
         <v>43</v>
       </c>
       <c r="F69" s="30" t="s">
         <v>593</v>
       </c>
-      <c r="H69" s="41" t="s">
-        <v>663</v>
+      <c r="H69" s="42" t="s">
+        <v>706</v>
       </c>
       <c r="I69" s="65"/>
       <c r="J69" s="80">
@@ -31287,10 +32528,10 @@
         <v>43</v>
       </c>
       <c r="F70" s="30" t="s">
-        <v>696</v>
-      </c>
-      <c r="H70" s="41" t="s">
-        <v>697</v>
+        <v>739</v>
+      </c>
+      <c r="H70" s="42" t="s">
+        <v>740</v>
       </c>
       <c r="I70" s="65"/>
       <c r="J70" s="30">
@@ -31314,81 +32555,52 @@
     </row>
     <row r="71">
       <c r="A71" s="30">
-        <v>82.0</v>
+        <v>79.0</v>
       </c>
       <c r="B71" s="75" t="s">
-        <v>698</v>
-      </c>
-      <c r="C71" s="26" t="s">
-        <v>613</v>
-      </c>
+        <v>604</v>
+      </c>
+      <c r="C71" s="26"/>
       <c r="D71" s="30">
-        <v>2018.0</v>
+        <v>2020.0</v>
       </c>
       <c r="E71" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="F71" s="30" t="s">
-        <v>699</v>
-      </c>
-      <c r="H71" s="41" t="s">
-        <v>663</v>
-      </c>
+        <v>557</v>
+      </c>
+      <c r="F71" s="30"/>
+      <c r="H71" s="42"/>
       <c r="I71" s="65"/>
-      <c r="R71" s="30">
-        <v>0.0</v>
-      </c>
+      <c r="R71" s="30"/>
     </row>
     <row r="72">
       <c r="A72" s="30">
-        <v>83.0</v>
-      </c>
-      <c r="B72" s="41" t="s">
-        <v>615</v>
-      </c>
-      <c r="C72" s="30" t="s">
-        <v>616</v>
-      </c>
+        <v>80.0</v>
+      </c>
+      <c r="B72" s="75" t="s">
+        <v>606</v>
+      </c>
+      <c r="C72" s="26"/>
       <c r="D72" s="30">
-        <v>2012.0</v>
+        <v>2021.0</v>
       </c>
       <c r="E72" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="F72" s="30" t="s">
-        <v>593</v>
-      </c>
-      <c r="H72" s="41" t="s">
-        <v>663</v>
-      </c>
-      <c r="I72" s="41">
-        <v>15940.0</v>
-      </c>
-      <c r="J72" s="30">
-        <v>2002.0</v>
-      </c>
-      <c r="K72" s="30">
-        <v>2005.0</v>
-      </c>
-      <c r="P72" s="30">
-        <v>65.0</v>
-      </c>
-      <c r="R72" s="30">
-        <v>0.0</v>
-      </c>
+        <v>557</v>
+      </c>
+      <c r="F72" s="30"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="65"/>
+      <c r="R72" s="30"/>
     </row>
     <row r="73">
       <c r="A73" s="30">
-        <v>84.0</v>
-      </c>
-      <c r="B73" s="41" t="s">
-        <v>619</v>
-      </c>
-      <c r="C73" s="30" t="s">
-        <v>620</v>
-      </c>
+        <v>81.0</v>
+      </c>
+      <c r="B73" s="75" t="s">
+        <v>609</v>
+      </c>
+      <c r="C73" s="26"/>
       <c r="D73" s="30">
-        <v>2020.0</v>
+        <v>2014.0</v>
       </c>
       <c r="E73" s="30" t="s">
         <v>43</v>
@@ -31396,73 +32608,51 @@
       <c r="F73" s="30" t="s">
         <v>593</v>
       </c>
-      <c r="H73" s="41" t="s">
-        <v>663</v>
-      </c>
-      <c r="I73" s="41">
-        <v>1226849.0</v>
-      </c>
-      <c r="J73" s="30">
-        <v>2013.0</v>
-      </c>
-      <c r="K73" s="30">
-        <v>2016.0</v>
-      </c>
-      <c r="R73" s="30">
-        <v>0.0</v>
-      </c>
+      <c r="H73" s="42" t="s">
+        <v>706</v>
+      </c>
+      <c r="I73" s="65"/>
+      <c r="R73" s="30"/>
     </row>
     <row r="74">
       <c r="A74" s="30">
-        <v>88.0</v>
-      </c>
-      <c r="B74" s="41" t="s">
-        <v>628</v>
-      </c>
-      <c r="C74" s="30" t="s">
-        <v>700</v>
+        <v>82.0</v>
+      </c>
+      <c r="B74" s="75" t="s">
+        <v>612</v>
+      </c>
+      <c r="C74" s="26" t="s">
+        <v>613</v>
       </c>
       <c r="D74" s="30">
-        <v>2017.0</v>
+        <v>2018.0</v>
       </c>
       <c r="E74" s="30" t="s">
         <v>43</v>
       </c>
       <c r="F74" s="30" t="s">
-        <v>524</v>
-      </c>
-      <c r="H74" s="41" t="s">
-        <v>663</v>
+        <v>741</v>
+      </c>
+      <c r="H74" s="42" t="s">
+        <v>706</v>
       </c>
       <c r="I74" s="65"/>
-      <c r="J74" s="30">
-        <v>2013.0</v>
-      </c>
-      <c r="K74" s="30">
-        <v>2014.0</v>
-      </c>
-      <c r="M74" s="30">
-        <v>202.0</v>
-      </c>
-      <c r="N74" s="30">
-        <v>64.0</v>
-      </c>
       <c r="R74" s="30">
         <v>0.0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="30">
-        <v>93.0</v>
-      </c>
-      <c r="B75" s="75" t="s">
-        <v>638</v>
+        <v>83.0</v>
+      </c>
+      <c r="B75" s="42" t="s">
+        <v>615</v>
       </c>
       <c r="C75" s="30" t="s">
-        <v>639</v>
+        <v>616</v>
       </c>
       <c r="D75" s="30">
-        <v>2011.0</v>
+        <v>2012.0</v>
       </c>
       <c r="E75" s="30" t="s">
         <v>43</v>
@@ -31470,190 +32660,901 @@
       <c r="F75" s="30" t="s">
         <v>593</v>
       </c>
-      <c r="H75" s="41" t="s">
+      <c r="H75" s="42" t="s">
+        <v>706</v>
+      </c>
+      <c r="I75" s="42">
+        <v>15940.0</v>
+      </c>
+      <c r="J75" s="30">
+        <v>2002.0</v>
+      </c>
+      <c r="K75" s="30">
+        <v>2005.0</v>
+      </c>
+      <c r="P75" s="30">
+        <v>65.0</v>
+      </c>
+      <c r="R75" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="30">
+        <v>84.0</v>
+      </c>
+      <c r="B76" s="42" t="s">
+        <v>619</v>
+      </c>
+      <c r="C76" s="30" t="s">
+        <v>620</v>
+      </c>
+      <c r="D76" s="30">
+        <v>2020.0</v>
+      </c>
+      <c r="E76" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" s="30" t="s">
+        <v>593</v>
+      </c>
+      <c r="H76" s="42" t="s">
+        <v>706</v>
+      </c>
+      <c r="I76" s="42">
+        <v>1226849.0</v>
+      </c>
+      <c r="J76" s="30">
+        <v>2013.0</v>
+      </c>
+      <c r="K76" s="30">
+        <v>2016.0</v>
+      </c>
+      <c r="R76" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="77" ht="29.25" customHeight="1">
+      <c r="A77" s="30">
+        <v>87.0</v>
+      </c>
+      <c r="B77" s="42" t="s">
+        <v>742</v>
+      </c>
+      <c r="C77" s="30"/>
+      <c r="D77" s="30">
+        <v>1998.0</v>
+      </c>
+      <c r="E77" s="30" t="s">
+        <v>557</v>
+      </c>
+      <c r="F77" s="30"/>
+      <c r="H77" s="42"/>
+      <c r="I77" s="65"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="30"/>
+      <c r="M77" s="30"/>
+      <c r="N77" s="30"/>
+      <c r="R77" s="30"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="30">
+        <v>88.0</v>
+      </c>
+      <c r="B78" s="42" t="s">
+        <v>628</v>
+      </c>
+      <c r="C78" s="30" t="s">
+        <v>743</v>
+      </c>
+      <c r="D78" s="30">
+        <v>2017.0</v>
+      </c>
+      <c r="E78" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" s="30" t="s">
+        <v>524</v>
+      </c>
+      <c r="H78" s="42" t="s">
+        <v>706</v>
+      </c>
+      <c r="I78" s="65"/>
+      <c r="J78" s="30">
+        <v>2013.0</v>
+      </c>
+      <c r="K78" s="30">
+        <v>2014.0</v>
+      </c>
+      <c r="M78" s="30">
+        <v>202.0</v>
+      </c>
+      <c r="N78" s="30">
+        <v>64.0</v>
+      </c>
+      <c r="R78" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="30">
+        <v>92.0</v>
+      </c>
+      <c r="B79" s="75" t="s">
+        <v>744</v>
+      </c>
+      <c r="C79" s="30"/>
+      <c r="D79" s="30">
+        <v>2010.0</v>
+      </c>
+      <c r="E79" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" s="30" t="s">
+        <v>593</v>
+      </c>
+      <c r="H79" s="42" t="s">
+        <v>706</v>
+      </c>
+      <c r="I79" s="42"/>
+      <c r="J79" s="30"/>
+      <c r="K79" s="30"/>
+      <c r="P79" s="30"/>
+      <c r="R79" s="30"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="30">
+        <v>93.0</v>
+      </c>
+      <c r="B80" s="75" t="s">
+        <v>638</v>
+      </c>
+      <c r="C80" s="30" t="s">
+        <v>639</v>
+      </c>
+      <c r="D80" s="30">
+        <v>2011.0</v>
+      </c>
+      <c r="E80" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" s="30" t="s">
+        <v>593</v>
+      </c>
+      <c r="H80" s="42" t="s">
+        <v>706</v>
+      </c>
+      <c r="I80" s="42">
+        <v>9941.0</v>
+      </c>
+      <c r="J80" s="30">
+        <v>1998.0</v>
+      </c>
+      <c r="K80" s="30">
+        <v>2009.0</v>
+      </c>
+      <c r="P80" s="30">
+        <v>35.0</v>
+      </c>
+      <c r="R80" s="30">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="30">
+        <v>94.0</v>
+      </c>
+      <c r="B81" s="42" t="s">
+        <v>745</v>
+      </c>
+      <c r="C81" s="30"/>
+      <c r="D81" s="30">
+        <v>2017.0</v>
+      </c>
+      <c r="E81" s="30" t="s">
+        <v>557</v>
+      </c>
+      <c r="F81" s="30"/>
+      <c r="H81" s="42"/>
+      <c r="I81" s="42"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="30"/>
+      <c r="L81" s="30"/>
+      <c r="M81" s="30"/>
+      <c r="N81" s="30"/>
+      <c r="R81" s="30"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="30">
+        <v>96.0</v>
+      </c>
+      <c r="B82" s="42" t="s">
+        <v>644</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>746</v>
+      </c>
+      <c r="D82" s="30">
+        <v>2017.0</v>
+      </c>
+      <c r="E82" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" s="30" t="s">
+        <v>593</v>
+      </c>
+      <c r="H82" s="42" t="s">
+        <v>706</v>
+      </c>
+      <c r="I82" s="42"/>
+      <c r="J82" s="30">
+        <v>2012.0</v>
+      </c>
+      <c r="K82" s="30">
+        <v>2015.0</v>
+      </c>
+      <c r="L82" s="30">
+        <v>11.0</v>
+      </c>
+      <c r="M82" s="30">
+        <v>376.0</v>
+      </c>
+      <c r="N82" s="30">
+        <v>66.0</v>
+      </c>
+      <c r="R82" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="30">
+        <v>97.0</v>
+      </c>
+      <c r="B83" s="75" t="s">
+        <v>747</v>
+      </c>
+      <c r="C83" s="30"/>
+      <c r="D83" s="30">
+        <v>2017.0</v>
+      </c>
+      <c r="E83" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" s="30" t="s">
+        <v>741</v>
+      </c>
+      <c r="H83" s="42" t="s">
+        <v>706</v>
+      </c>
+      <c r="I83" s="42"/>
+      <c r="J83" s="30"/>
+      <c r="K83" s="30"/>
+      <c r="L83" s="30"/>
+      <c r="M83" s="30"/>
+      <c r="N83" s="30"/>
+      <c r="P83" s="30"/>
+      <c r="Q83" s="30"/>
+      <c r="R83" s="30"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="30">
+        <v>100.0</v>
+      </c>
+      <c r="B84" s="75" t="s">
+        <v>648</v>
+      </c>
+      <c r="C84" s="30" t="s">
+        <v>748</v>
+      </c>
+      <c r="D84" s="30">
+        <v>2020.0</v>
+      </c>
+      <c r="E84" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H84" s="42" t="s">
+        <v>709</v>
+      </c>
+      <c r="I84" s="42">
+        <v>565477.0</v>
+      </c>
+      <c r="J84" s="30">
+        <v>1980.0</v>
+      </c>
+      <c r="K84" s="30">
+        <v>2010.0</v>
+      </c>
+      <c r="L84" s="30">
+        <v>10.3</v>
+      </c>
+      <c r="M84" s="30">
+        <v>18.0</v>
+      </c>
+      <c r="N84" s="30">
+        <v>13.3</v>
+      </c>
+      <c r="P84" s="30">
+        <v>50.0</v>
+      </c>
+      <c r="Q84" s="30">
+        <v>71.0</v>
+      </c>
+      <c r="R84" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="30">
+        <v>104.0</v>
+      </c>
+      <c r="B85" s="75" t="s">
+        <v>749</v>
+      </c>
+      <c r="C85" s="30"/>
+      <c r="D85" s="30">
+        <v>2018.0</v>
+      </c>
+      <c r="E85" s="30" t="s">
+        <v>557</v>
+      </c>
+      <c r="F85" s="30"/>
+      <c r="H85" s="42"/>
+      <c r="I85" s="65"/>
+      <c r="J85" s="30"/>
+      <c r="K85" s="30"/>
+      <c r="R85" s="30"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="30">
+        <v>106.0</v>
+      </c>
+      <c r="B86" s="75" t="s">
+        <v>654</v>
+      </c>
+      <c r="C86" s="30" t="s">
+        <v>750</v>
+      </c>
+      <c r="D86" s="30">
+        <v>2013.0</v>
+      </c>
+      <c r="E86" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" s="30" t="s">
+        <v>512</v>
+      </c>
+      <c r="H86" s="42" t="s">
+        <v>706</v>
+      </c>
+      <c r="I86" s="65"/>
+      <c r="J86" s="30">
+        <v>2006.0</v>
+      </c>
+      <c r="K86" s="30">
+        <v>2009.0</v>
+      </c>
+      <c r="R86" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="30">
+        <v>107.0</v>
+      </c>
+      <c r="B87" s="75" t="s">
+        <v>655</v>
+      </c>
+      <c r="C87" s="30" t="s">
+        <v>751</v>
+      </c>
+      <c r="D87" s="30">
+        <v>2003.0</v>
+      </c>
+      <c r="E87" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" s="30" t="s">
+        <v>512</v>
+      </c>
+      <c r="H87" s="42" t="s">
+        <v>706</v>
+      </c>
+      <c r="I87" s="65"/>
+      <c r="R87" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="30">
+        <v>109.0</v>
+      </c>
+      <c r="B88" s="75" t="s">
+        <v>657</v>
+      </c>
+      <c r="D88" s="30">
+        <v>2018.0</v>
+      </c>
+      <c r="E88" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" s="30" t="s">
+        <v>741</v>
+      </c>
+      <c r="H88" s="42" t="s">
+        <v>706</v>
+      </c>
+      <c r="I88" s="65"/>
+      <c r="R88" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="30">
+        <v>111.0</v>
+      </c>
+      <c r="B89" s="75" t="s">
+        <v>659</v>
+      </c>
+      <c r="D89" s="30">
+        <v>2017.0</v>
+      </c>
+      <c r="E89" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" s="30" t="s">
+        <v>741</v>
+      </c>
+      <c r="H89" s="42" t="s">
+        <v>706</v>
+      </c>
+      <c r="I89" s="65"/>
+      <c r="R89" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="30">
+        <v>112.0</v>
+      </c>
+      <c r="B90" s="75" t="s">
+        <v>660</v>
+      </c>
+      <c r="D90" s="30">
+        <v>2013.0</v>
+      </c>
+      <c r="E90" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" s="30" t="s">
+        <v>741</v>
+      </c>
+      <c r="H90" s="42" t="s">
+        <v>706</v>
+      </c>
+      <c r="I90" s="65"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="30">
+        <v>114.0</v>
+      </c>
+      <c r="B91" s="75" t="s">
+        <v>662</v>
+      </c>
+      <c r="D91" s="30">
+        <v>2018.0</v>
+      </c>
+      <c r="E91" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H91" s="42" t="s">
+        <v>709</v>
+      </c>
+      <c r="I91" s="65"/>
+      <c r="R91" s="30">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="30">
+        <v>115.0</v>
+      </c>
+      <c r="B92" s="75" t="s">
         <v>663</v>
       </c>
-      <c r="I75" s="41">
-        <v>9941.0</v>
-      </c>
-      <c r="J75" s="30">
-        <v>1998.0</v>
-      </c>
-      <c r="K75" s="30">
-        <v>2009.0</v>
-      </c>
-      <c r="P75" s="30">
-        <v>35.0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="B76" s="41"/>
-      <c r="H76" s="41"/>
-      <c r="I76" s="41"/>
-    </row>
-    <row r="77">
-      <c r="B77" s="65"/>
-      <c r="H77" s="65"/>
-      <c r="I77" s="65"/>
-    </row>
-    <row r="78">
-      <c r="B78" s="65"/>
-      <c r="H78" s="65"/>
-      <c r="I78" s="65"/>
-    </row>
-    <row r="79">
-      <c r="B79" s="65"/>
-      <c r="H79" s="65"/>
-      <c r="I79" s="65"/>
-    </row>
-    <row r="80">
-      <c r="B80" s="65"/>
-      <c r="H80" s="65"/>
-      <c r="I80" s="65"/>
-    </row>
-    <row r="81">
-      <c r="B81" s="65"/>
-      <c r="H81" s="65"/>
-      <c r="I81" s="65"/>
-    </row>
-    <row r="82">
-      <c r="B82" s="65"/>
-      <c r="H82" s="65"/>
-      <c r="I82" s="65"/>
-    </row>
-    <row r="83">
-      <c r="B83" s="65"/>
-      <c r="H83" s="65"/>
-      <c r="I83" s="65"/>
-    </row>
-    <row r="84">
-      <c r="B84" s="65"/>
-      <c r="H84" s="65"/>
-      <c r="I84" s="65"/>
-    </row>
-    <row r="85">
-      <c r="B85" s="65"/>
-      <c r="H85" s="65"/>
-      <c r="I85" s="65"/>
-    </row>
-    <row r="86">
-      <c r="B86" s="65"/>
-      <c r="H86" s="65"/>
-      <c r="I86" s="65"/>
-    </row>
-    <row r="87">
-      <c r="B87" s="65"/>
-      <c r="H87" s="65"/>
-      <c r="I87" s="65"/>
-    </row>
-    <row r="88">
-      <c r="B88" s="65"/>
-      <c r="H88" s="65"/>
-      <c r="I88" s="65"/>
-    </row>
-    <row r="89">
-      <c r="B89" s="65"/>
-      <c r="H89" s="65"/>
-      <c r="I89" s="65"/>
-    </row>
-    <row r="90">
-      <c r="B90" s="65"/>
-      <c r="H90" s="65"/>
-      <c r="I90" s="65"/>
-    </row>
-    <row r="91">
-      <c r="B91" s="65"/>
-      <c r="H91" s="65"/>
-      <c r="I91" s="65"/>
-    </row>
-    <row r="92">
-      <c r="B92" s="65"/>
-      <c r="H92" s="65"/>
+      <c r="D92" s="30">
+        <v>2017.0</v>
+      </c>
+      <c r="E92" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92" s="30" t="s">
+        <v>593</v>
+      </c>
+      <c r="H92" s="42" t="s">
+        <v>706</v>
+      </c>
       <c r="I92" s="65"/>
     </row>
     <row r="93">
-      <c r="B93" s="65"/>
-      <c r="H93" s="65"/>
+      <c r="A93" s="30">
+        <v>117.0</v>
+      </c>
+      <c r="B93" s="75" t="s">
+        <v>665</v>
+      </c>
+      <c r="D93" s="30">
+        <v>2019.0</v>
+      </c>
+      <c r="E93" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" s="30" t="s">
+        <v>593</v>
+      </c>
+      <c r="H93" s="42" t="s">
+        <v>706</v>
+      </c>
       <c r="I93" s="65"/>
+      <c r="R93" s="30">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="94">
-      <c r="B94" s="65"/>
-      <c r="H94" s="65"/>
+      <c r="A94" s="30">
+        <v>118.0</v>
+      </c>
+      <c r="B94" s="75" t="s">
+        <v>666</v>
+      </c>
+      <c r="D94" s="30">
+        <v>2016.0</v>
+      </c>
+      <c r="E94" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" s="30" t="s">
+        <v>593</v>
+      </c>
+      <c r="H94" s="42" t="s">
+        <v>706</v>
+      </c>
       <c r="I94" s="65"/>
     </row>
     <row r="95">
-      <c r="B95" s="65"/>
-      <c r="H95" s="65"/>
+      <c r="A95" s="30">
+        <v>120.0</v>
+      </c>
+      <c r="B95" s="75" t="s">
+        <v>668</v>
+      </c>
+      <c r="D95" s="30">
+        <v>2018.0</v>
+      </c>
+      <c r="E95" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" s="30" t="s">
+        <v>593</v>
+      </c>
+      <c r="H95" s="42" t="s">
+        <v>706</v>
+      </c>
       <c r="I95" s="65"/>
     </row>
     <row r="96">
-      <c r="B96" s="65"/>
-      <c r="H96" s="65"/>
+      <c r="A96" s="30">
+        <v>121.0</v>
+      </c>
+      <c r="B96" s="42" t="s">
+        <v>669</v>
+      </c>
+      <c r="D96" s="30">
+        <v>2018.0</v>
+      </c>
+      <c r="E96" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" s="30" t="s">
+        <v>593</v>
+      </c>
+      <c r="H96" s="42" t="s">
+        <v>706</v>
+      </c>
       <c r="I96" s="65"/>
+      <c r="R96" s="30">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="97">
-      <c r="B97" s="65"/>
-      <c r="H97" s="65"/>
+      <c r="A97" s="30">
+        <v>122.0</v>
+      </c>
+      <c r="B97" s="75" t="s">
+        <v>670</v>
+      </c>
+      <c r="D97" s="30">
+        <v>2019.0</v>
+      </c>
+      <c r="E97" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F97" s="30" t="s">
+        <v>593</v>
+      </c>
+      <c r="H97" s="42" t="s">
+        <v>706</v>
+      </c>
       <c r="I97" s="65"/>
+      <c r="R97" s="30">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="98">
-      <c r="B98" s="65"/>
-      <c r="H98" s="65"/>
+      <c r="A98" s="30">
+        <v>123.0</v>
+      </c>
+      <c r="B98" s="75" t="s">
+        <v>671</v>
+      </c>
+      <c r="D98" s="30">
+        <v>2016.0</v>
+      </c>
+      <c r="E98" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F98" s="30" t="s">
+        <v>593</v>
+      </c>
+      <c r="H98" s="42" t="s">
+        <v>706</v>
+      </c>
       <c r="I98" s="65"/>
+      <c r="R98" s="30">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="99">
-      <c r="B99" s="65"/>
-      <c r="H99" s="65"/>
+      <c r="A99" s="30">
+        <v>124.0</v>
+      </c>
+      <c r="B99" s="75" t="s">
+        <v>672</v>
+      </c>
+      <c r="D99" s="30">
+        <v>2018.0</v>
+      </c>
+      <c r="E99" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F99" s="30" t="s">
+        <v>593</v>
+      </c>
+      <c r="H99" s="42" t="s">
+        <v>706</v>
+      </c>
       <c r="I99" s="65"/>
+      <c r="R99" s="30">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="100">
-      <c r="B100" s="65"/>
-      <c r="H100" s="65"/>
+      <c r="A100" s="30">
+        <v>125.0</v>
+      </c>
+      <c r="B100" s="75" t="s">
+        <v>673</v>
+      </c>
+      <c r="D100" s="30">
+        <v>2018.0</v>
+      </c>
+      <c r="E100" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F100" s="30" t="s">
+        <v>752</v>
+      </c>
+      <c r="H100" s="42" t="s">
+        <v>706</v>
+      </c>
       <c r="I100" s="65"/>
+      <c r="R100" s="30">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="101">
-      <c r="B101" s="65"/>
-      <c r="H101" s="65"/>
+      <c r="A101" s="30">
+        <v>126.0</v>
+      </c>
+      <c r="B101" s="75" t="s">
+        <v>674</v>
+      </c>
+      <c r="D101" s="30">
+        <v>2017.0</v>
+      </c>
+      <c r="E101" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F101" s="30" t="s">
+        <v>753</v>
+      </c>
+      <c r="H101" s="42" t="s">
+        <v>565</v>
+      </c>
       <c r="I101" s="65"/>
+      <c r="R101" s="30">
+        <v>1.0</v>
+      </c>
     </row>
     <row r="102">
-      <c r="B102" s="65"/>
-      <c r="H102" s="65"/>
+      <c r="A102" s="30">
+        <v>127.0</v>
+      </c>
+      <c r="B102" s="75" t="s">
+        <v>675</v>
+      </c>
+      <c r="D102" s="30">
+        <v>2018.0</v>
+      </c>
+      <c r="E102" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F102" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="H102" s="42" t="s">
+        <v>709</v>
+      </c>
       <c r="I102" s="65"/>
+      <c r="R102" s="30">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="103">
-      <c r="B103" s="65"/>
-      <c r="H103" s="65"/>
+      <c r="A103" s="30">
+        <v>128.0</v>
+      </c>
+      <c r="B103" s="42" t="s">
+        <v>676</v>
+      </c>
+      <c r="D103" s="30">
+        <v>2018.0</v>
+      </c>
+      <c r="E103" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F103" s="30" t="s">
+        <v>551</v>
+      </c>
+      <c r="H103" s="42" t="s">
+        <v>565</v>
+      </c>
       <c r="I103" s="65"/>
+      <c r="R103" s="30">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="104">
-      <c r="B104" s="65"/>
-      <c r="H104" s="65"/>
+      <c r="A104" s="30">
+        <v>129.0</v>
+      </c>
+      <c r="B104" s="79" t="s">
+        <v>677</v>
+      </c>
+      <c r="D104" s="30">
+        <v>2018.0</v>
+      </c>
+      <c r="E104" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F104" s="30" t="s">
+        <v>754</v>
+      </c>
+      <c r="H104" s="42" t="s">
+        <v>565</v>
+      </c>
       <c r="I104" s="65"/>
+      <c r="R104" s="30">
+        <v>0.0</v>
+      </c>
     </row>
     <row r="105">
-      <c r="B105" s="65"/>
-      <c r="H105" s="65"/>
+      <c r="A105" s="30">
+        <v>130.0</v>
+      </c>
+      <c r="B105" s="42" t="s">
+        <v>678</v>
+      </c>
+      <c r="D105" s="30">
+        <v>2017.0</v>
+      </c>
+      <c r="E105" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F105" s="30" t="s">
+        <v>755</v>
+      </c>
+      <c r="H105" s="42" t="s">
+        <v>565</v>
+      </c>
       <c r="I105" s="65"/>
     </row>
     <row r="106">
-      <c r="B106" s="65"/>
+      <c r="A106" s="30">
+        <v>132.0</v>
+      </c>
+      <c r="B106" s="75" t="s">
+        <v>680</v>
+      </c>
+      <c r="D106" s="30">
+        <v>2016.0</v>
+      </c>
+      <c r="E106" s="30" t="s">
+        <v>557</v>
+      </c>
       <c r="H106" s="65"/>
       <c r="I106" s="65"/>
     </row>
     <row r="107">
-      <c r="B107" s="65"/>
-      <c r="H107" s="65"/>
+      <c r="A107" s="30">
+        <v>134.0</v>
+      </c>
+      <c r="B107" s="75" t="s">
+        <v>682</v>
+      </c>
+      <c r="D107" s="30">
+        <v>2012.0</v>
+      </c>
+      <c r="E107" s="30" t="s">
+        <v>557</v>
+      </c>
+      <c r="H107" s="42" t="s">
+        <v>706</v>
+      </c>
       <c r="I107" s="65"/>
     </row>
     <row r="108">
-      <c r="B108" s="65"/>
-      <c r="H108" s="65"/>
+      <c r="A108" s="30">
+        <v>135.0</v>
+      </c>
+      <c r="B108" s="75" t="s">
+        <v>683</v>
+      </c>
+      <c r="D108" s="30">
+        <v>2018.0</v>
+      </c>
+      <c r="E108" s="30" t="s">
+        <v>557</v>
+      </c>
+      <c r="H108" s="42" t="s">
+        <v>706</v>
+      </c>
       <c r="I108" s="65"/>
     </row>
     <row r="109">
-      <c r="B109" s="65"/>
-      <c r="H109" s="65"/>
+      <c r="A109" s="30">
+        <v>136.0</v>
+      </c>
+      <c r="B109" s="75" t="s">
+        <v>684</v>
+      </c>
+      <c r="D109" s="30">
+        <v>2017.0</v>
+      </c>
+      <c r="E109" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F109" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H109" s="42" t="s">
+        <v>709</v>
+      </c>
       <c r="I109" s="65"/>
     </row>
     <row r="110">
@@ -36276,8 +38177,34 @@
       <c r="H1033" s="65"/>
       <c r="I1033" s="65"/>
     </row>
+    <row r="1034">
+      <c r="B1034" s="65"/>
+      <c r="H1034" s="65"/>
+      <c r="I1034" s="65"/>
+    </row>
+    <row r="1035">
+      <c r="B1035" s="65"/>
+      <c r="H1035" s="65"/>
+      <c r="I1035" s="65"/>
+    </row>
+    <row r="1036">
+      <c r="B1036" s="65"/>
+      <c r="H1036" s="65"/>
+      <c r="I1036" s="65"/>
+    </row>
+    <row r="1037">
+      <c r="B1037" s="65"/>
+      <c r="H1037" s="65"/>
+      <c r="I1037" s="65"/>
+    </row>
+    <row r="1038">
+      <c r="B1038" s="65"/>
+      <c r="H1038" s="65"/>
+      <c r="I1038" s="65"/>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -36301,32 +38228,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="73" t="s">
-        <v>701</v>
+        <v>756</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="82" t="s">
-        <v>702</v>
+        <v>757</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="82" t="s">
-        <v>703</v>
+        <v>758</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="76" t="s">
-        <v>704</v>
+        <v>759</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="82" t="s">
-        <v>705</v>
+        <v>760</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="82" t="s">
-        <v>706</v>
+        <v>761</v>
       </c>
     </row>
     <row r="7">
@@ -36336,7 +38263,7 @@
     </row>
     <row r="8">
       <c r="A8" s="82" t="s">
-        <v>707</v>
+        <v>762</v>
       </c>
     </row>
     <row r="9">
@@ -36346,202 +38273,202 @@
     </row>
     <row r="10">
       <c r="A10" s="82" t="s">
-        <v>708</v>
+        <v>763</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="82" t="s">
-        <v>709</v>
+        <v>764</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="82" t="s">
-        <v>710</v>
+        <v>765</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="82" t="s">
-        <v>711</v>
+        <v>766</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="82" t="s">
-        <v>712</v>
+        <v>767</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="82" t="s">
-        <v>713</v>
+        <v>768</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="82" t="s">
-        <v>714</v>
+        <v>769</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="82" t="s">
-        <v>715</v>
+        <v>770</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="82" t="s">
-        <v>716</v>
+        <v>771</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="82" t="s">
-        <v>717</v>
+        <v>772</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="82" t="s">
-        <v>718</v>
+        <v>773</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="82" t="s">
-        <v>719</v>
+        <v>774</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="82" t="s">
-        <v>720</v>
+        <v>775</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="82" t="s">
-        <v>721</v>
+        <v>776</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="82" t="s">
-        <v>722</v>
+        <v>777</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="82" t="s">
-        <v>723</v>
+        <v>778</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="82" t="s">
-        <v>724</v>
+        <v>779</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="82" t="s">
-        <v>725</v>
+        <v>780</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="82" t="s">
-        <v>726</v>
+        <v>781</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="82" t="s">
-        <v>727</v>
+        <v>782</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="82" t="s">
-        <v>728</v>
+        <v>783</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="82" t="s">
-        <v>729</v>
+        <v>784</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="82" t="s">
-        <v>730</v>
+        <v>785</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="82" t="s">
-        <v>731</v>
+        <v>786</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="82" t="s">
-        <v>732</v>
+        <v>787</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="82" t="s">
-        <v>733</v>
+        <v>788</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="82" t="s">
-        <v>734</v>
+        <v>789</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="82" t="s">
-        <v>735</v>
+        <v>790</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="41" t="s">
-        <v>736</v>
+      <c r="A38" s="42" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="82" t="s">
-        <v>737</v>
+        <v>792</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="82" t="s">
-        <v>738</v>
+        <v>793</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="82" t="s">
-        <v>739</v>
+        <v>794</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="82" t="s">
-        <v>740</v>
+        <v>795</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="82" t="s">
-        <v>741</v>
+        <v>796</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="82" t="s">
-        <v>742</v>
+        <v>797</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="82" t="s">
-        <v>743</v>
+        <v>798</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="82" t="s">
-        <v>744</v>
+        <v>799</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="82" t="s">
-        <v>745</v>
+        <v>800</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="82" t="s">
-        <v>746</v>
+        <v>801</v>
       </c>
     </row>
     <row r="49" ht="23.25" customHeight="1">
       <c r="A49" s="82" t="s">
-        <v>747</v>
+        <v>802</v>
       </c>
     </row>
     <row r="50">
@@ -36551,57 +38478,57 @@
     </row>
     <row r="51">
       <c r="A51" s="83" t="s">
-        <v>748</v>
+        <v>803</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="82" t="s">
-        <v>749</v>
+        <v>804</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="82" t="s">
-        <v>750</v>
+        <v>805</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="82" t="s">
-        <v>751</v>
+        <v>806</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="82" t="s">
-        <v>752</v>
+        <v>807</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="82" t="s">
-        <v>753</v>
+        <v>808</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="82" t="s">
-        <v>754</v>
+        <v>809</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="82" t="s">
-        <v>755</v>
+        <v>810</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="82" t="s">
-        <v>756</v>
+        <v>811</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="82" t="s">
-        <v>757</v>
+        <v>812</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="82" t="s">
-        <v>758</v>
+        <v>813</v>
       </c>
     </row>
     <row r="62">
@@ -36611,27 +38538,27 @@
     </row>
     <row r="63" ht="42.75" customHeight="1">
       <c r="A63" s="82" t="s">
-        <v>759</v>
+        <v>814</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="82" t="s">
-        <v>760</v>
+        <v>815</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="82" t="s">
-        <v>761</v>
+        <v>816</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="82" t="s">
-        <v>762</v>
+        <v>817</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="82" t="s">
-        <v>763</v>
+        <v>818</v>
       </c>
     </row>
     <row r="68">
@@ -39467,67 +41394,67 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="73" t="s">
-        <v>764</v>
+        <v>819</v>
       </c>
       <c r="B1" s="73" t="s">
-        <v>765</v>
+        <v>820</v>
       </c>
       <c r="C1" s="73" t="s">
-        <v>766</v>
+        <v>821</v>
       </c>
       <c r="D1" s="84" t="s">
-        <v>767</v>
+        <v>822</v>
       </c>
       <c r="E1" s="30" t="s">
         <v>17</v>
       </c>
       <c r="F1" s="82" t="s">
-        <v>768</v>
+        <v>823</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="82" t="s">
-        <v>769</v>
+        <v>824</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>770</v>
+        <v>825</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>771</v>
+        <v>826</v>
       </c>
       <c r="D2" s="30">
         <v>3.0</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>772</v>
+        <v>827</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="30" t="s">
-        <v>773</v>
+        <v>828</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>774</v>
+        <v>829</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>771</v>
+        <v>826</v>
       </c>
       <c r="D3" s="30">
         <v>3.0</v>
       </c>
       <c r="E3" s="30" t="s">
-        <v>775</v>
-      </c>
-      <c r="F3" s="41" t="s">
-        <v>776</v>
+        <v>830</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>831</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="30" t="s">
-        <v>777</v>
+        <v>832</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>770</v>
+        <v>825</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>40</v>
@@ -39536,15 +41463,15 @@
         <v>3.0</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>772</v>
+        <v>827</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="30" t="s">
-        <v>778</v>
+        <v>833</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>770</v>
+        <v>825</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>40</v>
@@ -39553,10 +41480,10 @@
         <v>2.0</v>
       </c>
       <c r="E5" s="30" t="s">
-        <v>772</v>
-      </c>
-      <c r="F5" s="41" t="s">
-        <v>779</v>
+        <v>827</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>834</v>
       </c>
     </row>
     <row r="6">
